--- a/BasePromotores.xlsx
+++ b/BasePromotores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa promotores oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A261BD3B-2F3A-4F19-873C-E1DB65A553BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50030CC0-09C2-4D23-872F-631D084D8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5CE41BE-C900-4588-B23E-B6C109BEAD91}"/>
   </bookViews>
@@ -41822,8 +41822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4818E-EB2E-4876-9F44-6C09BE90B9C1}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132:E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45937,11 +45937,13 @@
       <c r="C125" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D125">
-        <v>-37086442</v>
-      </c>
-      <c r="E125">
-        <v>-38563186</v>
+      <c r="D125" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.75451369</v>
+      </c>
+      <c r="E125" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.48921518</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>283</v>
@@ -45966,11 +45968,13 @@
       <c r="C126" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D126">
-        <v>-37392121</v>
-      </c>
-      <c r="E126">
-        <v>-385924565</v>
+      <c r="D126" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7724462</v>
+      </c>
+      <c r="E126" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.4988506</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>283</v>
@@ -45995,11 +45999,13 @@
       <c r="C127" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D127">
-        <v>-37309369</v>
-      </c>
-      <c r="E127">
-        <v>-385376384</v>
+      <c r="D127" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.761929</v>
+      </c>
+      <c r="E127" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.4906592</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>283</v>
@@ -46024,11 +46030,13 @@
       <c r="C128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D128">
-        <v>-3706231</v>
-      </c>
-      <c r="E128">
-        <v>-385746142</v>
+      <c r="D128" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8314092000000244</v>
+      </c>
+      <c r="E128" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.560540300000014</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>283</v>
@@ -46053,11 +46061,13 @@
       <c r="C129" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D129">
-        <v>-37517869</v>
-      </c>
-      <c r="E129">
-        <v>-38542321</v>
+      <c r="D129" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.768427</v>
+      </c>
+      <c r="E129" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.4936217</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>283</v>
@@ -46082,11 +46092,13 @@
       <c r="C130" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D130">
-        <v>-37265014</v>
-      </c>
-      <c r="E130">
-        <v>-385888214</v>
+      <c r="D130" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8165396</v>
+      </c>
+      <c r="E130" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5571378</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>283</v>
@@ -46111,11 +46123,13 @@
       <c r="C131" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D131">
-        <v>-3730684</v>
-      </c>
-      <c r="E131">
-        <v>-385773564</v>
+      <c r="D131" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8207176</v>
+      </c>
+      <c r="E131" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.55885136</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>283</v>
@@ -46140,11 +46154,13 @@
       <c r="C132" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D132">
-        <v>-37605694</v>
-      </c>
-      <c r="E132">
-        <v>-385306391</v>
+      <c r="D132" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7687918</v>
+      </c>
+      <c r="E132" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5566308</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>283</v>
@@ -46169,11 +46185,13 @@
       <c r="C133" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D133">
-        <v>-37128686</v>
-      </c>
-      <c r="E133">
-        <v>-385486857</v>
+      <c r="D133" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7128686</v>
+      </c>
+      <c r="E133" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5486857</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>125</v>
@@ -46198,11 +46216,13 @@
       <c r="C134" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D134">
-        <v>-37211932</v>
-      </c>
-      <c r="E134">
-        <v>-385583364</v>
+      <c r="D134" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7211932</v>
+      </c>
+      <c r="E134" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5583364</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>125</v>
@@ -46227,11 +46247,13 @@
       <c r="C135" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D135">
-        <v>-3724937699999998</v>
-      </c>
-      <c r="E135">
-        <v>-3858901149999997</v>
+      <c r="D135" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7249377</v>
+      </c>
+      <c r="E135" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5890115</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>125</v>
@@ -46256,11 +46278,13 @@
       <c r="C136" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D136">
-        <v>-37560405</v>
-      </c>
-      <c r="E136">
-        <v>-385114051</v>
+      <c r="D136" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7560405</v>
+      </c>
+      <c r="E136" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5114051</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>125</v>
@@ -46285,11 +46309,13 @@
       <c r="C137" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D137">
-        <v>-37452177</v>
-      </c>
-      <c r="E137">
-        <v>-385401106</v>
+      <c r="D137" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7451759</v>
+      </c>
+      <c r="E137" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5402234</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>125</v>
@@ -46314,11 +46340,13 @@
       <c r="C138" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D138">
-        <v>-37488917</v>
-      </c>
-      <c r="E138">
-        <v>-385149797</v>
+      <c r="D138" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.74863598</v>
+      </c>
+      <c r="E138" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.51500582</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>125</v>
@@ -46343,11 +46371,13 @@
       <c r="C139" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D139">
-        <v>-37384435</v>
-      </c>
-      <c r="E139">
-        <v>-385322235</v>
+      <c r="D139" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.73839532</v>
+      </c>
+      <c r="E139" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.53222215</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>125</v>
@@ -46372,11 +46402,13 @@
       <c r="C140" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D140">
-        <v>-37239459</v>
-      </c>
-      <c r="E140">
-        <v>-384633974</v>
+      <c r="D140" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7242051</v>
+      </c>
+      <c r="E140" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.4636954</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>125</v>
@@ -46401,11 +46433,13 @@
       <c r="C141" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D141">
-        <v>-37658119</v>
-      </c>
-      <c r="E141">
-        <v>-386401267</v>
+      <c r="D141" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7658197</v>
+      </c>
+      <c r="E141" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6401005</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>137</v>
@@ -46430,11 +46464,13 @@
       <c r="C142" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D142">
-        <v>-3765584</v>
-      </c>
-      <c r="E142">
-        <v>-386556327</v>
+      <c r="D142" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7666193</v>
+      </c>
+      <c r="E142" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6538536</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>137</v>
@@ -46459,11 +46495,13 @@
       <c r="C143" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D143">
-        <v>-37292822</v>
-      </c>
-      <c r="E143">
-        <v>-386561383</v>
+      <c r="D143" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.72905976</v>
+      </c>
+      <c r="E143" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.65588134</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>137</v>
@@ -46488,11 +46526,13 @@
       <c r="C144" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D144">
-        <v>-37346141</v>
-      </c>
-      <c r="E144">
-        <v>-386585064</v>
+      <c r="D144" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7342526</v>
+      </c>
+      <c r="E144" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.65836087</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>137</v>
@@ -46517,11 +46557,13 @@
       <c r="C145" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D145">
-        <v>-37355509</v>
-      </c>
-      <c r="E145">
-        <v>-386583151</v>
+      <c r="D145" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.73546304</v>
+      </c>
+      <c r="E145" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.65846975</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>137</v>
@@ -46546,11 +46588,13 @@
       <c r="C146" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D146">
-        <v>-3741646</v>
-      </c>
-      <c r="E146">
-        <v>-38659527</v>
+      <c r="D146" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.741646</v>
+      </c>
+      <c r="E146" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.659527</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>137</v>
@@ -46575,11 +46619,13 @@
       <c r="C147" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D147">
-        <v>-36267018</v>
-      </c>
-      <c r="E147">
-        <v>-387275827</v>
+      <c r="D147" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.625908</v>
+      </c>
+      <c r="E147" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.7283622</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>137</v>
@@ -46604,11 +46650,13 @@
       <c r="C148" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D148">
-        <v>-36750215</v>
-      </c>
-      <c r="E148">
-        <v>-38668521</v>
+      <c r="D148" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.67554656</v>
+      </c>
+      <c r="E148" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.66738313</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>137</v>
@@ -46633,11 +46681,13 @@
       <c r="C149" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D149">
-        <v>-36738192</v>
-      </c>
-      <c r="E149">
-        <v>-386693582</v>
+      <c r="D149" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.6736142</v>
+      </c>
+      <c r="E149" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6696458</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>137</v>
@@ -46662,11 +46712,13 @@
       <c r="C150" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D150">
-        <v>-36735663</v>
-      </c>
-      <c r="E150">
-        <v>-386697043</v>
+      <c r="D150" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.67349324</v>
+      </c>
+      <c r="E150" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.66970537</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>137</v>
@@ -46691,11 +46743,13 @@
       <c r="C151" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D151">
-        <v>-3771637</v>
-      </c>
-      <c r="E151">
-        <v>-386552766</v>
+      <c r="D151" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7716837</v>
+      </c>
+      <c r="E151" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6552574</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>137</v>
@@ -46720,11 +46774,13 @@
       <c r="C152" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D152">
-        <v>-37722143</v>
-      </c>
-      <c r="E152">
-        <v>-386550807</v>
+      <c r="D152" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7691711</v>
+      </c>
+      <c r="E152" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6569162</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>137</v>
@@ -46749,11 +46805,13 @@
       <c r="C153" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D153">
-        <v>-37572988</v>
-      </c>
-      <c r="E153">
-        <v>-386366358</v>
+      <c r="D153" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7688869</v>
+      </c>
+      <c r="E153" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6231497</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>137</v>
@@ -46778,11 +46836,13 @@
       <c r="C154" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D154">
-        <v>-3.640756299275608E+16</v>
-      </c>
-      <c r="E154">
-        <v>-3.8704284188424768E+16</v>
+      <c r="D154" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.64063684</v>
+      </c>
+      <c r="E154" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.70421562</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>137</v>
@@ -46807,11 +46867,13 @@
       <c r="C155" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D155">
-        <v>-3733599</v>
-      </c>
-      <c r="E155">
-        <v>-38656991</v>
+      <c r="D155" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.73335329</v>
+      </c>
+      <c r="E155" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6569974</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>137</v>
@@ -46836,11 +46898,13 @@
       <c r="C156" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D156">
-        <v>-36725051</v>
-      </c>
-      <c r="E156">
-        <v>-386709738</v>
+      <c r="D156" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.67322246</v>
+      </c>
+      <c r="E156" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.67026304</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>137</v>
@@ -46865,11 +46929,13 @@
       <c r="C157" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D157">
-        <v>-37694546</v>
-      </c>
-      <c r="E157">
-        <v>-386543381</v>
+      <c r="D157" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.76944093</v>
+      </c>
+      <c r="E157" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.65433696</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>137</v>
@@ -46894,11 +46960,13 @@
       <c r="C158" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D158">
-        <v>-3736915</v>
-      </c>
-      <c r="E158">
-        <v>-386502819</v>
+      <c r="D158" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.736915</v>
+      </c>
+      <c r="E158" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6502819</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>137</v>
@@ -46923,11 +46991,13 @@
       <c r="C159" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D159">
-        <v>-37898475</v>
-      </c>
-      <c r="E159">
-        <v>-384952833</v>
+      <c r="D159" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7899059</v>
+      </c>
+      <c r="E159" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.495258</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>158</v>
@@ -46952,11 +47022,13 @@
       <c r="C160" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D160">
-        <v>-38471524</v>
-      </c>
-      <c r="E160">
-        <v>-385283154</v>
+      <c r="D160" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8471524</v>
+      </c>
+      <c r="E160" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5283154</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>158</v>
@@ -46981,11 +47053,13 @@
       <c r="C161" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D161">
-        <v>-38298139</v>
-      </c>
-      <c r="E161">
-        <v>-384907932</v>
+      <c r="D161" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8298139</v>
+      </c>
+      <c r="E161" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.4907932</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>158</v>
@@ -47010,11 +47084,13 @@
       <c r="C162" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D162">
-        <v>-38090825</v>
-      </c>
-      <c r="E162">
-        <v>-38524932</v>
+      <c r="D162" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8090825</v>
+      </c>
+      <c r="E162" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.524932</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>158</v>
@@ -47039,11 +47115,13 @@
       <c r="C163" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D163">
-        <v>-38169319</v>
-      </c>
-      <c r="E163">
-        <v>-385317203</v>
+      <c r="D163" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8169208</v>
+      </c>
+      <c r="E163" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5316105</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>158</v>
@@ -47068,11 +47146,13 @@
       <c r="C164" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D164">
-        <v>-38383087</v>
-      </c>
-      <c r="E164">
-        <v>-384875814</v>
+      <c r="D164" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.83829143</v>
+      </c>
+      <c r="E164" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.48757653</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>158</v>
@@ -47097,11 +47177,13 @@
       <c r="C165" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D165">
-        <v>-37868975</v>
-      </c>
-      <c r="E165">
-        <v>-385438315</v>
+      <c r="D165" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7872948</v>
+      </c>
+      <c r="E165" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5439698</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>158</v>
@@ -47126,11 +47208,13 @@
       <c r="C166" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D166">
-        <v>-39728608</v>
-      </c>
-      <c r="E166">
-        <v>-385299243</v>
+      <c r="D166" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.97234558</v>
+      </c>
+      <c r="E166" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.52976029</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>158</v>
@@ -47155,11 +47239,13 @@
       <c r="C167" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D167">
-        <v>-38364647</v>
-      </c>
-      <c r="E167">
-        <v>-385215115</v>
+      <c r="D167" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.83641402</v>
+      </c>
+      <c r="E167" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.52142461</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>158</v>
@@ -47184,11 +47270,13 @@
       <c r="C168" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D168">
-        <v>-38308135</v>
-      </c>
-      <c r="E168">
-        <v>-384623759</v>
+      <c r="D168" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.83076563</v>
+      </c>
+      <c r="E168" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.46236181</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>158</v>
@@ -47213,11 +47301,13 @@
       <c r="C169" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D169">
-        <v>-38168436</v>
-      </c>
-      <c r="E169">
-        <v>-385321687</v>
+      <c r="D169" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.81623338</v>
+      </c>
+      <c r="E169" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.53127553</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>158</v>
@@ -47242,11 +47332,13 @@
       <c r="C170" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D170">
-        <v>-38186253</v>
-      </c>
-      <c r="E170">
-        <v>-385228032</v>
+      <c r="D170" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.81862096</v>
+      </c>
+      <c r="E170" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.52271133</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>158</v>
@@ -47271,11 +47363,13 @@
       <c r="C171" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D171">
-        <v>-37951287</v>
-      </c>
-      <c r="E171">
-        <v>-384744367</v>
+      <c r="D171" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.79508034</v>
+      </c>
+      <c r="E171" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.47443215</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>158</v>
@@ -47300,11 +47394,13 @@
       <c r="C172" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D172">
-        <v>-38298369</v>
-      </c>
-      <c r="E172">
-        <v>-385802565</v>
+      <c r="D172" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.83265451</v>
+      </c>
+      <c r="E172" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.58103395</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>174</v>
@@ -47329,11 +47425,13 @@
       <c r="C173" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D173">
-        <v>-3815584</v>
-      </c>
-      <c r="E173">
-        <v>-38612772</v>
+      <c r="D173" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8143736</v>
+      </c>
+      <c r="E173" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6120921</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>174</v>
@@ -47358,11 +47456,13 @@
       <c r="C174" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D174">
-        <v>-38317798</v>
-      </c>
-      <c r="E174">
-        <v>-3858973</v>
+      <c r="D174" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8317798</v>
+      </c>
+      <c r="E174" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.58973</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>174</v>
@@ -47387,11 +47487,13 @@
       <c r="C175" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D175">
-        <v>-37865803</v>
-      </c>
-      <c r="E175">
-        <v>-38597958</v>
+      <c r="D175" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7865804</v>
+      </c>
+      <c r="E175" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5979579</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>174</v>
@@ -47416,11 +47518,13 @@
       <c r="C176" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D176">
-        <v>-37966519</v>
-      </c>
-      <c r="E176">
-        <v>-386007377</v>
+      <c r="D176" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7966519</v>
+      </c>
+      <c r="E176" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6007377</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>174</v>
@@ -47445,11 +47549,13 @@
       <c r="C177" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D177">
-        <v>-38058125</v>
-      </c>
-      <c r="E177">
-        <v>-386025407</v>
+      <c r="D177" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8057528</v>
+      </c>
+      <c r="E177" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.60253941</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>174</v>
@@ -47474,11 +47580,13 @@
       <c r="C178" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D178">
-        <v>-38060779</v>
-      </c>
-      <c r="E178">
-        <v>-385966233</v>
+      <c r="D178" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.806077</v>
+      </c>
+      <c r="E178" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5966382</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>174</v>
@@ -47503,11 +47611,13 @@
       <c r="C179" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D179">
-        <v>-3817788</v>
-      </c>
-      <c r="E179">
-        <v>-38589921</v>
+      <c r="D179" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.817788</v>
+      </c>
+      <c r="E179" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.589921</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>174</v>
@@ -47532,11 +47642,13 @@
       <c r="C180" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D180">
-        <v>-37881105</v>
-      </c>
-      <c r="E180">
-        <v>-38610719</v>
+      <c r="D180" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7881221</v>
+      </c>
+      <c r="E180" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6107546</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>174</v>
@@ -47561,11 +47673,13 @@
       <c r="C181" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D181">
-        <v>-37807835</v>
-      </c>
-      <c r="E181">
-        <v>-385966741</v>
+      <c r="D181" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7807845</v>
+      </c>
+      <c r="E181" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5966783</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>174</v>
@@ -47590,11 +47704,13 @@
       <c r="C182" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D182">
-        <v>-38142935</v>
-      </c>
-      <c r="E182">
-        <v>-385831318</v>
+      <c r="D182" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8142935</v>
+      </c>
+      <c r="E182" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5831318</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>174</v>
@@ -47619,11 +47735,13 @@
       <c r="C183" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D183">
-        <v>-3819381</v>
-      </c>
-      <c r="E183">
-        <v>-385925385</v>
+      <c r="D183" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.819396</v>
+      </c>
+      <c r="E183" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.592429</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>174</v>
@@ -47648,11 +47766,13 @@
       <c r="C184" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D184">
-        <v>-38119541</v>
-      </c>
-      <c r="E184">
-        <v>-385972122</v>
+      <c r="D184" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8119541</v>
+      </c>
+      <c r="E184" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5972122</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>174</v>
@@ -47677,11 +47797,13 @@
       <c r="C185" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D185">
-        <v>-37999514</v>
-      </c>
-      <c r="E185">
-        <v>-385774916</v>
+      <c r="D185" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.79989965</v>
+      </c>
+      <c r="E185" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5774981</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>174</v>
@@ -47706,11 +47828,13 @@
       <c r="C186" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D186">
-        <v>-38089101</v>
-      </c>
-      <c r="E186">
-        <v>-386275785</v>
+      <c r="D186" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.80892581</v>
+      </c>
+      <c r="E186" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.62755341</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>174</v>
@@ -47735,11 +47859,13 @@
       <c r="C187" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D187">
-        <v>-37905401</v>
-      </c>
-      <c r="E187">
-        <v>-386156724</v>
+      <c r="D187" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.77769483</v>
+      </c>
+      <c r="E187" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.60700068</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>174</v>
@@ -47764,11 +47890,13 @@
       <c r="C188" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D188">
-        <v>-38489665</v>
-      </c>
-      <c r="E188">
-        <v>-385839282</v>
+      <c r="D188" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8496108</v>
+      </c>
+      <c r="E188" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5809081</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>193</v>
@@ -47793,11 +47921,13 @@
       <c r="C189" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D189">
-        <v>-38376175</v>
-      </c>
-      <c r="E189">
-        <v>-385924354</v>
+      <c r="D189" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8359504</v>
+      </c>
+      <c r="E189" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5950891</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>193</v>
@@ -47822,11 +47952,13 @@
       <c r="C190" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D190">
-        <v>-386328938</v>
-      </c>
-      <c r="E190">
-        <v>-38581686</v>
+      <c r="D190" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.86330658</v>
+      </c>
+      <c r="E190" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.58178138</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>193</v>
@@ -47851,11 +47983,13 @@
       <c r="C191" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D191">
-        <v>-38891567</v>
-      </c>
-      <c r="E191">
-        <v>-386108356</v>
+      <c r="D191" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8891567</v>
+      </c>
+      <c r="E191" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6108356</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>193</v>
@@ -47880,11 +48014,13 @@
       <c r="C192" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D192">
-        <v>-38463409</v>
-      </c>
-      <c r="E192">
-        <v>-38656153</v>
+      <c r="D192" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.846401</v>
+      </c>
+      <c r="E192" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.656205</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>193</v>
@@ -47909,11 +48045,13 @@
       <c r="C193" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D193">
-        <v>-38548937</v>
-      </c>
-      <c r="E193">
-        <v>-385789869</v>
+      <c r="D193" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8548937</v>
+      </c>
+      <c r="E193" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5789869</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>193</v>
@@ -47938,11 +48076,13 @@
       <c r="C194" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D194">
-        <v>-3875655</v>
-      </c>
-      <c r="E194">
-        <v>-38609595</v>
+      <c r="D194" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8775392</v>
+      </c>
+      <c r="E194" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6087159</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>193</v>
@@ -47967,11 +48107,13 @@
       <c r="C195" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D195">
-        <v>-38911676</v>
-      </c>
-      <c r="E195">
-        <v>-386818349</v>
+      <c r="D195" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.89206803</v>
+      </c>
+      <c r="E195" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.68194164</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>193</v>
@@ -47996,11 +48138,13 @@
       <c r="C196" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D196">
-        <v>-38558907</v>
-      </c>
-      <c r="E196">
-        <v>-385795996</v>
+      <c r="D196" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.85564449</v>
+      </c>
+      <c r="E196" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5796747</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>193</v>
@@ -48025,11 +48169,13 @@
       <c r="C197" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D197">
-        <v>-38934586</v>
-      </c>
-      <c r="E197">
-        <v>-386077532</v>
+      <c r="D197" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8933999</v>
+      </c>
+      <c r="E197" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6076423</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>193</v>
@@ -48054,11 +48200,13 @@
       <c r="C198" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D198">
-        <v>-38898521</v>
-      </c>
-      <c r="E198">
-        <v>-386171332</v>
+      <c r="D198" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8898521</v>
+      </c>
+      <c r="E198" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6171332</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>193</v>
@@ -48083,11 +48231,13 @@
       <c r="C199" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D199">
-        <v>-38335465</v>
-      </c>
-      <c r="E199">
-        <v>-385527048</v>
+      <c r="D199" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.83330121</v>
+      </c>
+      <c r="E199" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.55298266</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>193</v>
@@ -48112,11 +48262,13 @@
       <c r="C200" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D200">
-        <v>-38361488</v>
-      </c>
-      <c r="E200">
-        <v>-385733762</v>
+      <c r="D200" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.8361488</v>
+      </c>
+      <c r="E200" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5733762</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>193</v>
@@ -48141,11 +48293,13 @@
       <c r="C201" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D201">
-        <v>-37779208</v>
-      </c>
-      <c r="E201">
-        <v>-385977392</v>
+      <c r="D201" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.777836</v>
+      </c>
+      <c r="E201" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.597821</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>218</v>
@@ -48170,11 +48324,13 @@
       <c r="C202" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D202">
-        <v>-3766361</v>
-      </c>
-      <c r="E202">
-        <v>-386211393</v>
+      <c r="D202" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.766361</v>
+      </c>
+      <c r="E202" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6211393</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>218</v>
@@ -48199,11 +48355,13 @@
       <c r="C203" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D203">
-        <v>-37594355</v>
-      </c>
-      <c r="E203">
-        <v>-386163545</v>
+      <c r="D203" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7594355</v>
+      </c>
+      <c r="E203" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6163545</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>218</v>
@@ -48228,11 +48386,13 @@
       <c r="C204" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D204">
-        <v>-37732108</v>
-      </c>
-      <c r="E204">
-        <v>-386271745</v>
+      <c r="D204" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.77334061</v>
+      </c>
+      <c r="E204" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.62707738</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>218</v>
@@ -48257,11 +48417,13 @@
       <c r="C205" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D205">
-        <v>-37675328</v>
-      </c>
-      <c r="E205">
-        <v>-386248234</v>
+      <c r="D205" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.767533</v>
+      </c>
+      <c r="E205" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6248232</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>218</v>
@@ -48286,11 +48448,13 @@
       <c r="C206" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D206">
-        <v>-3.7586939999999912E+16</v>
-      </c>
-      <c r="E206">
-        <v>-3.8625414999999976E+16</v>
+      <c r="D206" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.758694</v>
+      </c>
+      <c r="E206" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.625415</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>218</v>
@@ -48315,11 +48479,13 @@
       <c r="C207" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D207">
-        <v>-37568315</v>
-      </c>
-      <c r="E207">
-        <v>-386015247</v>
+      <c r="D207" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7567884</v>
+      </c>
+      <c r="E207" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.6017086</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>218</v>
@@ -48344,11 +48510,13 @@
       <c r="C208" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D208">
-        <v>-37541549</v>
-      </c>
-      <c r="E208">
-        <v>-385454548</v>
+      <c r="D208" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7541549</v>
+      </c>
+      <c r="E208" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5454548</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>218</v>
@@ -48373,11 +48541,13 @@
       <c r="C209" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D209">
-        <v>-37759137</v>
-      </c>
-      <c r="E209">
-        <v>-385788541</v>
+      <c r="D209" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7759137</v>
+      </c>
+      <c r="E209" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5788541</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>218</v>
@@ -48402,11 +48572,13 @@
       <c r="C210" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D210">
-        <v>-37842908</v>
-      </c>
-      <c r="E210">
-        <v>-385691114</v>
+      <c r="D210" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7842908</v>
+      </c>
+      <c r="E210" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5691114</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>218</v>
@@ -48431,11 +48603,13 @@
       <c r="C211" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D211">
-        <v>-37466084</v>
-      </c>
-      <c r="E211">
-        <v>-385504447</v>
+      <c r="D211" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7466444</v>
+      </c>
+      <c r="E211" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5504395</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>218</v>
@@ -48460,11 +48634,13 @@
       <c r="C212" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D212">
-        <v>-37802372</v>
-      </c>
-      <c r="E212">
-        <v>-385784333</v>
+      <c r="D212" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7802372</v>
+      </c>
+      <c r="E212" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5784333</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>218</v>
@@ -48489,11 +48665,13 @@
       <c r="C213" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D213">
-        <v>-37577692</v>
-      </c>
-      <c r="E213">
-        <v>-386103833</v>
+      <c r="D213" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.75761186</v>
+      </c>
+      <c r="E213" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.61031199</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>218</v>
@@ -48518,11 +48696,13 @@
       <c r="C214" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D214">
-        <v>-37492724</v>
-      </c>
-      <c r="E214">
-        <v>-385488703</v>
+      <c r="D214" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7492724</v>
+      </c>
+      <c r="E214" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5488703</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>218</v>
@@ -48547,11 +48727,13 @@
       <c r="C215" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D215">
-        <v>-37603291</v>
-      </c>
-      <c r="E215">
-        <v>-385423981</v>
+      <c r="D215" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
+        <v>-3.7603291</v>
+      </c>
+      <c r="E215" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
+        <v>-38.5423981</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>218</v>

--- a/BasePromotores.xlsx
+++ b/BasePromotores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa promotores oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{50030CC0-09C2-4D23-872F-631D084D8525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7E9563-D401-423D-807E-2CC6A38B1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5CE41BE-C900-4588-B23E-B6C109BEAD91}"/>
   </bookViews>
@@ -621,9 +621,6 @@
     <t>KALBIR ATACAREJO - LJ 01</t>
   </si>
   <si>
-    <t>EDUARDO DAVI DE SOUSA DE OLIVEIRA</t>
-  </si>
-  <si>
     <t>-3.8312345</t>
   </si>
   <si>
@@ -893,6 +890,9 @@
   <si>
     <t>Paula Celia</t>
   </si>
+  <si>
+    <t>Franklin teran</t>
+  </si>
 </sst>
 </file>
 
@@ -954,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -968,6 +968,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -41822,8 +41825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4818E-EB2E-4876-9F44-6C09BE90B9C1}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132:E215"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41887,7 +41890,7 @@
         <v>-38.555096</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G2" s="4">
         <v>11868</v>
@@ -41920,7 +41923,7 @@
         <v>-38.5538401</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="4">
         <v>11868</v>
@@ -41953,7 +41956,7 @@
         <v>-38.5671401</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G4" s="4">
         <v>11868</v>
@@ -41986,7 +41989,7 @@
         <v>-38.53740405</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="4">
         <v>11868</v>
@@ -42019,7 +42022,7 @@
         <v>-38.547114</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" s="4">
         <v>11868</v>
@@ -42052,7 +42055,7 @@
         <v>-38.549750700000004</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="4">
         <v>11868</v>
@@ -42085,7 +42088,7 @@
         <v>-38.57033</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G8" s="4">
         <v>11868</v>
@@ -42118,7 +42121,7 @@
         <v>-38.5667357</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G9" s="4">
         <v>11868</v>
@@ -42151,7 +42154,7 @@
         <v>-38.5691635</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G10" s="4">
         <v>11868</v>
@@ -42184,7 +42187,7 @@
         <v>-38.586656</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G11" s="3">
         <v>11108</v>
@@ -42217,7 +42220,7 @@
         <v>-38.5880765</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G12" s="3">
         <v>11108</v>
@@ -42236,7 +42239,7 @@
         <v>2351</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -42250,7 +42253,7 @@
         <v>-38.6092229</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" s="3">
         <v>11108</v>
@@ -42283,7 +42286,7 @@
         <v>-38.682205</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G14" s="3">
         <v>11108</v>
@@ -42316,7 +42319,7 @@
         <v>-38.67373332</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G15" s="3">
         <v>11108</v>
@@ -42349,7 +42352,7 @@
         <v>-38.57394099</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="3">
         <v>11108</v>
@@ -42382,7 +42385,7 @@
         <v>-38.5743582</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G17" s="3">
         <v>11108</v>
@@ -42415,7 +42418,7 @@
         <v>-38.6246732</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" s="3">
         <v>11108</v>
@@ -42448,7 +42451,7 @@
         <v>-38.62523</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="3">
         <v>11108</v>
@@ -42481,7 +42484,7 @@
         <v>-38.59633799</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G20" s="3">
         <v>11108</v>
@@ -42514,7 +42517,7 @@
         <v>-38.4867581</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G21" s="4">
         <v>12079</v>
@@ -42547,7 +42550,7 @@
         <v>-38.4749343</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G22" s="4">
         <v>12079</v>
@@ -42580,7 +42583,7 @@
         <v>-38.4816158</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="4">
         <v>12079</v>
@@ -42613,7 +42616,7 @@
         <v>-38.5013099</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" s="4">
         <v>12079</v>
@@ -42646,7 +42649,7 @@
         <v>-38.4794315</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G25" s="4">
         <v>12079</v>
@@ -42679,7 +42682,7 @@
         <v>-38.4862037</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G26" s="4">
         <v>12079</v>
@@ -42712,7 +42715,7 @@
         <v>-38.513129</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G27" s="4">
         <v>12079</v>
@@ -42745,7 +42748,7 @@
         <v>-38.4719109</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G28" s="4">
         <v>12079</v>
@@ -42778,7 +42781,7 @@
         <v>-38.4895647</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G29" s="4">
         <v>12079</v>
@@ -42811,7 +42814,7 @@
         <v>-38.56794475</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G30" s="4">
         <v>12079</v>
@@ -42830,7 +42833,7 @@
         <v>942</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>10</v>
@@ -42844,7 +42847,7 @@
         <v>-38.516113</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G31" s="4">
         <v>12079</v>
@@ -42877,7 +42880,7 @@
         <v>-38.512375</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="4">
         <v>12079</v>
@@ -42896,7 +42899,7 @@
         <v>8900009</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>10</v>
@@ -42910,7 +42913,7 @@
         <v>-38.5125923</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G33" s="4">
         <v>12079</v>
@@ -42943,7 +42946,7 @@
         <v>-38.5125024</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G34" s="4">
         <v>12079</v>
@@ -42976,7 +42979,7 @@
         <v>-38.6024185</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G35" s="5">
         <v>11587</v>
@@ -43009,7 +43012,7 @@
         <v>-38.59964399</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G36" s="5">
         <v>11587</v>
@@ -43042,7 +43045,7 @@
         <v>-38.5861946</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G37" s="5">
         <v>11587</v>
@@ -43075,7 +43078,7 @@
         <v>-38.57358276</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G38" s="5">
         <v>11587</v>
@@ -43108,7 +43111,7 @@
         <v>-38.5846885</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G39" s="5">
         <v>11587</v>
@@ -43141,7 +43144,7 @@
         <v>-38.5864455</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G40" s="5">
         <v>11587</v>
@@ -43174,7 +43177,7 @@
         <v>-38.59061584</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G41" s="5">
         <v>11587</v>
@@ -43207,7 +43210,7 @@
         <v>-38.6045471</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G42" s="5">
         <v>11587</v>
@@ -43240,7 +43243,7 @@
         <v>-38.5843396</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G43" s="5">
         <v>11587</v>
@@ -43273,7 +43276,7 @@
         <v>-38.5882422</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G44" s="5">
         <v>11587</v>
@@ -43306,7 +43309,7 @@
         <v>-38.6223482</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G45" s="4">
         <v>11678</v>
@@ -43339,7 +43342,7 @@
         <v>-38.6595839</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G46" s="4">
         <v>11678</v>
@@ -43372,7 +43375,7 @@
         <v>-38.5885703</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G47" s="4">
         <v>11678</v>
@@ -43405,7 +43408,7 @@
         <v>-38.57899347</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G48" s="4">
         <v>11678</v>
@@ -43438,7 +43441,7 @@
         <v>-38.5780082</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="4">
         <v>11678</v>
@@ -43471,7 +43474,7 @@
         <v>-38.56453049999993</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G50" s="4">
         <v>11678</v>
@@ -43504,7 +43507,7 @@
         <v>-38.5783717</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G51" s="4">
         <v>11678</v>
@@ -43537,7 +43540,7 @@
         <v>-38.6282389</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G52" s="4">
         <v>11678</v>
@@ -43570,7 +43573,7 @@
         <v>-38.5959119</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G53" s="4">
         <v>11678</v>
@@ -43603,7 +43606,7 @@
         <v>-38.61643438</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G54" s="4">
         <v>11678</v>
@@ -43636,7 +43639,7 @@
         <v>-38.5963513</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G55" s="4">
         <v>11678</v>
@@ -43668,19 +43671,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4759777</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G56" s="4">
-        <v>12080</v>
+      <c r="F56" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="7">
+        <v>12087</v>
       </c>
       <c r="H56" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -43701,19 +43704,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.50204381</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G57" s="4">
-        <v>12080</v>
+      <c r="F57" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G57" s="7">
+        <v>12087</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -43734,19 +43737,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4990562</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G58" s="4">
-        <v>12080</v>
+      <c r="F58" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="7">
+        <v>12087</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -43754,7 +43757,7 @@
         <v>1049</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -43767,19 +43770,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4901664</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G59" s="4">
-        <v>12080</v>
+      <c r="F59" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G59" s="7">
+        <v>12087</v>
       </c>
       <c r="H59" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -43787,7 +43790,7 @@
         <v>11879</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>10</v>
@@ -43800,19 +43803,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.49383649</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G60" s="4">
-        <v>12080</v>
+      <c r="F60" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="7">
+        <v>12087</v>
       </c>
       <c r="H60" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -43833,19 +43836,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4872714</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G61" s="4">
-        <v>12080</v>
+      <c r="F61" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" s="7">
+        <v>12087</v>
       </c>
       <c r="H61" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -43866,19 +43869,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5562854</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G62" s="4">
-        <v>12080</v>
+      <c r="F62" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G62" s="7">
+        <v>12087</v>
       </c>
       <c r="H62" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -43899,19 +43902,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5335303</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G63" s="4">
-        <v>12080</v>
+      <c r="F63" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="7">
+        <v>12087</v>
       </c>
       <c r="H63" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -43932,19 +43935,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5299942</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G64" s="4">
-        <v>12080</v>
+      <c r="F64" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="7">
+        <v>12087</v>
       </c>
       <c r="H64" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8288185246001900</v>
+        <v>-3.763672271679188</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.551014968508400</v>
+        <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -43952,7 +43955,7 @@
         <v>838</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
@@ -43966,7 +43969,7 @@
         <v>-38.5080673</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G65" s="4">
         <v>11932</v>
@@ -43985,7 +43988,7 @@
         <v>11775</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
@@ -43999,7 +44002,7 @@
         <v>-38.53237147</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G66" s="4">
         <v>11932</v>
@@ -44018,7 +44021,7 @@
         <v>9341</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>10</v>
@@ -44032,7 +44035,7 @@
         <v>-38.5276962</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G67" s="4">
         <v>11932</v>
@@ -44065,7 +44068,7 @@
         <v>-38.5136501</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G68" s="4">
         <v>11932</v>
@@ -44084,7 +44087,7 @@
         <v>2309</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
@@ -44098,7 +44101,7 @@
         <v>-38.5285489</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G69" s="4">
         <v>11932</v>
@@ -44117,7 +44120,7 @@
         <v>3784</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
@@ -44131,7 +44134,7 @@
         <v>-38.5303956</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G70" s="4">
         <v>11932</v>
@@ -44164,7 +44167,7 @@
         <v>-38.5075747</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G71" s="4">
         <v>11932</v>
@@ -44197,7 +44200,7 @@
         <v>-38.5131575</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G72" s="4">
         <v>11932</v>
@@ -44230,7 +44233,7 @@
         <v>-38.55094759999997</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G73" s="4">
         <v>11932</v>
@@ -44263,7 +44266,7 @@
         <v>-38.5517313</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G74" s="4">
         <v>11932</v>
@@ -44296,7 +44299,7 @@
         <v>-38.5897058</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G75" s="4">
         <v>11932</v>
@@ -44315,7 +44318,7 @@
         <v>3508</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -44329,7 +44332,7 @@
         <v>-38.5229264</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G76" s="4">
         <v>11932</v>
@@ -44348,7 +44351,7 @@
         <v>4111</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>10</v>
@@ -44362,7 +44365,7 @@
         <v>-38.5313805</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G77" s="4">
         <v>11932</v>
@@ -44395,7 +44398,7 @@
         <v>-38.4971878</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G78" s="4">
         <v>12028</v>
@@ -44428,7 +44431,7 @@
         <v>-38.4963739</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G79" s="4">
         <v>12028</v>
@@ -44461,7 +44464,7 @@
         <v>-38.4923427</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G80" s="4">
         <v>12028</v>
@@ -44494,7 +44497,7 @@
         <v>-38.4994049</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G81" s="4">
         <v>12028</v>
@@ -44527,7 +44530,7 @@
         <v>-38.496844</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G82" s="4">
         <v>12028</v>
@@ -44560,7 +44563,7 @@
         <v>-38.4962057</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G83" s="4">
         <v>12028</v>
@@ -44593,7 +44596,7 @@
         <v>-38.4938184</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G84" s="4">
         <v>12028</v>
@@ -44626,7 +44629,7 @@
         <v>-38.4883391</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G85" s="4">
         <v>12028</v>
@@ -44659,7 +44662,7 @@
         <v>-38.5561623</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G86" s="4">
         <v>12076</v>
@@ -44692,7 +44695,7 @@
         <v>-38.5599157</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G87" s="4">
         <v>12076</v>
@@ -44725,7 +44728,7 @@
         <v>-38.540229</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G88" s="4">
         <v>12076</v>
@@ -44758,7 +44761,7 @@
         <v>-38.54911</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G89" s="4">
         <v>12076</v>
@@ -44791,7 +44794,7 @@
         <v>-38.5530651</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G90" s="4">
         <v>12076</v>
@@ -44824,7 +44827,7 @@
         <v>-38.5603054</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G91" s="4">
         <v>12076</v>
@@ -44857,7 +44860,7 @@
         <v>-38.568373</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G92" s="4">
         <v>12076</v>
@@ -44890,7 +44893,7 @@
         <v>-38.5662836</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G93" s="4">
         <v>12076</v>
@@ -44923,7 +44926,7 @@
         <v>-38.5559982</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G94" s="4">
         <v>12076</v>
@@ -44956,7 +44959,7 @@
         <v>-38.5586262</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G95" s="4">
         <v>12076</v>
@@ -44989,7 +44992,7 @@
         <v>-38.5268458</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G96" s="4">
         <v>12076</v>
@@ -45022,7 +45025,7 @@
         <v>-38.5204755</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G97" s="4">
         <v>12076</v>
@@ -45055,7 +45058,7 @@
         <v>-38.50743777</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G98" s="4">
         <v>12027</v>
@@ -45088,7 +45091,7 @@
         <v>-38.50257130</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G99" s="4">
         <v>12027</v>
@@ -45121,7 +45124,7 @@
         <v>-38.51477265</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G100" s="4">
         <v>12027</v>
@@ -45154,7 +45157,7 @@
         <v>-38.51200331</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G101" s="4">
         <v>12027</v>
@@ -45187,7 +45190,7 @@
         <v>-38.4613795</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G102" s="4">
         <v>12027</v>
@@ -45220,7 +45223,7 @@
         <v>-38.4675121</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G103" s="4">
         <v>12027</v>
@@ -45253,7 +45256,7 @@
         <v>-38.396320939064026</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G104" s="4">
         <v>12027</v>
@@ -45286,7 +45289,7 @@
         <v>-38.47433135</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G105" s="5">
         <v>11679</v>
@@ -45319,7 +45322,7 @@
         <v>-38.47426069</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G106" s="5">
         <v>11679</v>
@@ -45352,7 +45355,7 @@
         <v>-38.509759</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G107" s="5">
         <v>11679</v>
@@ -45385,7 +45388,7 @@
         <v>-38.49478307</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G108" s="5">
         <v>11679</v>
@@ -45418,7 +45421,7 @@
         <v>-38.4875383</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G109" s="5">
         <v>11679</v>
@@ -45437,7 +45440,7 @@
         <v>10947</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>10</v>
@@ -45451,7 +45454,7 @@
         <v>-38.4817816</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G110" s="5">
         <v>11679</v>
@@ -45484,7 +45487,7 @@
         <v>-38.4916446</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G111" s="5">
         <v>11679</v>
@@ -45517,7 +45520,7 @@
         <v>-38.4822819</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G112" s="5">
         <v>11679</v>
@@ -45550,7 +45553,7 @@
         <v>-38.495747</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G113" s="4">
         <v>11023</v>
@@ -45569,7 +45572,7 @@
         <v>4393</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>10</v>
@@ -45583,7 +45586,7 @@
         <v>-38.4958533</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G114" s="4">
         <v>11023</v>
@@ -45616,7 +45619,7 @@
         <v>-38.5041525</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G115" s="4">
         <v>11023</v>
@@ -45649,7 +45652,7 @@
         <v>-38.4922603</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G116" s="4">
         <v>11023</v>
@@ -45682,7 +45685,7 @@
         <v>-38.4886676</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G117" s="4">
         <v>11023</v>
@@ -45715,7 +45718,7 @@
         <v>-38.4974441</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G118" s="4">
         <v>11023</v>
@@ -45748,7 +45751,7 @@
         <v>-38.4859163</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G119" s="4">
         <v>11023</v>
@@ -45781,7 +45784,7 @@
         <v>-38.4937798</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G120" s="4">
         <v>11023</v>
@@ -45814,7 +45817,7 @@
         <v>-38.49493</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G121" s="4">
         <v>11023</v>
@@ -45833,7 +45836,7 @@
         <v>8900006</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>10</v>
@@ -45847,7 +45850,7 @@
         <v>-38.490536</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G122" s="4">
         <v>11023</v>
@@ -45866,7 +45869,7 @@
         <v>1034</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>10</v>
@@ -45880,7 +45883,7 @@
         <v>-38.56049735</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G123" s="4">
         <v>10931</v>
@@ -45899,7 +45902,7 @@
         <v>8900019</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>10</v>
@@ -45913,7 +45916,7 @@
         <v>-38.4806392</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G124" s="4">
         <v>10931</v>
@@ -45946,7 +45949,7 @@
         <v>-38.48921518</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G125" s="4">
         <v>10931</v>
@@ -45977,7 +45980,7 @@
         <v>-38.4988506</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G126" s="4">
         <v>10931</v>
@@ -46008,7 +46011,7 @@
         <v>-38.4906592</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G127" s="4">
         <v>10931</v>
@@ -46039,7 +46042,7 @@
         <v>-38.560540300000014</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G128" s="4">
         <v>10931</v>
@@ -46070,7 +46073,7 @@
         <v>-38.4936217</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G129" s="4">
         <v>10931</v>
@@ -46101,7 +46104,7 @@
         <v>-38.5571378</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G130" s="4">
         <v>10931</v>
@@ -46132,7 +46135,7 @@
         <v>-38.55885136</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G131" s="4">
         <v>10931</v>
@@ -46163,7 +46166,7 @@
         <v>-38.5566308</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G132" s="4">
         <v>10931</v>
@@ -47898,17 +47901,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5809081</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F188" t="s">
+        <v>275</v>
+      </c>
+      <c r="G188">
+        <v>12080</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G188">
-        <v>11638</v>
-      </c>
-      <c r="H188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -47916,7 +47919,7 @@
         <v>1708</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>124</v>
@@ -47929,17 +47932,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5950891</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F189" t="s">
+        <v>275</v>
+      </c>
+      <c r="G189">
+        <v>12080</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G189">
-        <v>11638</v>
-      </c>
-      <c r="H189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -47947,7 +47950,7 @@
         <v>9326</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>124</v>
@@ -47960,17 +47963,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.58178138</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" t="s">
+        <v>275</v>
+      </c>
+      <c r="G190">
+        <v>12080</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G190">
-        <v>11638</v>
-      </c>
-      <c r="H190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -47978,7 +47981,7 @@
         <v>1875</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>124</v>
@@ -47991,17 +47994,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6108356</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F191" t="s">
+        <v>275</v>
+      </c>
+      <c r="G191">
+        <v>12080</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G191">
-        <v>11638</v>
-      </c>
-      <c r="H191" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -48009,7 +48012,7 @@
         <v>1142</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>124</v>
@@ -48022,17 +48025,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.656205</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F192" t="s">
+        <v>275</v>
+      </c>
+      <c r="G192">
+        <v>12080</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G192">
-        <v>11638</v>
-      </c>
-      <c r="H192" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -48040,7 +48043,7 @@
         <v>3765</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>124</v>
@@ -48053,17 +48056,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5789869</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" t="s">
+        <v>275</v>
+      </c>
+      <c r="G193">
+        <v>12080</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G193">
-        <v>11638</v>
-      </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -48071,7 +48074,7 @@
         <v>1998</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>124</v>
@@ -48084,17 +48087,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6087159</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="F194" t="s">
+        <v>275</v>
+      </c>
+      <c r="G194">
+        <v>12080</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G194">
-        <v>11638</v>
-      </c>
-      <c r="H194" s="1" t="s">
+      <c r="I194" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -48102,7 +48105,7 @@
         <v>1963</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>124</v>
@@ -48115,17 +48118,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.68194164</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F195" t="s">
+        <v>275</v>
+      </c>
+      <c r="G195">
+        <v>12080</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G195">
-        <v>11638</v>
-      </c>
-      <c r="H195" s="1" t="s">
+      <c r="I195" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -48133,7 +48136,7 @@
         <v>11220</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>124</v>
@@ -48146,17 +48149,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5796747</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F196" t="s">
+        <v>275</v>
+      </c>
+      <c r="G196">
+        <v>12080</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G196">
-        <v>11638</v>
-      </c>
-      <c r="H196" s="1" t="s">
+      <c r="I196" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -48164,7 +48167,7 @@
         <v>4002</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>124</v>
@@ -48177,17 +48180,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6076423</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" t="s">
+        <v>275</v>
+      </c>
+      <c r="G197">
+        <v>12080</v>
+      </c>
+      <c r="H197" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G197">
-        <v>11638</v>
-      </c>
-      <c r="H197" s="1" t="s">
+      <c r="I197" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -48195,7 +48198,7 @@
         <v>2385</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>124</v>
@@ -48208,17 +48211,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6171332</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" t="s">
+        <v>275</v>
+      </c>
+      <c r="G198">
+        <v>12080</v>
+      </c>
+      <c r="H198" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G198">
-        <v>11638</v>
-      </c>
-      <c r="H198" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -48226,7 +48229,7 @@
         <v>4057</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>124</v>
@@ -48239,17 +48242,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.55298266</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F199" t="s">
+        <v>275</v>
+      </c>
+      <c r="G199">
+        <v>12080</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G199">
-        <v>11638</v>
-      </c>
-      <c r="H199" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -48257,7 +48260,7 @@
         <v>10752</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>124</v>
@@ -48270,17 +48273,17 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5733762</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" t="s">
+        <v>275</v>
+      </c>
+      <c r="G200">
+        <v>12080</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G200">
-        <v>11638</v>
-      </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -48288,7 +48291,7 @@
         <v>9319</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>124</v>
@@ -48302,16 +48305,16 @@
         <v>-38.597821</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G201">
         <v>5</v>
       </c>
       <c r="H201" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I201" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -48319,7 +48322,7 @@
         <v>931</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>124</v>
@@ -48333,16 +48336,16 @@
         <v>-38.6211393</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G202">
         <v>5</v>
       </c>
       <c r="H202" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I202" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -48350,7 +48353,7 @@
         <v>719</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>124</v>
@@ -48364,16 +48367,16 @@
         <v>-38.6163545</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G203">
         <v>5</v>
       </c>
       <c r="H203" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I203" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -48381,7 +48384,7 @@
         <v>718</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>124</v>
@@ -48395,16 +48398,16 @@
         <v>-38.62707738</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G204">
         <v>5</v>
       </c>
       <c r="H204" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I204" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -48412,7 +48415,7 @@
         <v>715</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>124</v>
@@ -48426,16 +48429,16 @@
         <v>-38.6248232</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G205">
         <v>5</v>
       </c>
       <c r="H205" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I205" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -48443,7 +48446,7 @@
         <v>2279</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>124</v>
@@ -48457,16 +48460,16 @@
         <v>-38.625415</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G206">
         <v>5</v>
       </c>
       <c r="H206" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I206" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -48474,7 +48477,7 @@
         <v>803</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>124</v>
@@ -48488,16 +48491,16 @@
         <v>-38.6017086</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G207">
         <v>5</v>
       </c>
       <c r="H207" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I207" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -48505,7 +48508,7 @@
         <v>677</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>124</v>
@@ -48519,16 +48522,16 @@
         <v>-38.5454548</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G208">
         <v>5</v>
       </c>
       <c r="H208" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I208" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -48536,7 +48539,7 @@
         <v>251</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>124</v>
@@ -48550,16 +48553,16 @@
         <v>-38.5788541</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G209">
         <v>5</v>
       </c>
       <c r="H209" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I209" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -48567,7 +48570,7 @@
         <v>611</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>124</v>
@@ -48581,16 +48584,16 @@
         <v>-38.5691114</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G210">
         <v>5</v>
       </c>
       <c r="H210" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I210" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -48598,7 +48601,7 @@
         <v>658</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>124</v>
@@ -48612,16 +48615,16 @@
         <v>-38.5504395</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G211">
         <v>5</v>
       </c>
       <c r="H211" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -48629,7 +48632,7 @@
         <v>620</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>124</v>
@@ -48643,16 +48646,16 @@
         <v>-38.5784333</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G212">
         <v>5</v>
       </c>
       <c r="H212" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I212" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -48660,7 +48663,7 @@
         <v>11412</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>124</v>
@@ -48674,16 +48677,16 @@
         <v>-38.61031199</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G213">
         <v>5</v>
       </c>
       <c r="H213" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I213" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -48691,7 +48694,7 @@
         <v>11354</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>124</v>
@@ -48705,16 +48708,16 @@
         <v>-38.5488703</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G214">
         <v>5</v>
       </c>
       <c r="H214" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I214" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -48722,7 +48725,7 @@
         <v>9597</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>124</v>
@@ -48736,16 +48739,16 @@
         <v>-38.5423981</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G215">
         <v>5</v>
       </c>
       <c r="H215" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/BasePromotores.xlsx
+++ b/BasePromotores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa promotores oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7E9563-D401-423D-807E-2CC6A38B1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{794C48D9-CCF6-4FAA-B29D-FE151961BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5CE41BE-C900-4588-B23E-B6C109BEAD91}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="294">
   <si>
     <t>COD</t>
   </si>
@@ -423,9 +423,6 @@
     <t>-3.7463125</t>
   </si>
   <si>
-    <t>-38.5938282</t>
-  </si>
-  <si>
     <t>CANTINHO DAS FRUTAS - PIRAMBU</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>-3.7588237</t>
-  </si>
-  <si>
-    <t>-38.6614319</t>
   </si>
   <si>
     <t>COMPREMAX - METROPOLE</t>
@@ -522,9 +516,6 @@
     <t>-3.8128273</t>
   </si>
   <si>
-    <t>-38.51970440</t>
-  </si>
-  <si>
     <t>OFERTASSO - CONJ PALMEIRAS</t>
   </si>
   <si>
@@ -568,9 +559,6 @@
   </si>
   <si>
     <t>-3.7753530</t>
-  </si>
-  <si>
-    <t>-38.61719978</t>
   </si>
   <si>
     <t>BARATAO - SIQUEIRA</t>
@@ -622,9 +610,6 @@
   </si>
   <si>
     <t>-3.8312345</t>
-  </si>
-  <si>
-    <t>-38.5785069</t>
   </si>
   <si>
     <t>NOSSA SRA DE FATIMA</t>
@@ -699,133 +684,46 @@
     <t>-3.7609797</t>
   </si>
   <si>
-    <t>-38.6618395</t>
-  </si>
-  <si>
     <t>MERCADINHO RAIMUNDINHO</t>
-  </si>
-  <si>
-    <t>-3.7609798</t>
-  </si>
-  <si>
-    <t>-38.6618396</t>
   </si>
   <si>
     <t>EXITO - PRQ ALBANO</t>
   </si>
   <si>
-    <t>-3.7609799</t>
-  </si>
-  <si>
-    <t>-38.6618397</t>
-  </si>
-  <si>
     <t>COMPREMAX - JUREMA</t>
-  </si>
-  <si>
-    <t>-3.7609800</t>
-  </si>
-  <si>
-    <t>-38.6618398</t>
   </si>
   <si>
     <t>EXITO - PRQ POTIRA III</t>
   </si>
   <si>
-    <t>-3.7609801</t>
-  </si>
-  <si>
-    <t>-38.6618399</t>
-  </si>
-  <si>
     <t>EXITO - ACAPULCO</t>
-  </si>
-  <si>
-    <t>-3.7609802</t>
-  </si>
-  <si>
-    <t>-38.6618400</t>
   </si>
   <si>
     <t>LAREDO - GENIBAU</t>
   </si>
   <si>
-    <t>-3.7609803</t>
-  </si>
-  <si>
-    <t>-38.6618401</t>
-  </si>
-  <si>
     <t>SUPER UCHOA - LJ 01</t>
-  </si>
-  <si>
-    <t>-3.7609804</t>
-  </si>
-  <si>
-    <t>-38.6618402</t>
   </si>
   <si>
     <t>MERC PINHEIRO E CARNEIRO</t>
   </si>
   <si>
-    <t>-3.7609805</t>
-  </si>
-  <si>
-    <t>-38.6618403</t>
-  </si>
-  <si>
     <t>SUPER PORTUGAL - MARAPONGA</t>
-  </si>
-  <si>
-    <t>-3.7609806</t>
-  </si>
-  <si>
-    <t>-38.6618404</t>
   </si>
   <si>
     <t>BRASILEIRO - RODOLFO TEOFILO</t>
   </si>
   <si>
-    <t>-3.7609807</t>
-  </si>
-  <si>
-    <t>-38.6618405</t>
-  </si>
-  <si>
     <t>SUPER PORTUGAL - VILA PERI</t>
-  </si>
-  <si>
-    <t>-3.7609808</t>
-  </si>
-  <si>
-    <t>-38.6618406</t>
   </si>
   <si>
     <t>MIRELLY - CONJ CEARA</t>
   </si>
   <si>
-    <t>-3.7609809</t>
-  </si>
-  <si>
-    <t>-38.6618407</t>
-  </si>
-  <si>
     <t>SUPER UCHOA - LJ 03</t>
   </si>
   <si>
-    <t>-3.7609810</t>
-  </si>
-  <si>
-    <t>-38.6618408</t>
-  </si>
-  <si>
     <t>VITORIANO - E F LUNA</t>
-  </si>
-  <si>
-    <t>-3.7609811</t>
-  </si>
-  <si>
-    <t>-38.6618409</t>
   </si>
   <si>
     <t>*COMETA (OSORIO DE PAIVA)</t>
@@ -893,12 +791,144 @@
   <si>
     <t>Franklin teran</t>
   </si>
+  <si>
+    <t>EDUARDO DAVI</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE VIEIRA FILHO</t>
+  </si>
+  <si>
+    <t>-3.7372959</t>
+  </si>
+  <si>
+    <t>MAX FELIX MONTEIRO</t>
+  </si>
+  <si>
+    <t>-3.732888</t>
+  </si>
+  <si>
+    <t>DAVI ARAUJO DE LIMA</t>
+  </si>
+  <si>
+    <t>-3.7166878</t>
+  </si>
+  <si>
+    <t>CAIO DARLAN NASCIMENTO SILVA</t>
+  </si>
+  <si>
+    <t>-3.7071344</t>
+  </si>
+  <si>
+    <t>PAULA CELIA MOTA GOMES</t>
+  </si>
+  <si>
+    <t>-3.832637</t>
+  </si>
+  <si>
+    <t>FRANCISCO BRUNO ALVES</t>
+  </si>
+  <si>
+    <t>-3.8314916201849023</t>
+  </si>
+  <si>
+    <t>-38.572791353977095</t>
+  </si>
+  <si>
+    <t>GEISSY KELLY GOMES RIBEIRO</t>
+  </si>
+  <si>
+    <t>-3.7986106</t>
+  </si>
+  <si>
+    <t>-38.57271809166960</t>
+  </si>
+  <si>
+    <t>ANA PAULA MARQUES SALES</t>
+  </si>
+  <si>
+    <t>-3.8313744</t>
+  </si>
+  <si>
+    <t>MARIANA MARTINS MOURA</t>
+  </si>
+  <si>
+    <t>-3.834628</t>
+  </si>
+  <si>
+    <t>LARYSSA KELVIN DA SILVA MENDES MARTINS</t>
+  </si>
+  <si>
+    <t>-3.8267712</t>
+  </si>
+  <si>
+    <t>HENRIQUE PONCE LEON ARARUNA</t>
+  </si>
+  <si>
+    <t>-3.7186695</t>
+  </si>
+  <si>
+    <t>ANDERSON ABREU DA SILVA</t>
+  </si>
+  <si>
+    <t>-3.8283104</t>
+  </si>
+  <si>
+    <t>JOAO MAKSON SA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>-3.9754322</t>
+  </si>
+  <si>
+    <t>EDUARDO DAVI DE SOUSA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>HERRYSON MESQUITA FREITAS</t>
+  </si>
+  <si>
+    <t>-3.7280256</t>
+  </si>
+  <si>
+    <t>-3.8288185246001900</t>
+  </si>
+  <si>
+    <t>-38.551014968508400</t>
+  </si>
+  <si>
+    <t>Natalia Oliveira</t>
+  </si>
+  <si>
+    <t>-3.7858732505099626</t>
+  </si>
+  <si>
+    <t>-38.53917636072010</t>
+  </si>
+  <si>
+    <t>Thalys frota</t>
+  </si>
+  <si>
+    <t>-3.7498644829230368</t>
+  </si>
+  <si>
+    <t>-38.568652562745100</t>
+  </si>
+  <si>
+    <t>-3.763672271679188</t>
+  </si>
+  <si>
+    <t>-38.510223830286000</t>
+  </si>
+  <si>
+    <t>-3.831446203327195</t>
+  </si>
+  <si>
+    <t>-38.57278376754482</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,8 +936,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -926,8 +971,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -950,13 +1019,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF8EA9DB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF8EA9DB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8EA9DB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8EA9DB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,6 +1076,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -41274,10 +41408,10 @@
             <v>11587</v>
           </cell>
           <cell r="C7" t="str">
-            <v>-3.7985961</v>
+            <v>-3.810527372665454</v>
           </cell>
           <cell r="D7" t="str">
-            <v>-38.6016513</v>
+            <v>-38.626917748790200</v>
           </cell>
         </row>
         <row r="8">
@@ -41825,8 +41959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4818E-EB2E-4876-9F44-6C09BE90B9C1}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F188" sqref="F188:F200"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41837,8 +41971,8 @@
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -41861,7 +41995,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -41872,13 +42006,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>3166</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="str">
@@ -41889,29 +42023,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.555096</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="3">
         <v>11868</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I2" s="1" t="str">
+      <c r="I2" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>874</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="str">
@@ -41922,29 +42056,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5538401</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G3" s="3">
         <v>11868</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="I3" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>9345</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="str">
@@ -41955,29 +42089,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5671401</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G4" s="3">
         <v>11868</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="I4" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>9602</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="str">
@@ -41988,29 +42122,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.53740405</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="3">
         <v>11868</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1043</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="str">
@@ -42021,29 +42155,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.547114</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="3">
         <v>11868</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>8900001</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="str">
@@ -42054,29 +42188,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.549750700000004</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="3">
         <v>11868</v>
       </c>
-      <c r="H7" s="1" t="str">
+      <c r="H7" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I7" s="1" t="str">
+      <c r="I7" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>8900011</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="str">
@@ -42087,29 +42221,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.57033</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="3">
         <v>11868</v>
       </c>
-      <c r="H8" s="1" t="str">
+      <c r="H8" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I8" s="1" t="str">
+      <c r="I8" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>192</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="str">
@@ -42120,29 +42254,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5667357</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="3">
         <v>11868</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I9" s="1" t="str">
+      <c r="I9" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>197</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="str">
@@ -42153,29 +42287,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5691635</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F10" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="3">
         <v>11868</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8313744</v>
       </c>
-      <c r="I10" s="1" t="str">
+      <c r="I10" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5760246</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1004</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="str">
@@ -42186,29 +42320,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.586656</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="2">
         <v>11108</v>
       </c>
-      <c r="H11" s="1" t="str">
+      <c r="H11" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I11" s="1" t="str">
+      <c r="I11" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>172</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="str">
@@ -42219,29 +42353,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5880765</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="2">
         <v>11108</v>
       </c>
-      <c r="H12" s="1" t="str">
+      <c r="H12" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I12" s="1" t="str">
+      <c r="I12" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2351</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" t="str">
@@ -42252,29 +42386,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6092229</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="2">
         <v>11108</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I13" s="1" t="str">
+      <c r="I13" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>8975472</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="str">
@@ -42285,29 +42419,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.682205</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="2">
         <v>11108</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I14" s="1" t="str">
+      <c r="I14" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>10758</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="str">
@@ -42318,29 +42452,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.67373332</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="2">
         <v>11108</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I15" s="1" t="str">
+      <c r="I15" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>10948</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="str">
@@ -42351,29 +42485,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.57394099</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="2">
         <v>11108</v>
       </c>
-      <c r="H16" s="1" t="str">
+      <c r="H16" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I16" s="1" t="str">
+      <c r="I16" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>225</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
       <c r="D17" t="str">
@@ -42384,29 +42518,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5743582</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="2">
         <v>11108</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I17" s="1" t="str">
+      <c r="I17" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>8900002</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
       <c r="D18" t="str">
@@ -42417,29 +42551,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6246732</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="2">
         <v>11108</v>
       </c>
-      <c r="H18" s="1" t="str">
+      <c r="H18" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I18" s="1" t="str">
+      <c r="I18" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>1011</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" t="str">
@@ -42450,29 +42584,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.62523</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="2">
         <v>11108</v>
       </c>
-      <c r="H19" s="1" t="str">
+      <c r="H19" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I19" s="1" t="str">
+      <c r="I19" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>9635</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="str">
@@ -42483,29 +42617,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.59633799</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G20" s="2">
         <v>11108</v>
       </c>
-      <c r="H20" s="1" t="str">
+      <c r="H20" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8283104</v>
       </c>
-      <c r="I20" s="1" t="str">
+      <c r="I20" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.6082298</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>972</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="str">
@@ -42516,29 +42650,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4867581</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="3">
         <v>12079</v>
       </c>
-      <c r="H21" s="1" t="str">
+      <c r="H21" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I21" s="1" t="str">
+      <c r="I21" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>224</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
       <c r="D22" t="str">
@@ -42549,29 +42683,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4749343</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F22" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="3">
         <v>12079</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="H22" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I22" s="1" t="str">
+      <c r="I22" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>4522</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="str">
@@ -42582,29 +42716,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4816158</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="3">
         <v>12079</v>
       </c>
-      <c r="H23" s="1" t="str">
+      <c r="H23" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I23" s="1" t="str">
+      <c r="I23" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>8900010</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
       <c r="D24" t="str">
@@ -42615,29 +42749,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5013099</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="3">
         <v>12079</v>
       </c>
-      <c r="H24" s="1" t="str">
+      <c r="H24" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I24" s="1" t="str">
+      <c r="I24" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>8900007</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
       <c r="D25" t="str">
@@ -42648,29 +42782,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4794315</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="F25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="3">
         <v>12079</v>
       </c>
-      <c r="H25" s="1" t="str">
+      <c r="H25" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I25" s="1" t="str">
+      <c r="I25" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>3815</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="str">
@@ -42681,29 +42815,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4862037</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="F26" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" s="3">
         <v>12079</v>
       </c>
-      <c r="H26" s="1" t="str">
+      <c r="H26" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I26" s="1" t="str">
+      <c r="I26" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>3616</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="str">
@@ -42714,29 +42848,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.513129</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="F27" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="3">
         <v>12079</v>
       </c>
-      <c r="H27" s="1" t="str">
+      <c r="H27" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I27" s="1" t="str">
+      <c r="I27" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>179</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="str">
@@ -42747,29 +42881,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4719109</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="F28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="3">
         <v>12079</v>
       </c>
-      <c r="H28" s="1" t="str">
+      <c r="H28" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I28" s="1" t="str">
+      <c r="I28" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>4394</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
       <c r="D29" t="str">
@@ -42780,29 +42914,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4895647</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="F29" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="3">
         <v>12079</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H29" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I29" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>219</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="str">
@@ -42813,29 +42947,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.56794475</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="F30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="3">
         <v>12079</v>
       </c>
-      <c r="H30" s="1" t="str">
+      <c r="H30" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I30" s="1" t="str">
+      <c r="I30" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>942</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" t="s">
         <v>10</v>
       </c>
       <c r="D31" t="str">
@@ -42846,29 +42980,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.516113</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G31" s="4">
+      <c r="F31" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="3">
         <v>12079</v>
       </c>
-      <c r="H31" s="1" t="str">
+      <c r="H31" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I31" s="1" t="str">
+      <c r="I31" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>8900018</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
       <c r="D32" t="str">
@@ -42879,29 +43013,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.512375</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="F32" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="3">
         <v>12079</v>
       </c>
-      <c r="H32" s="1" t="str">
+      <c r="H32" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I32" s="1" t="str">
+      <c r="I32" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>8900009</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
         <v>10</v>
       </c>
       <c r="D33" t="str">
@@ -42912,29 +43046,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5125923</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="F33" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="3">
         <v>12079</v>
       </c>
-      <c r="H33" s="1" t="str">
+      <c r="H33" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I33" s="1" t="str">
+      <c r="I33" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>6971169</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>10</v>
       </c>
       <c r="D34" t="str">
@@ -42945,29 +43079,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5125024</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="F34" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="3">
         <v>12079</v>
       </c>
-      <c r="H34" s="1" t="str">
+      <c r="H34" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7372959</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I34" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v xml:space="preserve"> -38.53297529</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>862</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="str">
@@ -42978,29 +43112,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6024185</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G35" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H35" s="1" t="str">
+      <c r="F35" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H35" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I35" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I35" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>11595</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
       <c r="D36" t="str">
@@ -43011,29 +43145,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.59964399</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H36" s="1" t="str">
+      <c r="F36" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H36" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I36" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I36" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>976</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="str">
@@ -43044,29 +43178,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5861946</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G37" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H37" s="1" t="str">
+      <c r="F37" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H37" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I37" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I37" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>11809</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="str">
@@ -43077,29 +43211,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.57358276</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G38" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H38" s="1" t="str">
+      <c r="F38" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H38" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I38" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I38" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>548</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
       <c r="D39" t="str">
@@ -43110,29 +43244,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5846885</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G39" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H39" s="1" t="str">
+      <c r="F39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H39" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I39" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I39" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>337</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="str">
@@ -43143,29 +43277,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5864455</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H40" s="1" t="str">
+      <c r="F40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H40" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I40" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I40" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>10756</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="str">
@@ -43176,29 +43310,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.59061584</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G41" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H41" s="1" t="str">
+      <c r="F41" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H41" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I41" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I41" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>8971162</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="str">
@@ -43209,29 +43343,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6045471</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G42" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H42" s="1" t="str">
+      <c r="F42" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H42" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I42" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I42" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>8971160</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="str">
@@ -43242,29 +43376,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5843396</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H43" s="1" t="str">
+      <c r="F43" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H43" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I43" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I43" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>663</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="str">
@@ -43275,29 +43409,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5882422</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G44" s="5">
-        <v>11587</v>
-      </c>
-      <c r="H44" s="1" t="str">
+      <c r="F44" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10931</v>
+      </c>
+      <c r="H44" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7985961</v>
-      </c>
-      <c r="I44" s="1" t="str">
+        <v>-3.832637</v>
+      </c>
+      <c r="I44" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.6016513</v>
+        <v>-38.5731703</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>9586</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="str">
@@ -43308,29 +43442,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6223482</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="F45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="3">
         <v>11678</v>
       </c>
-      <c r="H45" s="1" t="str">
+      <c r="H45" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I45" s="1" t="str">
+      <c r="I45" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>4293</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
       <c r="D46" t="str">
@@ -43341,29 +43475,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6595839</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G46" s="4">
+      <c r="F46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="3">
         <v>11678</v>
       </c>
-      <c r="H46" s="1" t="str">
+      <c r="H46" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I46" s="1" t="str">
+      <c r="I46" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>465</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
       <c r="D47" t="str">
@@ -43374,29 +43508,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5885703</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G47" s="4">
+      <c r="F47" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G47" s="3">
         <v>11678</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H47" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I47" s="1" t="str">
+      <c r="I47" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>4202</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
       <c r="D48" t="str">
@@ -43407,29 +43541,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.57899347</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="F48" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="3">
         <v>11678</v>
       </c>
-      <c r="H48" s="1" t="str">
+      <c r="H48" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I48" s="1" t="str">
+      <c r="I48" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>989</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="str">
@@ -43440,29 +43574,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5780082</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G49" s="4">
+      <c r="F49" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G49" s="3">
         <v>11678</v>
       </c>
-      <c r="H49" s="1" t="str">
+      <c r="H49" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="I49" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>8900000</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
       <c r="D50" t="str">
@@ -43473,29 +43607,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.56453049999993</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="4">
+      <c r="F50" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G50" s="3">
         <v>11678</v>
       </c>
-      <c r="H50" s="1" t="str">
+      <c r="H50" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I50" s="1" t="str">
+      <c r="I50" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>11825</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="str">
@@ -43506,29 +43640,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5783717</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G51" s="4">
+      <c r="F51" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="3">
         <v>11678</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H51" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I51" s="1" t="str">
+      <c r="I51" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>8971166</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="str">
@@ -43539,29 +43673,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6282389</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G52" s="4">
+      <c r="F52" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="3">
         <v>11678</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="H52" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I52" s="1" t="str">
+      <c r="I52" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>186</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="str">
@@ -43572,29 +43706,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5959119</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G53" s="4">
+      <c r="F53" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="3">
         <v>11678</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H53" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I53" s="1" t="str">
+      <c r="I53" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>11622</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="str">
@@ -43605,29 +43739,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.61643438</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="3">
         <v>11678</v>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H54" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="I54" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>950</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="str">
@@ -43638,29 +43772,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5963513</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G55" s="4">
+      <c r="F55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="3">
         <v>11678</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H55" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7071344</v>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="I55" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5863498</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>9346</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="str">
@@ -43671,29 +43805,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4759777</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="7">
+      <c r="F56" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" s="6">
         <v>12087</v>
       </c>
-      <c r="H56" s="1" t="str">
+      <c r="H56" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I56" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>1482</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="str">
@@ -43704,29 +43838,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.50204381</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G57" s="7">
+      <c r="F57" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G57" s="6">
         <v>12087</v>
       </c>
-      <c r="H57" s="1" t="str">
+      <c r="H57" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I57" s="1" t="str">
+      <c r="I57" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>1025</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="str">
@@ -43737,29 +43871,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4990562</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G58" s="7">
+      <c r="F58" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" s="6">
         <v>12087</v>
       </c>
-      <c r="H58" s="1" t="str">
+      <c r="H58" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I58" s="1" t="str">
+      <c r="I58" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>1049</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="str">
@@ -43770,29 +43904,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4901664</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G59" s="7">
+      <c r="F59" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G59" s="6">
         <v>12087</v>
       </c>
-      <c r="H59" s="1" t="str">
+      <c r="H59" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I59" s="1" t="str">
+      <c r="I59" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>11879</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="str">
@@ -43803,29 +43937,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.49383649</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="F60" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="6">
         <v>12087</v>
       </c>
-      <c r="H60" s="1" t="str">
+      <c r="H60" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I60" s="1" t="str">
+      <c r="I60" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>8900012</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="str">
@@ -43836,29 +43970,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4872714</v>
       </c>
-      <c r="F61" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G61" s="7">
+      <c r="F61" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="6">
         <v>12087</v>
       </c>
-      <c r="H61" s="1" t="str">
+      <c r="H61" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I61" s="1" t="str">
+      <c r="I61" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>8971164</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="str">
@@ -43869,29 +44003,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5562854</v>
       </c>
-      <c r="F62" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G62" s="7">
+      <c r="F62" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G62" s="6">
         <v>12087</v>
       </c>
-      <c r="H62" s="1" t="str">
+      <c r="H62" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I62" s="1" t="str">
+      <c r="I62" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>8971163</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="str">
@@ -43902,29 +44036,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5335303</v>
       </c>
-      <c r="F63" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G63" s="7">
+      <c r="F63" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" s="6">
         <v>12087</v>
       </c>
-      <c r="H63" s="1" t="str">
+      <c r="H63" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I63" s="1" t="str">
+      <c r="I63" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>879</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="str">
@@ -43935,29 +44069,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5299942</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G64" s="7">
+      <c r="F64" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="6">
         <v>12087</v>
       </c>
-      <c r="H64" s="1" t="str">
+      <c r="H64" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.763672271679188</v>
       </c>
-      <c r="I64" s="1" t="str">
+      <c r="I64" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.510223830286000</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>838</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="str">
@@ -43968,29 +44102,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5080673</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G65" s="4">
+      <c r="F65" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G65" s="3">
         <v>11932</v>
       </c>
-      <c r="H65" s="1" t="str">
+      <c r="H65" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I65" s="1" t="str">
+      <c r="I65" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>11775</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="str">
@@ -44001,29 +44135,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.53237147</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G66" s="4">
+      <c r="F66" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" s="3">
         <v>11932</v>
       </c>
-      <c r="H66" s="1" t="str">
+      <c r="H66" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I66" s="1" t="str">
+      <c r="I66" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>9341</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="str">
@@ -44034,29 +44168,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5276962</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G67" s="4">
+      <c r="F67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G67" s="3">
         <v>11932</v>
       </c>
-      <c r="H67" s="1" t="str">
+      <c r="H67" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I67" s="1" t="str">
+      <c r="I67" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>958</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="str">
@@ -44067,29 +44201,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5136501</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G68" s="4">
+      <c r="F68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G68" s="3">
         <v>11932</v>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H68" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="I68" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>2309</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="str">
@@ -44100,29 +44234,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5285489</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G69" s="4">
+      <c r="F69" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="3">
         <v>11932</v>
       </c>
-      <c r="H69" s="1" t="str">
+      <c r="H69" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I69" s="1" t="str">
+      <c r="I69" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>3784</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="str">
@@ -44133,29 +44267,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5303956</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G70" s="4">
+      <c r="F70" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G70" s="3">
         <v>11932</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H70" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="I70" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>3944</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="str">
@@ -44166,29 +44300,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5075747</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" s="4">
+      <c r="F71" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G71" s="3">
         <v>11932</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H71" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I71" s="1" t="str">
+      <c r="I71" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>4197</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="str">
@@ -44199,29 +44333,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5131575</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G72" s="4">
+      <c r="F72" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="3">
         <v>11932</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H72" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I72" s="1" t="str">
+      <c r="I72" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>8900004</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="str">
@@ -44232,29 +44366,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.55094759999997</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G73" s="4">
+      <c r="F73" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G73" s="3">
         <v>11932</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H73" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I73" s="1" t="str">
+      <c r="I73" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>8900016</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="str">
@@ -44265,29 +44399,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5517313</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G74" s="4">
+      <c r="F74" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G74" s="3">
         <v>11932</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H74" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I74" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>4458</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="str">
@@ -44298,29 +44432,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5897058</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75" s="4">
+      <c r="F75" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="3">
         <v>11932</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H75" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I75" s="1" t="str">
+      <c r="I75" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>3508</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="str">
@@ -44331,29 +44465,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5229264</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G76" s="4">
+      <c r="F76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76" s="3">
         <v>11932</v>
       </c>
-      <c r="H76" s="1" t="str">
+      <c r="H76" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I76" s="1" t="str">
+      <c r="I76" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>4111</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" t="str">
@@ -44364,29 +44498,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5313805</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G77" s="4">
+      <c r="F77" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="3">
         <v>11932</v>
       </c>
-      <c r="H77" s="1" t="str">
+      <c r="H77" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7166878</v>
       </c>
-      <c r="I77" s="1" t="str">
+      <c r="I77" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.579602</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>212</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="str">
@@ -44397,29 +44531,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4971878</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G78" s="4">
+      <c r="F78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G78" s="3">
         <v>12028</v>
       </c>
-      <c r="H78" s="1" t="str">
+      <c r="H78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I78" s="1" t="str">
+      <c r="I78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>1006</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="str">
@@ -44430,29 +44564,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4963739</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="F79" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G79" s="3">
         <v>12028</v>
       </c>
-      <c r="H79" s="1" t="str">
+      <c r="H79" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I79" s="1" t="str">
+      <c r="I79" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>8900015</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="str">
@@ -44463,29 +44597,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4923427</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G80" s="4">
+      <c r="F80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G80" s="3">
         <v>12028</v>
       </c>
-      <c r="H80" s="1" t="str">
+      <c r="H80" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I80" s="1" t="str">
+      <c r="I80" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>9487</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="str">
@@ -44496,29 +44630,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4994049</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G81" s="4">
+      <c r="F81" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G81" s="3">
         <v>12028</v>
       </c>
-      <c r="H81" s="1" t="str">
+      <c r="H81" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I81" s="1" t="str">
+      <c r="I81" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>8975473</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="str">
@@ -44529,29 +44663,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.496844</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G82" s="4">
+      <c r="F82" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G82" s="3">
         <v>12028</v>
       </c>
-      <c r="H82" s="1" t="str">
+      <c r="H82" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I82" s="1" t="str">
+      <c r="I82" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>276</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="str">
@@ -44562,29 +44696,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4962057</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G83" s="4">
+      <c r="F83" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" s="3">
         <v>12028</v>
       </c>
-      <c r="H83" s="1" t="str">
+      <c r="H83" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I83" s="1" t="str">
+      <c r="I83" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>8971165</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="str">
@@ -44595,29 +44729,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4938184</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G84" s="4">
+      <c r="F84" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G84" s="3">
         <v>12028</v>
       </c>
-      <c r="H84" s="1" t="str">
+      <c r="H84" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I84" s="1" t="str">
+      <c r="I84" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>557</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="str">
@@ -44628,29 +44762,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4883391</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="G85" s="4">
+      <c r="F85" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" s="3">
         <v>12028</v>
       </c>
-      <c r="H85" s="1" t="str">
+      <c r="H85" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7986106</v>
       </c>
-      <c r="I85" s="1" t="str">
+      <c r="I85" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.4949103</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="1">
         <v>196</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="str">
@@ -44661,29 +44795,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5561623</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G86" s="4">
+      <c r="F86" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="3">
         <v>12076</v>
       </c>
-      <c r="H86" s="1" t="str">
+      <c r="H86" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I86" s="1" t="str">
+      <c r="I86" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="1">
         <v>182</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="str">
@@ -44694,29 +44828,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5599157</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G87" s="4">
+      <c r="F87" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G87" s="3">
         <v>12076</v>
       </c>
-      <c r="H87" s="1" t="str">
+      <c r="H87" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I87" s="1" t="str">
+      <c r="I87" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>10946</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="str">
@@ -44727,29 +44861,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.540229</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G88" s="4">
+      <c r="F88" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G88" s="3">
         <v>12076</v>
       </c>
-      <c r="H88" s="1" t="str">
+      <c r="H88" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I88" s="1" t="str">
+      <c r="I88" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>9339</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="str">
@@ -44760,29 +44894,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.54911</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G89" s="4">
+      <c r="F89" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G89" s="3">
         <v>12076</v>
       </c>
-      <c r="H89" s="1" t="str">
+      <c r="H89" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I89" s="1" t="str">
+      <c r="I89" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>9622</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90" t="str">
@@ -44793,29 +44927,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5530651</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G90" s="4">
+      <c r="F90" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="3">
         <v>12076</v>
       </c>
-      <c r="H90" s="1" t="str">
+      <c r="H90" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I90" s="1" t="str">
+      <c r="I90" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>4803</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="str">
@@ -44826,29 +44960,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5603054</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G91" s="4">
+      <c r="F91" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="3">
         <v>12076</v>
       </c>
-      <c r="H91" s="1" t="str">
+      <c r="H91" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I91" s="1" t="str">
+      <c r="I91" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>9631</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>10</v>
       </c>
       <c r="D92" t="str">
@@ -44859,29 +44993,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.568373</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G92" s="4">
+      <c r="F92" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G92" s="3">
         <v>12076</v>
       </c>
-      <c r="H92" s="1" t="str">
+      <c r="H92" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I92" s="1" t="str">
+      <c r="I92" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>203</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>10</v>
       </c>
       <c r="D93" t="str">
@@ -44892,29 +45026,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5662836</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G93" s="4">
+      <c r="F93" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G93" s="3">
         <v>12076</v>
       </c>
-      <c r="H93" s="1" t="str">
+      <c r="H93" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I93" s="1" t="str">
+      <c r="I93" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>902</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="str">
@@ -44925,29 +45059,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5559982</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G94" s="4">
+      <c r="F94" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" s="3">
         <v>12076</v>
       </c>
-      <c r="H94" s="1" t="str">
+      <c r="H94" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I94" s="1" t="str">
+      <c r="I94" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>4221</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>10</v>
       </c>
       <c r="D95" t="str">
@@ -44958,29 +45092,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5586262</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G95" s="4">
+      <c r="F95" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="3">
         <v>12076</v>
       </c>
-      <c r="H95" s="1" t="str">
+      <c r="H95" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I95" s="1" t="str">
+      <c r="I95" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>228</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="str">
@@ -44991,29 +45125,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5268458</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="F96" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G96" s="3">
         <v>12076</v>
       </c>
-      <c r="H96" s="1" t="str">
+      <c r="H96" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I96" s="1" t="str">
+      <c r="I96" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>967</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="str">
@@ -45024,29 +45158,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5204755</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="G97" s="4">
+      <c r="F97" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" s="3">
         <v>12076</v>
       </c>
-      <c r="H97" s="1" t="str">
+      <c r="H97" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.7280256</v>
       </c>
-      <c r="I97" s="1" t="str">
+      <c r="I97" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.59354467</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>11896</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="str">
@@ -45057,29 +45191,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.50743777</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G98" s="4">
+      <c r="F98" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G98" s="3">
         <v>12027</v>
       </c>
-      <c r="H98" s="1" t="str">
+      <c r="H98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I98" s="1" t="str">
+      <c r="I98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>11946</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="str">
@@ -45090,29 +45224,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.50257130</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G99" s="4">
+      <c r="F99" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" s="3">
         <v>12027</v>
       </c>
-      <c r="H99" s="1" t="str">
+      <c r="H99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I99" s="1" t="str">
+      <c r="I99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>11895</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="str">
@@ -45123,29 +45257,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.51477265</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G100" s="4">
+      <c r="F100" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G100" s="3">
         <v>12027</v>
       </c>
-      <c r="H100" s="1" t="str">
+      <c r="H100" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I100" s="1" t="str">
+      <c r="I100" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>11898</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="str">
@@ -45156,29 +45290,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.51200331</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G101" s="4">
+      <c r="F101" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G101" s="3">
         <v>12027</v>
       </c>
-      <c r="H101" s="1" t="str">
+      <c r="H101" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I101" s="1" t="str">
+      <c r="I101" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>9347</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="str">
@@ -45189,29 +45323,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4613795</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G102" s="4">
+      <c r="F102" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G102" s="3">
         <v>12027</v>
       </c>
-      <c r="H102" s="1" t="str">
+      <c r="H102" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I102" s="1" t="str">
+      <c r="I102" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>8900008</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="str">
@@ -45222,29 +45356,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4675121</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G103" s="4">
+      <c r="F103" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G103" s="3">
         <v>12027</v>
       </c>
-      <c r="H103" s="1" t="str">
+      <c r="H103" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I103" s="1" t="str">
+      <c r="I103" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>10722</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="str">
@@ -45255,29 +45389,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.396320939064026</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G104" s="4">
+      <c r="F104" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G104" s="3">
         <v>12027</v>
       </c>
-      <c r="H104" s="1" t="str">
+      <c r="H104" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.9754322</v>
       </c>
-      <c r="I104" s="1" t="str">
+      <c r="I104" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5898747</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>11851</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="str">
@@ -45288,29 +45422,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.47433135</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G105" s="5">
+      <c r="F105" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G105" s="4">
         <v>11679</v>
       </c>
-      <c r="H105" s="1" t="str">
+      <c r="H105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I105" s="1" t="str">
+      <c r="I105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>11899</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="str">
@@ -45321,29 +45455,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.47426069</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="F106" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G106" s="4">
         <v>11679</v>
       </c>
-      <c r="H106" s="1" t="str">
+      <c r="H106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I106" s="1" t="str">
+      <c r="I106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>3486</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="str">
@@ -45354,29 +45488,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.509759</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G107" s="5">
+      <c r="F107" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G107" s="4">
         <v>11679</v>
       </c>
-      <c r="H107" s="1" t="str">
+      <c r="H107" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I107" s="1" t="str">
+      <c r="I107" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>10977</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="str">
@@ -45387,29 +45521,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.49478307</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G108" s="5">
+      <c r="F108" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G108" s="4">
         <v>11679</v>
       </c>
-      <c r="H108" s="1" t="str">
+      <c r="H108" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I108" s="1" t="str">
+      <c r="I108" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>954</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="str">
@@ -45420,29 +45554,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4875383</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G109" s="5">
+      <c r="F109" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="4">
         <v>11679</v>
       </c>
-      <c r="H109" s="1" t="str">
+      <c r="H109" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I109" s="1" t="str">
+      <c r="I109" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>10947</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="B110" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="str">
@@ -45453,29 +45587,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4817816</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="F110" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G110" s="4">
         <v>11679</v>
       </c>
-      <c r="H110" s="1" t="str">
+      <c r="H110" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I110" s="1" t="str">
+      <c r="I110" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>218</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111" t="str">
@@ -45486,29 +45620,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4916446</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G111" s="5">
+      <c r="F111" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="4">
         <v>11679</v>
       </c>
-      <c r="H111" s="1" t="str">
+      <c r="H111" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I111" s="1" t="str">
+      <c r="I111" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>268</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="str">
@@ -45519,29 +45653,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4822819</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="F112" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G112" s="4">
         <v>11679</v>
       </c>
-      <c r="H112" s="1" t="str">
+      <c r="H112" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.8267712</v>
       </c>
-      <c r="I112" s="1" t="str">
+      <c r="I112" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5302017</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>9340</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113" t="str">
@@ -45552,29 +45686,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.495747</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G113" s="4">
+      <c r="F113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="3">
         <v>11023</v>
       </c>
-      <c r="H113" s="1" t="str">
+      <c r="H113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I113" s="1" t="str">
+      <c r="I113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>4393</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="1" t="s">
+      <c r="B114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114" t="str">
@@ -45585,29 +45719,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4958533</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G114" s="4">
+      <c r="F114" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G114" s="3">
         <v>11023</v>
       </c>
-      <c r="H114" s="1" t="str">
+      <c r="H114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I114" s="1" t="str">
+      <c r="I114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>4029</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115" t="str">
@@ -45618,29 +45752,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5041525</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G115" s="4">
+      <c r="F115" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G115" s="3">
         <v>11023</v>
       </c>
-      <c r="H115" s="1" t="str">
+      <c r="H115" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I115" s="1" t="str">
+      <c r="I115" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>1058</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116" t="str">
@@ -45651,29 +45785,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4922603</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G116" s="4">
+      <c r="F116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G116" s="3">
         <v>11023</v>
       </c>
-      <c r="H116" s="1" t="str">
+      <c r="H116" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I116" s="1" t="str">
+      <c r="I116" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>8900003</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="str">
@@ -45684,29 +45818,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4886676</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G117" s="4">
+      <c r="F117" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" s="3">
         <v>11023</v>
       </c>
-      <c r="H117" s="1" t="str">
+      <c r="H117" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I117" s="1" t="str">
+      <c r="I117" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>4009</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>10</v>
       </c>
       <c r="D118" t="str">
@@ -45717,29 +45851,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4974441</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G118" s="4">
+      <c r="F118" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G118" s="3">
         <v>11023</v>
       </c>
-      <c r="H118" s="1" t="str">
+      <c r="H118" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I118" s="1" t="str">
+      <c r="I118" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>4271</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="str">
@@ -45750,29 +45884,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4859163</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G119" s="4">
+      <c r="F119" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G119" s="3">
         <v>11023</v>
       </c>
-      <c r="H119" s="1" t="str">
+      <c r="H119" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I119" s="1" t="str">
+      <c r="I119" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>4141</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="str">
@@ -45783,29 +45917,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4937798</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G120" s="4">
+      <c r="F120" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G120" s="3">
         <v>11023</v>
       </c>
-      <c r="H120" s="1" t="str">
+      <c r="H120" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I120" s="1" t="str">
+      <c r="I120" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>5047</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>10</v>
       </c>
       <c r="D121" t="str">
@@ -45816,29 +45950,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.49493</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G121" s="4">
+      <c r="F121" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G121" s="3">
         <v>11023</v>
       </c>
-      <c r="H121" s="1" t="str">
+      <c r="H121" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I121" s="1" t="str">
+      <c r="I121" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>8900006</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="B122" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" t="s">
         <v>10</v>
       </c>
       <c r="D122" t="str">
@@ -45849,29 +45983,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.490536</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G122" s="4">
+      <c r="F122" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122" s="3">
         <v>11023</v>
       </c>
-      <c r="H122" s="1" t="str">
+      <c r="H122" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
         <v>-3.732888</v>
       </c>
-      <c r="I122" s="1" t="str">
+      <c r="I122" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
         <v>-38.5031309</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>1034</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="B123" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" t="s">
         <v>10</v>
       </c>
       <c r="D123" t="str">
@@ -45883,28 +46017,26 @@
         <v>-38.56049735</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G123" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H123" s="1" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.832637</v>
-      </c>
-      <c r="I123" s="1" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5731703</v>
+        <v>11587</v>
+      </c>
+      <c r="H123" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I123" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>8900019</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C124" s="1" t="s">
+      <c r="B124" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C124" t="s">
         <v>10</v>
       </c>
       <c r="D124" t="str">
@@ -45916,28 +46048,26 @@
         <v>-38.4806392</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G124" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H124" s="1" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.832637</v>
-      </c>
-      <c r="I124" s="1" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5731703</v>
+        <v>11587</v>
+      </c>
+      <c r="H124" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I124" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>3533</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>124</v>
       </c>
       <c r="D125" t="str">
@@ -45949,26 +46079,26 @@
         <v>-38.48921518</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G125" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I125" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>4327</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>124</v>
       </c>
       <c r="D126" t="str">
@@ -45980,26 +46110,26 @@
         <v>-38.4988506</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G126" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>8971167</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>124</v>
       </c>
       <c r="D127" t="str">
@@ -46011,26 +46141,26 @@
         <v>-38.4906592</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G127" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H127" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I127" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>8971161</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>124</v>
       </c>
       <c r="D128" t="str">
@@ -46042,26 +46172,26 @@
         <v>-38.560540300000014</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G128" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I128" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>233</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>124</v>
       </c>
       <c r="D129" t="str">
@@ -46073,26 +46203,26 @@
         <v>-38.4936217</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G129" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I129" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>9342</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" t="s">
         <v>124</v>
       </c>
       <c r="D130" t="str">
@@ -46104,26 +46234,26 @@
         <v>-38.5571378</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G130" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H130" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I130" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>11733</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>124</v>
       </c>
       <c r="D131" t="str">
@@ -46135,26 +46265,26 @@
         <v>-38.55885136</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G131" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H131" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I131" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>8900017</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" t="s">
         <v>124</v>
       </c>
       <c r="D132" t="str">
@@ -46166,26 +46296,26 @@
         <v>-38.5566308</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="G132" s="4">
-        <v>10931</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>127</v>
+        <v>11587</v>
+      </c>
+      <c r="H132" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I132" s="24" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>840</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="B133" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" t="s">
         <v>124</v>
       </c>
       <c r="D133" t="str">
@@ -46196,27 +46326,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5486857</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" t="s">
         <v>125</v>
       </c>
       <c r="G133">
         <v>11053</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>127</v>
+      <c r="H133" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I133" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>193</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="B134" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" t="s">
         <v>124</v>
       </c>
       <c r="D134" t="str">
@@ -46227,27 +46359,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5583364</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" t="s">
         <v>125</v>
       </c>
       <c r="G134">
         <v>11053</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>127</v>
+      <c r="H134" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I134" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>898</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
         <v>124</v>
       </c>
       <c r="D135" t="str">
@@ -46258,27 +46392,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5890115</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" t="s">
         <v>125</v>
       </c>
       <c r="G135">
         <v>11053</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>127</v>
+      <c r="H135" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I135" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>368</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="B136" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" t="s">
         <v>124</v>
       </c>
       <c r="D136" t="str">
@@ -46289,27 +46425,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5114051</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" t="s">
         <v>125</v>
       </c>
       <c r="G136">
         <v>11053</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>127</v>
+      <c r="H136" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I136" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11455</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" t="s">
         <v>124</v>
       </c>
       <c r="D137" t="str">
@@ -46320,27 +46458,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5402234</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" t="s">
         <v>125</v>
       </c>
       <c r="G137">
         <v>11053</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>127</v>
+      <c r="H137" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I137" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10978</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B138" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" t="s">
         <v>124</v>
       </c>
       <c r="D138" t="str">
@@ -46351,27 +46491,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.51500582</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" t="s">
         <v>125</v>
       </c>
       <c r="G138">
         <v>11053</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>127</v>
+      <c r="H138" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I138" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11912</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B139" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" t="s">
         <v>124</v>
       </c>
       <c r="D139" t="str">
@@ -46382,27 +46524,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.53222215</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" t="s">
         <v>125</v>
       </c>
       <c r="G139">
         <v>11053</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>127</v>
+      <c r="H139" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I139" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10749</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B140" t="s">
+        <v>134</v>
+      </c>
+      <c r="C140" t="s">
         <v>124</v>
       </c>
       <c r="D140" t="str">
@@ -46413,27 +46557,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4636954</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" t="s">
         <v>125</v>
       </c>
       <c r="G140">
         <v>11053</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>127</v>
+      <c r="H140" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7463125</v>
+      </c>
+      <c r="I140" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5938282</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2368</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B141" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" t="s">
         <v>124</v>
       </c>
       <c r="D141" t="str">
@@ -46444,27 +46590,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6401005</v>
       </c>
-      <c r="F141" s="1" t="s">
-        <v>137</v>
+      <c r="F141" t="s">
+        <v>136</v>
       </c>
       <c r="G141">
         <v>11617</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>139</v>
+      <c r="H141" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I141" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4089</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
         <v>124</v>
       </c>
       <c r="D142" t="str">
@@ -46475,27 +46623,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6538536</v>
       </c>
-      <c r="F142" s="1" t="s">
-        <v>137</v>
+      <c r="F142" t="s">
+        <v>136</v>
       </c>
       <c r="G142">
         <v>11617</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>139</v>
+      <c r="H142" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I142" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4381</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+      <c r="C143" t="s">
         <v>124</v>
       </c>
       <c r="D143" t="str">
@@ -46506,27 +46656,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.65588134</v>
       </c>
-      <c r="F143" s="1" t="s">
-        <v>137</v>
+      <c r="F143" t="s">
+        <v>136</v>
       </c>
       <c r="G143">
         <v>11617</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>139</v>
+      <c r="H143" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I143" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>239</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="B144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
         <v>124</v>
       </c>
       <c r="D144" t="str">
@@ -46537,27 +46689,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.65836087</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>137</v>
+      <c r="F144" t="s">
+        <v>136</v>
       </c>
       <c r="G144">
         <v>11617</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>139</v>
+      <c r="H144" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I144" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>181</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" t="s">
         <v>124</v>
       </c>
       <c r="D145" t="str">
@@ -46568,27 +46722,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.65846975</v>
       </c>
-      <c r="F145" s="1" t="s">
-        <v>137</v>
+      <c r="F145" t="s">
+        <v>136</v>
       </c>
       <c r="G145">
         <v>11617</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>139</v>
+      <c r="H145" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I145" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2365</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="B146" t="s">
+        <v>142</v>
+      </c>
+      <c r="C146" t="s">
         <v>124</v>
       </c>
       <c r="D146" t="str">
@@ -46599,27 +46755,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.659527</v>
       </c>
-      <c r="F146" s="1" t="s">
-        <v>137</v>
+      <c r="F146" t="s">
+        <v>136</v>
       </c>
       <c r="G146">
         <v>11617</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>139</v>
+      <c r="H146" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I146" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2240</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B147" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" t="s">
         <v>124</v>
       </c>
       <c r="D147" t="str">
@@ -46630,27 +46788,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.7283622</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>137</v>
+      <c r="F147" t="s">
+        <v>136</v>
       </c>
       <c r="G147">
         <v>11617</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>139</v>
+      <c r="H147" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I147" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9295</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="B148" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
         <v>124</v>
       </c>
       <c r="D148" t="str">
@@ -46661,27 +46821,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.66738313</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>137</v>
+      <c r="F148" t="s">
+        <v>136</v>
       </c>
       <c r="G148">
         <v>11617</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>139</v>
+      <c r="H148" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I148" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3771</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="B149" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" t="s">
         <v>124</v>
       </c>
       <c r="D149" t="str">
@@ -46692,27 +46854,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6696458</v>
       </c>
-      <c r="F149" s="1" t="s">
-        <v>137</v>
+      <c r="F149" t="s">
+        <v>136</v>
       </c>
       <c r="G149">
         <v>11617</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>139</v>
+      <c r="H149" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I149" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1450</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="B150" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" t="s">
         <v>124</v>
       </c>
       <c r="D150" t="str">
@@ -46723,27 +46887,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.66970537</v>
       </c>
-      <c r="F150" s="1" t="s">
-        <v>137</v>
+      <c r="F150" t="s">
+        <v>136</v>
       </c>
       <c r="G150">
         <v>11617</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>139</v>
+      <c r="H150" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I150" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1230</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B151" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" t="s">
         <v>124</v>
       </c>
       <c r="D151" t="str">
@@ -46754,27 +46920,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6552574</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>137</v>
+      <c r="F151" t="s">
+        <v>136</v>
       </c>
       <c r="G151">
         <v>11617</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>139</v>
+      <c r="H151" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I151" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>595</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="B152" t="s">
+        <v>148</v>
+      </c>
+      <c r="C152" t="s">
         <v>124</v>
       </c>
       <c r="D152" t="str">
@@ -46785,27 +46953,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6569162</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>137</v>
+      <c r="F152" t="s">
+        <v>136</v>
       </c>
       <c r="G152">
         <v>11617</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>139</v>
+      <c r="H152" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I152" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>317</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="B153" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153" t="s">
         <v>124</v>
       </c>
       <c r="D153" t="str">
@@ -46816,27 +46986,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6231497</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>137</v>
+      <c r="F153" t="s">
+        <v>136</v>
       </c>
       <c r="G153">
         <v>11617</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>139</v>
+      <c r="H153" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I153" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9296</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="B154" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" t="s">
         <v>124</v>
       </c>
       <c r="D154" t="str">
@@ -46847,27 +47019,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.70421562</v>
       </c>
-      <c r="F154" s="1" t="s">
-        <v>137</v>
+      <c r="F154" t="s">
+        <v>136</v>
       </c>
       <c r="G154">
         <v>11617</v>
       </c>
-      <c r="H154" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>139</v>
+      <c r="H154" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I154" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>11268</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B155" t="s">
+        <v>151</v>
+      </c>
+      <c r="C155" t="s">
         <v>124</v>
       </c>
       <c r="D155" t="str">
@@ -46878,27 +47052,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6569974</v>
       </c>
-      <c r="F155" s="1" t="s">
-        <v>137</v>
+      <c r="F155" t="s">
+        <v>136</v>
       </c>
       <c r="G155">
         <v>11617</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>139</v>
+      <c r="H155" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I155" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11163</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="B156" t="s">
+        <v>152</v>
+      </c>
+      <c r="C156" t="s">
         <v>124</v>
       </c>
       <c r="D156" t="str">
@@ -46909,27 +47085,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.67026304</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>137</v>
+      <c r="F156" t="s">
+        <v>136</v>
       </c>
       <c r="G156">
         <v>11617</v>
       </c>
-      <c r="H156" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>139</v>
+      <c r="H156" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I156" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11844</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B157" t="s">
+        <v>153</v>
+      </c>
+      <c r="C157" t="s">
         <v>124</v>
       </c>
       <c r="D157" t="str">
@@ -46940,27 +47118,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.65433696</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>137</v>
+      <c r="F157" t="s">
+        <v>136</v>
       </c>
       <c r="G157">
         <v>11617</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>139</v>
+      <c r="H157" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I157" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>9595</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C158" s="1" t="s">
+      <c r="B158" t="s">
+        <v>154</v>
+      </c>
+      <c r="C158" t="s">
         <v>124</v>
       </c>
       <c r="D158" t="str">
@@ -46971,27 +47151,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6502819</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>137</v>
+      <c r="F158" t="s">
+        <v>136</v>
       </c>
       <c r="G158">
         <v>11617</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>139</v>
+      <c r="H158" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7588237</v>
+      </c>
+      <c r="I158" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6614319</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>884</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="B159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" t="s">
         <v>124</v>
       </c>
       <c r="D159" t="str">
@@ -47002,27 +47184,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.495258</v>
       </c>
-      <c r="F159" s="1" t="s">
-        <v>158</v>
+      <c r="F159" t="s">
+        <v>156</v>
       </c>
       <c r="G159">
         <v>11753</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>160</v>
+      <c r="H159" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I159" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3776</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="B160" t="s">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
         <v>124</v>
       </c>
       <c r="D160" t="str">
@@ -47033,27 +47217,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5283154</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>158</v>
+      <c r="F160" t="s">
+        <v>156</v>
       </c>
       <c r="G160">
         <v>11753</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>160</v>
+      <c r="H160" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I160" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4028</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="B161" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
         <v>124</v>
       </c>
       <c r="D161" t="str">
@@ -47064,27 +47250,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.4907932</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>158</v>
+      <c r="F161" t="s">
+        <v>156</v>
       </c>
       <c r="G161">
         <v>11753</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>160</v>
+      <c r="H161" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I161" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5158</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="1" t="s">
+      <c r="B162" t="s">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
         <v>124</v>
       </c>
       <c r="D162" t="str">
@@ -47095,27 +47283,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.524932</v>
       </c>
-      <c r="F162" s="1" t="s">
-        <v>158</v>
+      <c r="F162" t="s">
+        <v>156</v>
       </c>
       <c r="G162">
         <v>11753</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>160</v>
+      <c r="H162" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I162" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3078</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="B163" t="s">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
         <v>124</v>
       </c>
       <c r="D163" t="str">
@@ -47126,27 +47316,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5316105</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>158</v>
+      <c r="F163" t="s">
+        <v>156</v>
       </c>
       <c r="G163">
         <v>11753</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>160</v>
+      <c r="H163" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I163" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>5192</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="1" t="s">
+      <c r="B164" t="s">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
         <v>124</v>
       </c>
       <c r="D164" t="str">
@@ -47157,27 +47349,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.48757653</v>
       </c>
-      <c r="F164" s="1" t="s">
-        <v>158</v>
+      <c r="F164" t="s">
+        <v>156</v>
       </c>
       <c r="G164">
         <v>11753</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>160</v>
+      <c r="H164" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I164" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2807</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="1" t="s">
+      <c r="B165" t="s">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
         <v>124</v>
       </c>
       <c r="D165" t="str">
@@ -47188,27 +47382,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5439698</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>158</v>
+      <c r="F165" t="s">
+        <v>156</v>
       </c>
       <c r="G165">
         <v>11753</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>160</v>
+      <c r="H165" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I165" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11219</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="B166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
         <v>124</v>
       </c>
       <c r="D166" t="str">
@@ -47219,27 +47415,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.52976029</v>
       </c>
-      <c r="F166" s="1" t="s">
-        <v>158</v>
+      <c r="F166" t="s">
+        <v>156</v>
       </c>
       <c r="G166">
         <v>11753</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>160</v>
+      <c r="H166" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I166" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11803</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="B167" t="s">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
         <v>124</v>
       </c>
       <c r="D167" t="str">
@@ -47250,27 +47448,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.52142461</v>
       </c>
-      <c r="F167" s="1" t="s">
-        <v>158</v>
+      <c r="F167" t="s">
+        <v>156</v>
       </c>
       <c r="G167">
         <v>11753</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>160</v>
+      <c r="H167" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I167" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11669</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="B168" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
         <v>124</v>
       </c>
       <c r="D168" t="str">
@@ -47281,27 +47481,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.46236181</v>
       </c>
-      <c r="F168" s="1" t="s">
-        <v>158</v>
+      <c r="F168" t="s">
+        <v>156</v>
       </c>
       <c r="G168">
         <v>11753</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>160</v>
+      <c r="H168" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I168" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11804</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="1" t="s">
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
         <v>124</v>
       </c>
       <c r="D169" t="str">
@@ -47312,27 +47514,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.53127553</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>158</v>
+      <c r="F169" t="s">
+        <v>156</v>
       </c>
       <c r="G169">
         <v>11753</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>160</v>
+      <c r="H169" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I169" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11802</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="B170" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
         <v>124</v>
       </c>
       <c r="D170" t="str">
@@ -47343,27 +47547,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.52271133</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>158</v>
+      <c r="F170" t="s">
+        <v>156</v>
       </c>
       <c r="G170">
         <v>11753</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>160</v>
+      <c r="H170" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I170" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>11743</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="B171" t="s">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
         <v>124</v>
       </c>
       <c r="D171" t="str">
@@ -47374,27 +47580,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.47443215</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>158</v>
+      <c r="F171" t="s">
+        <v>156</v>
       </c>
       <c r="G171">
         <v>11753</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>160</v>
+      <c r="H171" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8128273</v>
+      </c>
+      <c r="I171" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.51970440</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>709</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="B172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
         <v>124</v>
       </c>
       <c r="D172" t="str">
@@ -47405,27 +47613,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.58103395</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>174</v>
+      <c r="F172" t="s">
+        <v>171</v>
       </c>
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>176</v>
+      <c r="H172" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I172" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2726</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
         <v>124</v>
       </c>
       <c r="D173" t="str">
@@ -47436,27 +47646,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6120921</v>
       </c>
-      <c r="F173" s="1" t="s">
-        <v>174</v>
+      <c r="F173" t="s">
+        <v>171</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>176</v>
+      <c r="H173" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I173" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>9630</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
         <v>124</v>
       </c>
       <c r="D174" t="str">
@@ -47467,27 +47679,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.58973</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>174</v>
+      <c r="F174" t="s">
+        <v>171</v>
       </c>
       <c r="G174">
         <v>1</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>176</v>
+      <c r="H174" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I174" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1967</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
         <v>124</v>
       </c>
       <c r="D175" t="str">
@@ -47498,27 +47712,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5979579</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>174</v>
+      <c r="F175" t="s">
+        <v>171</v>
       </c>
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>176</v>
+      <c r="H175" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I175" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>284</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
         <v>124</v>
       </c>
       <c r="D176" t="str">
@@ -47529,27 +47745,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6007377</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>174</v>
+      <c r="F176" t="s">
+        <v>171</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>176</v>
+      <c r="H176" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I176" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2362</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
         <v>124</v>
       </c>
       <c r="D177" t="str">
@@ -47560,27 +47778,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.60253941</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>174</v>
+      <c r="F177" t="s">
+        <v>171</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>176</v>
+      <c r="H177" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I177" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3643</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
         <v>124</v>
       </c>
       <c r="D178" t="str">
@@ -47591,27 +47811,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5966382</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>174</v>
+      <c r="F178" t="s">
+        <v>171</v>
       </c>
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>176</v>
+      <c r="H178" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I178" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2734</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
         <v>124</v>
       </c>
       <c r="D179" t="str">
@@ -47622,27 +47844,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.589921</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>174</v>
+      <c r="F179" t="s">
+        <v>171</v>
       </c>
       <c r="G179">
         <v>1</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>176</v>
+      <c r="H179" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I179" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>9318</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
         <v>124</v>
       </c>
       <c r="D180" t="str">
@@ -47653,27 +47877,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6107546</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>174</v>
+      <c r="F180" t="s">
+        <v>171</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>176</v>
+      <c r="H180" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I180" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>153</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181" t="s">
         <v>124</v>
       </c>
       <c r="D181" t="str">
@@ -47684,27 +47910,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5966783</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>174</v>
+      <c r="F181" t="s">
+        <v>171</v>
       </c>
       <c r="G181">
         <v>1</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>176</v>
+      <c r="H181" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I181" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2292</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C182" s="1" t="s">
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182" t="s">
         <v>124</v>
       </c>
       <c r="D182" t="str">
@@ -47715,27 +47943,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5831318</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>174</v>
+      <c r="F182" t="s">
+        <v>171</v>
       </c>
       <c r="G182">
         <v>1</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>176</v>
+      <c r="H182" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I182" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>631</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C183" s="1" t="s">
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183" t="s">
         <v>124</v>
       </c>
       <c r="D183" t="str">
@@ -47746,27 +47976,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.592429</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>174</v>
+      <c r="F183" t="s">
+        <v>171</v>
       </c>
       <c r="G183">
         <v>1</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>176</v>
+      <c r="H183" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I183" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>762</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C184" s="1" t="s">
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184" t="s">
         <v>124</v>
       </c>
       <c r="D184" t="str">
@@ -47777,27 +48009,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5972122</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>174</v>
+      <c r="F184" t="s">
+        <v>171</v>
       </c>
       <c r="G184">
         <v>1</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>176</v>
+      <c r="H184" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I184" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2355</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185" t="s">
         <v>124</v>
       </c>
       <c r="D185" t="str">
@@ -47808,27 +48042,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5774981</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>174</v>
+      <c r="F185" t="s">
+        <v>171</v>
       </c>
       <c r="G185">
         <v>1</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>176</v>
+      <c r="H185" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I185" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2126</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" t="s">
         <v>124</v>
       </c>
       <c r="D186" t="str">
@@ -47839,27 +48075,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.62755341</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>174</v>
+      <c r="F186" t="s">
+        <v>171</v>
       </c>
       <c r="G186">
         <v>1</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>176</v>
+      <c r="H186" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I186" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>11037</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187" t="s">
         <v>124</v>
       </c>
       <c r="D187" t="str">
@@ -47870,27 +48108,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.60700068</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>174</v>
+      <c r="F187" t="s">
+        <v>171</v>
       </c>
       <c r="G187">
         <v>1</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>176</v>
+      <c r="H187" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7753530</v>
+      </c>
+      <c r="I187" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.61719978</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3249</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188" t="s">
         <v>124</v>
       </c>
       <c r="D188" t="str">
@@ -47902,26 +48142,28 @@
         <v>-38.5809081</v>
       </c>
       <c r="F188" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G188">
         <v>12080</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>194</v>
+      <c r="H188" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I188" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1708</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C189" s="1" t="s">
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" t="s">
         <v>124</v>
       </c>
       <c r="D189" t="str">
@@ -47933,26 +48175,28 @@
         <v>-38.5950891</v>
       </c>
       <c r="F189" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G189">
         <v>12080</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>194</v>
+      <c r="H189" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I189" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9326</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" t="s">
         <v>124</v>
       </c>
       <c r="D190" t="str">
@@ -47964,26 +48208,28 @@
         <v>-38.58178138</v>
       </c>
       <c r="F190" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G190">
         <v>12080</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>194</v>
+      <c r="H190" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I190" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1875</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" t="s">
         <v>124</v>
       </c>
       <c r="D191" t="str">
@@ -47995,26 +48241,28 @@
         <v>-38.6108356</v>
       </c>
       <c r="F191" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G191">
         <v>12080</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>194</v>
+      <c r="H191" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I191" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1142</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" t="s">
         <v>124</v>
       </c>
       <c r="D192" t="str">
@@ -48026,26 +48274,28 @@
         <v>-38.656205</v>
       </c>
       <c r="F192" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G192">
         <v>12080</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>194</v>
+      <c r="H192" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I192" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3765</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" t="s">
         <v>124</v>
       </c>
       <c r="D193" t="str">
@@ -48057,26 +48307,28 @@
         <v>-38.5789869</v>
       </c>
       <c r="F193" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G193">
         <v>12080</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>194</v>
+      <c r="H193" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I193" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1998</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" t="s">
         <v>124</v>
       </c>
       <c r="D194" t="str">
@@ -48088,26 +48340,28 @@
         <v>-38.6087159</v>
       </c>
       <c r="F194" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G194">
         <v>12080</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>194</v>
+      <c r="H194" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I194" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1963</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" t="s">
         <v>124</v>
       </c>
       <c r="D195" t="str">
@@ -48119,26 +48373,28 @@
         <v>-38.68194164</v>
       </c>
       <c r="F195" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G195">
         <v>12080</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>194</v>
+      <c r="H195" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I195" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>11220</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
         <v>124</v>
       </c>
       <c r="D196" t="str">
@@ -48150,26 +48406,28 @@
         <v>-38.5796747</v>
       </c>
       <c r="F196" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G196">
         <v>12080</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>194</v>
+      <c r="H196" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I196" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4002</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" t="s">
         <v>124</v>
       </c>
       <c r="D197" t="str">
@@ -48181,26 +48439,28 @@
         <v>-38.6076423</v>
       </c>
       <c r="F197" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G197">
         <v>12080</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>194</v>
+      <c r="H197" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I197" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2385</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" t="s">
         <v>124</v>
       </c>
       <c r="D198" t="str">
@@ -48212,26 +48472,28 @@
         <v>-38.6171332</v>
       </c>
       <c r="F198" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G198">
         <v>12080</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>194</v>
+      <c r="H198" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I198" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4057</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C199" s="1" t="s">
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" t="s">
         <v>124</v>
       </c>
       <c r="D199" t="str">
@@ -48243,26 +48505,28 @@
         <v>-38.55298266</v>
       </c>
       <c r="F199" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G199">
         <v>12080</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>194</v>
+      <c r="H199" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I199" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10752</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" t="s">
         <v>124</v>
       </c>
       <c r="D200" t="str">
@@ -48274,26 +48538,28 @@
         <v>-38.5733762</v>
       </c>
       <c r="F200" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G200">
         <v>12080</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>194</v>
+      <c r="H200" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.8288185246001900</v>
+      </c>
+      <c r="I200" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.551014968508400</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9319</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C201" s="1" t="s">
+      <c r="B201" t="s">
+        <v>211</v>
+      </c>
+      <c r="C201" t="s">
         <v>124</v>
       </c>
       <c r="D201" t="str">
@@ -48304,27 +48570,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.597821</v>
       </c>
-      <c r="F201" s="1" t="s">
-        <v>217</v>
+      <c r="F201" t="s">
+        <v>212</v>
       </c>
       <c r="G201">
         <v>5</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>219</v>
+      <c r="H201" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I201" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>931</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C202" s="1" t="s">
+      <c r="B202" t="s">
+        <v>214</v>
+      </c>
+      <c r="C202" t="s">
         <v>124</v>
       </c>
       <c r="D202" t="str">
@@ -48335,27 +48603,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6211393</v>
       </c>
-      <c r="F202" s="1" t="s">
-        <v>217</v>
+      <c r="F202" t="s">
+        <v>212</v>
       </c>
       <c r="G202">
         <v>5</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>222</v>
+      <c r="H202" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I202" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>719</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C203" s="1" t="s">
+      <c r="B203" t="s">
+        <v>215</v>
+      </c>
+      <c r="C203" t="s">
         <v>124</v>
       </c>
       <c r="D203" t="str">
@@ -48366,27 +48636,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6163545</v>
       </c>
-      <c r="F203" s="1" t="s">
-        <v>217</v>
+      <c r="F203" t="s">
+        <v>212</v>
       </c>
       <c r="G203">
         <v>5</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>225</v>
+      <c r="H203" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I203" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>718</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C204" s="1" t="s">
+      <c r="B204" t="s">
+        <v>216</v>
+      </c>
+      <c r="C204" t="s">
         <v>124</v>
       </c>
       <c r="D204" t="str">
@@ -48397,27 +48669,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.62707738</v>
       </c>
-      <c r="F204" s="1" t="s">
-        <v>217</v>
+      <c r="F204" t="s">
+        <v>212</v>
       </c>
       <c r="G204">
         <v>5</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>228</v>
+      <c r="H204" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I204" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>715</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C205" s="1" t="s">
+      <c r="B205" t="s">
+        <v>217</v>
+      </c>
+      <c r="C205" t="s">
         <v>124</v>
       </c>
       <c r="D205" t="str">
@@ -48428,27 +48702,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6248232</v>
       </c>
-      <c r="F205" s="1" t="s">
-        <v>217</v>
+      <c r="F205" t="s">
+        <v>212</v>
       </c>
       <c r="G205">
         <v>5</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>231</v>
+      <c r="H205" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I205" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2279</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C206" s="1" t="s">
+      <c r="B206" t="s">
+        <v>218</v>
+      </c>
+      <c r="C206" t="s">
         <v>124</v>
       </c>
       <c r="D206" t="str">
@@ -48459,27 +48735,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.625415</v>
       </c>
-      <c r="F206" s="1" t="s">
-        <v>217</v>
+      <c r="F206" t="s">
+        <v>212</v>
       </c>
       <c r="G206">
         <v>5</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>234</v>
+      <c r="H206" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I206" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>803</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C207" s="1" t="s">
+      <c r="B207" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207" t="s">
         <v>124</v>
       </c>
       <c r="D207" t="str">
@@ -48490,27 +48768,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.6017086</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>217</v>
+      <c r="F207" t="s">
+        <v>212</v>
       </c>
       <c r="G207">
         <v>5</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>237</v>
+      <c r="H207" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I207" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>677</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C208" s="1" t="s">
+      <c r="B208" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" t="s">
         <v>124</v>
       </c>
       <c r="D208" t="str">
@@ -48521,27 +48801,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5454548</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>217</v>
+      <c r="F208" t="s">
+        <v>212</v>
       </c>
       <c r="G208">
         <v>5</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>240</v>
+      <c r="H208" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I208" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>251</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="B209" t="s">
+        <v>221</v>
+      </c>
+      <c r="C209" t="s">
         <v>124</v>
       </c>
       <c r="D209" t="str">
@@ -48552,27 +48834,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5788541</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>217</v>
+      <c r="F209" t="s">
+        <v>212</v>
       </c>
       <c r="G209">
         <v>5</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>243</v>
+      <c r="H209" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I209" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>611</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C210" s="1" t="s">
+      <c r="B210" t="s">
+        <v>222</v>
+      </c>
+      <c r="C210" t="s">
         <v>124</v>
       </c>
       <c r="D210" t="str">
@@ -48583,27 +48867,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5691114</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>217</v>
+      <c r="F210" t="s">
+        <v>212</v>
       </c>
       <c r="G210">
         <v>5</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>246</v>
+      <c r="H210" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I210" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>658</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C211" s="1" t="s">
+      <c r="B211" t="s">
+        <v>223</v>
+      </c>
+      <c r="C211" t="s">
         <v>124</v>
       </c>
       <c r="D211" t="str">
@@ -48614,27 +48900,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5504395</v>
       </c>
-      <c r="F211" s="1" t="s">
-        <v>217</v>
+      <c r="F211" t="s">
+        <v>212</v>
       </c>
       <c r="G211">
         <v>5</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>249</v>
+      <c r="H211" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I211" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>620</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C212" s="1" t="s">
+      <c r="B212" t="s">
+        <v>224</v>
+      </c>
+      <c r="C212" t="s">
         <v>124</v>
       </c>
       <c r="D212" t="str">
@@ -48645,27 +48933,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5784333</v>
       </c>
-      <c r="F212" s="1" t="s">
-        <v>217</v>
+      <c r="F212" t="s">
+        <v>212</v>
       </c>
       <c r="G212">
         <v>5</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>252</v>
+      <c r="H212" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I212" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11412</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C213" s="1" t="s">
+      <c r="B213" t="s">
+        <v>225</v>
+      </c>
+      <c r="C213" t="s">
         <v>124</v>
       </c>
       <c r="D213" t="str">
@@ -48676,27 +48966,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.61031199</v>
       </c>
-      <c r="F213" s="1" t="s">
-        <v>217</v>
+      <c r="F213" t="s">
+        <v>212</v>
       </c>
       <c r="G213">
         <v>5</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>255</v>
+      <c r="H213" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I213" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11354</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C214" s="1" t="s">
+      <c r="B214" t="s">
+        <v>226</v>
+      </c>
+      <c r="C214" t="s">
         <v>124</v>
       </c>
       <c r="D214" t="str">
@@ -48707,27 +48999,29 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5488703</v>
       </c>
-      <c r="F214" s="1" t="s">
-        <v>217</v>
+      <c r="F214" t="s">
+        <v>212</v>
       </c>
       <c r="G214">
         <v>5</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>258</v>
+      <c r="H214" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I214" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9597</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C215" s="1" t="s">
+      <c r="B215" t="s">
+        <v>227</v>
+      </c>
+      <c r="C215" t="s">
         <v>124</v>
       </c>
       <c r="D215" t="str">
@@ -48738,17 +49032,19 @@
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
         <v>-38.5423981</v>
       </c>
-      <c r="F215" s="1" t="s">
-        <v>217</v>
+      <c r="F215" t="s">
+        <v>212</v>
       </c>
       <c r="G215">
         <v>5</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>261</v>
+      <c r="H215" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.7609797</v>
+      </c>
+      <c r="I215" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.6618395</v>
       </c>
     </row>
   </sheetData>
@@ -48761,12 +49057,369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583D7FB3-C31C-4199-AF4D-F6BB36508F79}">
-  <dimension ref="A1"/>
+  <dimension ref="E2:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3" s="12">
+        <v>12079</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="14">
+        <v>-3853297529</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F4" s="16">
+        <v>11023</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="18">
+        <v>-385031309</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="12">
+        <v>11932</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-38579602</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="16">
+        <v>11678</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="18">
+        <v>-385863498</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="12">
+        <v>10931</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="14">
+        <v>-385731703</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="16">
+        <v>11587</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="12">
+        <v>12028</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="16">
+        <v>11868</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="18">
+        <v>-385760246</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10930</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="14">
+        <v>-385733811</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="16">
+        <v>11679</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="18">
+        <v>-385302017</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="12">
+        <v>11956</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="14">
+        <v>-386013212</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="16">
+        <v>11108</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="18">
+        <v>-386082298</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="21">
+        <v>12027</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="14">
+        <v>-385898747</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="16">
+        <v>11053</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="18">
+        <v>-385938282</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="12">
+        <v>11617</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="14">
+        <v>-386614319</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="16">
+        <v>11753</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="18">
+        <v>-3851970440</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="14">
+        <v>-3861719978</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="16">
+        <v>11638</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="18">
+        <v>-385785069</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="22">
+        <v>12076</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-3859354467</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="16">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="18">
+        <v>-386618395</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F23" s="12">
+        <v>12080</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24" s="23">
+        <v>12155</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="26">
+        <v>12108</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="27">
+        <v>12087</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/BasePromotores.xlsx
+++ b/BasePromotores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa promotores oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{794C48D9-CCF6-4FAA-B29D-FE151961BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFD60C5-C2B6-4BEF-9DB0-455E70631BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5CE41BE-C900-4588-B23E-B6C109BEAD91}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="290">
   <si>
     <t>COD</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>COMETA (PRESIDENTE KENNEDY)</t>
-  </si>
-  <si>
-    <t>CENTERBOX - PANAMERICANO</t>
   </si>
   <si>
     <t>SUPER LAGOA - RODOLFO TEOFILO</t>
@@ -663,9 +660,6 @@
     <t>COMETA (TREZE DE MAIO)</t>
   </si>
   <si>
-    <t>COMETA (ANTONIO SALES)</t>
-  </si>
-  <si>
     <t>EXTRA - RODOVIARIA (1404)</t>
   </si>
   <si>
@@ -826,12 +820,6 @@
   </si>
   <si>
     <t>FRANCISCO BRUNO ALVES</t>
-  </si>
-  <si>
-    <t>-3.8314916201849023</t>
-  </si>
-  <si>
-    <t>-38.572791353977095</t>
   </si>
   <si>
     <t>GEISSY KELLY GOMES RIBEIRO</t>
@@ -996,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1056,6 +1044,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1075,9 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1085,12 +1094,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,12 +1107,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -41959,8 +41971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4818E-EB2E-4876-9F44-6C09BE90B9C1}">
   <dimension ref="A1:I215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41968,8 +41980,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -42010,7 +42021,7 @@
         <v>3166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -42024,7 +42035,7 @@
         <v>-38.555096</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G2" s="3">
         <v>11868</v>
@@ -42043,7 +42054,7 @@
         <v>874</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -42057,7 +42068,7 @@
         <v>-38.5538401</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G3" s="3">
         <v>11868</v>
@@ -42076,7 +42087,7 @@
         <v>9345</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -42090,7 +42101,7 @@
         <v>-38.5671401</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G4" s="3">
         <v>11868</v>
@@ -42109,7 +42120,7 @@
         <v>9602</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -42123,7 +42134,7 @@
         <v>-38.53740405</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G5" s="3">
         <v>11868</v>
@@ -42142,7 +42153,7 @@
         <v>1043</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -42156,7 +42167,7 @@
         <v>-38.547114</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6" s="3">
         <v>11868</v>
@@ -42175,7 +42186,7 @@
         <v>8900001</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -42189,7 +42200,7 @@
         <v>-38.549750700000004</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G7" s="3">
         <v>11868</v>
@@ -42208,7 +42219,7 @@
         <v>8900011</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -42222,7 +42233,7 @@
         <v>-38.57033</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G8" s="3">
         <v>11868</v>
@@ -42241,7 +42252,7 @@
         <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -42255,7 +42266,7 @@
         <v>-38.5667357</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G9" s="3">
         <v>11868</v>
@@ -42274,7 +42285,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -42288,7 +42299,7 @@
         <v>-38.5691635</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G10" s="3">
         <v>11868</v>
@@ -42307,7 +42318,7 @@
         <v>1004</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -42321,7 +42332,7 @@
         <v>-38.586656</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G11" s="2">
         <v>11108</v>
@@ -42340,7 +42351,7 @@
         <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -42354,7 +42365,7 @@
         <v>-38.5880765</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G12" s="2">
         <v>11108</v>
@@ -42373,7 +42384,7 @@
         <v>2351</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -42387,7 +42398,7 @@
         <v>-38.6092229</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G13" s="2">
         <v>11108</v>
@@ -42406,7 +42417,7 @@
         <v>8975472</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -42420,7 +42431,7 @@
         <v>-38.682205</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G14" s="2">
         <v>11108</v>
@@ -42439,7 +42450,7 @@
         <v>10758</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -42453,7 +42464,7 @@
         <v>-38.67373332</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G15" s="2">
         <v>11108</v>
@@ -42472,7 +42483,7 @@
         <v>10948</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -42486,7 +42497,7 @@
         <v>-38.57394099</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G16" s="2">
         <v>11108</v>
@@ -42505,7 +42516,7 @@
         <v>225</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
         <v>10</v>
@@ -42519,7 +42530,7 @@
         <v>-38.5743582</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G17" s="2">
         <v>11108</v>
@@ -42538,7 +42549,7 @@
         <v>8900002</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -42552,7 +42563,7 @@
         <v>-38.6246732</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G18" s="2">
         <v>11108</v>
@@ -42571,7 +42582,7 @@
         <v>1011</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -42585,7 +42596,7 @@
         <v>-38.62523</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G19" s="2">
         <v>11108</v>
@@ -42604,7 +42615,7 @@
         <v>9635</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -42618,7 +42629,7 @@
         <v>-38.59633799</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" s="2">
         <v>11108</v>
@@ -42651,7 +42662,7 @@
         <v>-38.4867581</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" s="3">
         <v>12079</v>
@@ -42684,7 +42695,7 @@
         <v>-38.4749343</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G22" s="3">
         <v>12079</v>
@@ -42717,7 +42728,7 @@
         <v>-38.4816158</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G23" s="3">
         <v>12079</v>
@@ -42750,7 +42761,7 @@
         <v>-38.5013099</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G24" s="3">
         <v>12079</v>
@@ -42783,7 +42794,7 @@
         <v>-38.4794315</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G25" s="3">
         <v>12079</v>
@@ -42816,7 +42827,7 @@
         <v>-38.4862037</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G26" s="3">
         <v>12079</v>
@@ -42849,7 +42860,7 @@
         <v>-38.513129</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G27" s="3">
         <v>12079</v>
@@ -42882,7 +42893,7 @@
         <v>-38.4719109</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G28" s="3">
         <v>12079</v>
@@ -42915,7 +42926,7 @@
         <v>-38.4895647</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G29" s="3">
         <v>12079</v>
@@ -42934,7 +42945,7 @@
         <v>219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -42948,7 +42959,7 @@
         <v>-38.56794475</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G30" s="3">
         <v>12079</v>
@@ -42967,7 +42978,7 @@
         <v>942</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -42981,7 +42992,7 @@
         <v>-38.516113</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G31" s="3">
         <v>12079</v>
@@ -43000,7 +43011,7 @@
         <v>8900018</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -43014,7 +43025,7 @@
         <v>-38.512375</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" s="3">
         <v>12079</v>
@@ -43033,7 +43044,7 @@
         <v>8900009</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -43047,7 +43058,7 @@
         <v>-38.5125923</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" s="3">
         <v>12079</v>
@@ -43080,7 +43091,7 @@
         <v>-38.5125024</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G34" s="3">
         <v>12079</v>
@@ -43099,7 +43110,7 @@
         <v>862</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -43113,7 +43124,7 @@
         <v>-38.6024185</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G35" s="3">
         <v>10931</v>
@@ -43132,7 +43143,7 @@
         <v>11595</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -43146,7 +43157,7 @@
         <v>-38.59964399</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G36" s="3">
         <v>10931</v>
@@ -43165,7 +43176,7 @@
         <v>976</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -43179,7 +43190,7 @@
         <v>-38.5861946</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G37" s="3">
         <v>10931</v>
@@ -43198,7 +43209,7 @@
         <v>11809</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
@@ -43212,7 +43223,7 @@
         <v>-38.57358276</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G38" s="3">
         <v>10931</v>
@@ -43231,7 +43242,7 @@
         <v>548</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>10</v>
@@ -43245,7 +43256,7 @@
         <v>-38.5846885</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G39" s="3">
         <v>10931</v>
@@ -43264,7 +43275,7 @@
         <v>337</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -43278,7 +43289,7 @@
         <v>-38.5864455</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G40" s="3">
         <v>10931</v>
@@ -43297,7 +43308,7 @@
         <v>10756</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
@@ -43311,7 +43322,7 @@
         <v>-38.59061584</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G41" s="3">
         <v>10931</v>
@@ -43330,7 +43341,7 @@
         <v>8971162</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
@@ -43344,7 +43355,7 @@
         <v>-38.6045471</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G42" s="3">
         <v>10931</v>
@@ -43363,7 +43374,7 @@
         <v>8971160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -43377,7 +43388,7 @@
         <v>-38.5843396</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G43" s="3">
         <v>10931</v>
@@ -43396,7 +43407,7 @@
         <v>663</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -43410,7 +43421,7 @@
         <v>-38.5882422</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G44" s="3">
         <v>10931</v>
@@ -43429,7 +43440,7 @@
         <v>9586</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -43443,7 +43454,7 @@
         <v>-38.6223482</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G45" s="3">
         <v>11678</v>
@@ -43476,7 +43487,7 @@
         <v>-38.6595839</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G46" s="3">
         <v>11678</v>
@@ -43509,7 +43520,7 @@
         <v>-38.5885703</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G47" s="3">
         <v>11678</v>
@@ -43542,7 +43553,7 @@
         <v>-38.57899347</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G48" s="3">
         <v>11678</v>
@@ -43575,7 +43586,7 @@
         <v>-38.5780082</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G49" s="3">
         <v>11678</v>
@@ -43608,7 +43619,7 @@
         <v>-38.56453049999993</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G50" s="3">
         <v>11678</v>
@@ -43641,7 +43652,7 @@
         <v>-38.5783717</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G51" s="3">
         <v>11678</v>
@@ -43660,7 +43671,7 @@
         <v>8971166</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -43674,7 +43685,7 @@
         <v>-38.6282389</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G52" s="3">
         <v>11678</v>
@@ -43707,7 +43718,7 @@
         <v>-38.5959119</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G53" s="3">
         <v>11678</v>
@@ -43726,7 +43737,7 @@
         <v>11622</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -43740,7 +43751,7 @@
         <v>-38.61643438</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G54" s="3">
         <v>11678</v>
@@ -43773,7 +43784,7 @@
         <v>-38.5963513</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G55" s="3">
         <v>11678</v>
@@ -43788,355 +43799,335 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>9346</v>
+      <c r="A56" s="2">
+        <v>1034</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7888981</v>
+        <v>-3.83055313</v>
       </c>
       <c r="E56" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4759777</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H56" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I56" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.56049735</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>1482</v>
+      <c r="A57" s="2">
+        <v>8900019</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="C57" t="s">
         <v>10</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7882169</v>
+        <v>-3.7929617</v>
       </c>
       <c r="E57" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.50204381</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G57" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H57" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I57" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.4806392</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>1025</v>
+      <c r="A58" s="2">
+        <v>4327</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
         <v>10</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7960364</v>
+        <v>-3.7724462</v>
       </c>
       <c r="E58" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4990562</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G58" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H58" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I58" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.4988506</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>1049</v>
+      <c r="A59" s="2">
+        <v>8971167</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7955137</v>
+        <v>-3.761929</v>
       </c>
       <c r="E59" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4901664</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G59" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H59" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I59" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.4906592</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G59" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>11879</v>
+      <c r="A60" s="2">
+        <v>8971161</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.79612714</v>
+        <v>-3.8314092000000244</v>
       </c>
       <c r="E60" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.49383649</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G60" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H60" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I60" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.560540300000014</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G60" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>8900012</v>
+      <c r="A61" s="2">
+        <v>8971164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7703181</v>
+        <v>-3.8211125</v>
       </c>
       <c r="E61" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4872714</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G61" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H61" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I61" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.5562854</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>8971164</v>
+      <c r="A62" s="2">
+        <v>233</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8211125</v>
+        <v>-3.768427</v>
       </c>
       <c r="E62" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5562854</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G62" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H62" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I62" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.4936217</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G62" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>8971163</v>
+      <c r="A63" s="2">
+        <v>9342</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7930876</v>
+        <v>-3.8165396</v>
       </c>
       <c r="E63" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5335303</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G63" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H63" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I63" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.5571378</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G63" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>879</v>
+      <c r="A64" s="2">
+        <v>11733</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8008318</v>
+        <v>-3.8207176</v>
       </c>
       <c r="E64" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5299942</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G64" s="6">
-        <v>12087</v>
-      </c>
-      <c r="H64" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.763672271679188</v>
-      </c>
-      <c r="I64" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.510223830286000</v>
+        <v>-38.55885136</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G64" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>838</v>
+        <v>8900017</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7440036</v>
+        <v>-3.7687918</v>
       </c>
       <c r="E65" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5080673</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G65" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H65" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7166878</v>
-      </c>
-      <c r="I65" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.579602</v>
+        <v>-38.5566308</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G65" s="4">
+        <v>11587</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>11775</v>
+        <v>8971164</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.73996838</v>
+        <v>-3.8211125</v>
       </c>
       <c r="E66" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.53237147</v>
+        <v>-38.5562854</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G66" s="3">
         <v>11932</v>
@@ -44152,7 +44143,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>9341</v>
+        <v>11775</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>204</v>
@@ -44162,14 +44153,14 @@
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7532492</v>
+        <v>-3.73996838</v>
       </c>
       <c r="E67" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5276962</v>
+        <v>-38.53237147</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G67" s="3">
         <v>11932</v>
@@ -44185,24 +44176,24 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>958</v>
+        <v>9341</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7338116</v>
+        <v>-3.7532492</v>
       </c>
       <c r="E68" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5136501</v>
+        <v>-38.5276962</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G68" s="3">
         <v>11932</v>
@@ -44218,24 +44209,24 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>2309</v>
+        <v>958</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7495749</v>
+        <v>-3.7338116</v>
       </c>
       <c r="E69" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5285489</v>
+        <v>-38.5136501</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G69" s="3">
         <v>11932</v>
@@ -44251,24 +44242,24 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>3784</v>
+        <v>2309</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
       </c>
       <c r="D70" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7555418</v>
+        <v>-3.7495749</v>
       </c>
       <c r="E70" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5303956</v>
+        <v>-38.5285489</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G70" s="3">
         <v>11932</v>
@@ -44284,24 +44275,24 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>3944</v>
+        <v>3784</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7399659</v>
+        <v>-3.7555418</v>
       </c>
       <c r="E71" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5075747</v>
+        <v>-38.5303956</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G71" s="3">
         <v>11932</v>
@@ -44317,24 +44308,24 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>4197</v>
+        <v>3944</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7306636</v>
+        <v>-3.7399659</v>
       </c>
       <c r="E72" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5131575</v>
+        <v>-38.5075747</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G72" s="3">
         <v>11932</v>
@@ -44350,24 +44341,24 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>8900004</v>
+        <v>4197</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
       <c r="D73" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.725058699999991</v>
+        <v>-3.7306636</v>
       </c>
       <c r="E73" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.55094759999997</v>
+        <v>-38.5131575</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G73" s="3">
         <v>11932</v>
@@ -44383,24 +44374,24 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>8900016</v>
+        <v>8900004</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.737422</v>
+        <v>-3.725058699999991</v>
       </c>
       <c r="E74" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5517313</v>
+        <v>-38.55094759999997</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G74" s="3">
         <v>11932</v>
@@ -44416,24 +44407,24 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>4458</v>
+        <v>8900016</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
       </c>
       <c r="D75" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7100856</v>
+        <v>-3.737422</v>
       </c>
       <c r="E75" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5897058</v>
+        <v>-38.5517313</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G75" s="3">
         <v>11932</v>
@@ -44448,25 +44439,25 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>3508</v>
+      <c r="A76" s="2">
+        <v>4458</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.748629</v>
+        <v>-3.7100856</v>
       </c>
       <c r="E76" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5229264</v>
+        <v>-38.5897058</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G76" s="3">
         <v>11932</v>
@@ -44482,24 +44473,24 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>4111</v>
+        <v>3508</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
       </c>
       <c r="D77" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.746476</v>
+        <v>-3.748629</v>
       </c>
       <c r="E77" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5313805</v>
+        <v>-38.5229264</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G77" s="3">
         <v>11932</v>
@@ -44515,354 +44506,336 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>212</v>
+        <v>4111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8185168</v>
+        <v>-3.746476</v>
       </c>
       <c r="E78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4971878</v>
+        <v>-38.5313805</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G78" s="3">
-        <v>12028</v>
+        <v>11932</v>
       </c>
       <c r="H78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
+        <v>-3.7166878</v>
       </c>
       <c r="I78" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+        <v>-38.579602</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>1006</v>
+      <c r="A79" s="2">
+        <v>9346</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8194034</v>
+        <v>-3.7888981</v>
       </c>
       <c r="E79" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4963739</v>
+        <v>-38.4759777</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G79" s="3">
         <v>12028</v>
       </c>
-      <c r="H79" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I79" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H79" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>8900015</v>
+      <c r="A80" s="2">
+        <v>1482</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
       </c>
       <c r="D80" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8322624</v>
+        <v>-3.7882169</v>
       </c>
       <c r="E80" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4923427</v>
+        <v>-38.50204381</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G80" s="3">
         <v>12028</v>
       </c>
-      <c r="H80" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I80" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H80" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>9487</v>
+      <c r="A81" s="2">
+        <v>1025</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
       </c>
       <c r="D81" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8139469</v>
+        <v>-3.7960364</v>
       </c>
       <c r="E81" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4994049</v>
+        <v>-38.4990562</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G81" s="3">
         <v>12028</v>
       </c>
-      <c r="H81" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I81" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H81" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>8975473</v>
+      <c r="A82" s="2">
+        <v>1049</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
       </c>
       <c r="D82" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.811962</v>
+        <v>-3.7955137</v>
       </c>
       <c r="E82" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.496844</v>
+        <v>-38.4901664</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G82" s="3">
         <v>12028</v>
       </c>
-      <c r="H82" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I82" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H82" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I82" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>276</v>
+      <c r="A83" s="2">
+        <v>11879</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.821324</v>
+        <v>-3.79612714</v>
       </c>
       <c r="E83" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4962057</v>
+        <v>-38.49383649</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G83" s="3">
         <v>12028</v>
       </c>
-      <c r="H83" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I83" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H83" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I83" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>8971165</v>
+      <c r="A84" s="2">
+        <v>8900012</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>10</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8101342</v>
+        <v>-3.7703181</v>
       </c>
       <c r="E84" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4938184</v>
+        <v>-38.4872714</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G84" s="3">
         <v>12028</v>
       </c>
-      <c r="H84" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I84" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H84" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>557</v>
+      <c r="A85" s="2">
+        <v>8971163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8030341</v>
+        <v>-3.7930876</v>
       </c>
       <c r="E85" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4883391</v>
+        <v>-38.5335303</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G85" s="3">
         <v>12028</v>
       </c>
-      <c r="H85" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7986106</v>
-      </c>
-      <c r="I85" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.4949103</v>
+      <c r="H85" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>196</v>
+      <c r="A86" s="2">
+        <v>3533</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
         <v>10</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7548351</v>
+        <v>-3.75451369</v>
       </c>
       <c r="E86" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5561623</v>
+        <v>-38.48921518</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G86" s="3">
-        <v>12076</v>
-      </c>
-      <c r="H86" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7280256</v>
-      </c>
-      <c r="I86" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.59354467</v>
+        <v>12028</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>182</v>
+      <c r="A87" s="2">
+        <v>879</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7429477</v>
+        <v>-3.8008318</v>
       </c>
       <c r="E87" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5599157</v>
+        <v>-38.5299942</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G87" s="3">
-        <v>12076</v>
-      </c>
-      <c r="H87" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.7280256</v>
-      </c>
-      <c r="I87" t="str">
-        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.59354467</v>
+        <v>12028</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>10946</v>
+      <c r="A88" s="2">
+        <v>3533</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7216531</v>
+        <v>-3.75451369</v>
       </c>
       <c r="E88" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.540229</v>
+        <v>-38.48921518</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G88" s="3">
         <v>12076</v>
@@ -44878,24 +44851,24 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>9339</v>
+        <v>182</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.72013</v>
+        <v>-3.7429477</v>
       </c>
       <c r="E89" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.54911</v>
+        <v>-38.5599157</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G89" s="3">
         <v>12076</v>
@@ -44911,24 +44884,24 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>9622</v>
+        <v>10946</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7570117</v>
+        <v>-3.7216531</v>
       </c>
       <c r="E90" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5530651</v>
+        <v>-38.540229</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G90" s="3">
         <v>12076</v>
@@ -44944,24 +44917,24 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>4803</v>
+        <v>9339</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>10</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7403104</v>
+        <v>-3.72013</v>
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5603054</v>
+        <v>-38.54911</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G91" s="3">
         <v>12076</v>
@@ -44977,24 +44950,24 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>9631</v>
+        <v>9622</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7302312</v>
+        <v>-3.7570117</v>
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.568373</v>
+        <v>-38.5530651</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G92" s="3">
         <v>12076</v>
@@ -45010,24 +44983,24 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>203</v>
+        <v>4803</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7352505</v>
+        <v>-3.7403104</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5662836</v>
+        <v>-38.5603054</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G93" s="3">
         <v>12076</v>
@@ -45043,24 +45016,24 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>902</v>
+        <v>9631</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7468473</v>
+        <v>-3.7302312</v>
       </c>
       <c r="E94" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5559982</v>
+        <v>-38.568373</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G94" s="3">
         <v>12076</v>
@@ -45076,7 +45049,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>4221</v>
+        <v>203</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>53</v>
@@ -45086,14 +45059,14 @@
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7335995</v>
+        <v>-3.7352505</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5586262</v>
+        <v>-38.5662836</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G95" s="3">
         <v>12076</v>
@@ -45109,24 +45082,24 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>228</v>
+        <v>902</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7316219</v>
+        <v>-3.7468473</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5268458</v>
+        <v>-38.5559982</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G96" s="3">
         <v>12076</v>
@@ -45142,24 +45115,24 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>967</v>
+        <v>4221</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7374817</v>
+        <v>-3.7335995</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5204755</v>
+        <v>-38.5586262</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G97" s="3">
         <v>12076</v>
@@ -45175,90 +45148,90 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>11896</v>
+        <v>228</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.90694584</v>
+        <v>-3.7316219</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.50743777</v>
+        <v>-38.5268458</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G98" s="3">
-        <v>12027</v>
+        <v>12076</v>
       </c>
       <c r="H98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.9754322</v>
+        <v>-3.7280256</v>
       </c>
       <c r="I98" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5898747</v>
+        <v>-38.59354467</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>11946</v>
+        <v>967</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8573702</v>
+        <v>-3.7374817</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.50257130</v>
+        <v>-38.5204755</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G99" s="3">
-        <v>12027</v>
+        <v>12076</v>
       </c>
       <c r="H99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.9754322</v>
+        <v>-3.7280256</v>
       </c>
       <c r="I99" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5898747</v>
+        <v>-38.59354467</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>11895</v>
+        <v>11896</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.89368547</v>
+        <v>-3.90694584</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.51477265</v>
+        <v>-38.50743777</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G100" s="3">
         <v>12027</v>
@@ -45274,24 +45247,24 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>11898</v>
+        <v>11946</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8489518</v>
+        <v>-3.8573702</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.51200331</v>
+        <v>-38.50257130</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G101" s="3">
         <v>12027</v>
@@ -45307,24 +45280,24 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>9347</v>
+        <v>11895</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8795207</v>
+        <v>-3.89368547</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4613795</v>
+        <v>-38.51477265</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G102" s="3">
         <v>12027</v>
@@ -45340,24 +45313,24 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>8900008</v>
+        <v>11898</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8704983</v>
+        <v>-3.8489518</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4675121</v>
+        <v>-38.51200331</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G103" s="3">
         <v>12027</v>
@@ -45373,24 +45346,24 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>10722</v>
+        <v>9347</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8498382830873665</v>
+        <v>-3.8795207</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.396320939064026</v>
+        <v>-38.4613795</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G104" s="3">
         <v>12027</v>
@@ -45406,90 +45379,90 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>11851</v>
+        <v>8900008</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.82637289</v>
+        <v>-3.8704983</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.47433135</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G105" s="4">
-        <v>11679</v>
+        <v>-38.4675121</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G105" s="3">
+        <v>12027</v>
       </c>
       <c r="H105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8267712</v>
+        <v>-3.9754322</v>
       </c>
       <c r="I105" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5302017</v>
+        <v>-38.5898747</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>11899</v>
+        <v>10722</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.82635425</v>
+        <v>-3.8498382830873665</v>
       </c>
       <c r="E106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.47426069</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G106" s="4">
-        <v>11679</v>
+        <v>-38.396320939064026</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G106" s="3">
+        <v>12027</v>
       </c>
       <c r="H106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.8267712</v>
+        <v>-3.9754322</v>
       </c>
       <c r="I106" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5302017</v>
+        <v>-38.5898747</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>3486</v>
+        <v>11851</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.830081</v>
+        <v>-3.82637289</v>
       </c>
       <c r="E107" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.509759</v>
+        <v>-38.47433135</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G107" s="4">
         <v>11679</v>
@@ -45505,24 +45478,24 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>10977</v>
+        <v>11899</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.80290818</v>
+        <v>-3.82635425</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.49478307</v>
+        <v>-38.47426069</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G108" s="4">
         <v>11679</v>
@@ -45538,24 +45511,24 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>954</v>
+        <v>3486</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8301305</v>
+        <v>-3.830081</v>
       </c>
       <c r="E109" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4875383</v>
+        <v>-38.509759</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G109" s="4">
         <v>11679</v>
@@ -45571,24 +45544,24 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>10947</v>
+        <v>10977</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>231</v>
+        <v>78</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8194224</v>
+        <v>-3.80290818</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4817816</v>
+        <v>-38.49478307</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G110" s="4">
         <v>11679</v>
@@ -45604,24 +45577,24 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>218</v>
+        <v>954</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.832713</v>
+        <v>-3.8301305</v>
       </c>
       <c r="E111" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4916446</v>
+        <v>-38.4875383</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G111" s="4">
         <v>11679</v>
@@ -45637,24 +45610,24 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>268</v>
+        <v>10947</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8370287</v>
+        <v>-3.8194224</v>
       </c>
       <c r="E112" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4822819</v>
+        <v>-38.4817816</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G112" s="4">
         <v>11679</v>
@@ -45670,90 +45643,90 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>9340</v>
+        <v>218</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.745611</v>
+        <v>-3.832713</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.495747</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="3">
-        <v>11023</v>
+        <v>-38.4916446</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G113" s="4">
+        <v>11679</v>
       </c>
       <c r="H113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.732888</v>
+        <v>-3.8267712</v>
       </c>
       <c r="I113" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5031309</v>
+        <v>-38.5302017</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>4393</v>
+        <v>268</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
       </c>
       <c r="D114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7411919</v>
+        <v>-3.8370287</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4958533</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G114" s="3">
-        <v>11023</v>
+        <v>-38.4822819</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G114" s="4">
+        <v>11679</v>
       </c>
       <c r="H114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
-        <v>-3.732888</v>
+        <v>-3.8267712</v>
       </c>
       <c r="I114" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
-        <v>-38.5031309</v>
+        <v>-38.5302017</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>4029</v>
+        <v>9340</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
         <v>10</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7411822</v>
+        <v>-3.745611</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5041525</v>
+        <v>-38.495747</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G115" s="3">
         <v>11023</v>
@@ -45769,24 +45742,24 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>1058</v>
+        <v>4393</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7344387</v>
+        <v>-3.7411919</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4922603</v>
+        <v>-38.4958533</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G116" s="3">
         <v>11023</v>
@@ -45802,24 +45775,24 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>8900003</v>
+        <v>4029</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C117" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7321668</v>
+        <v>-3.7411822</v>
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4886676</v>
+        <v>-38.5041525</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G117" s="3">
         <v>11023</v>
@@ -45835,24 +45808,24 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>4009</v>
+        <v>1058</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
         <v>10</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7373679</v>
+        <v>-3.7344387</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4974441</v>
+        <v>-38.4922603</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G118" s="3">
         <v>11023</v>
@@ -45868,24 +45841,24 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>4271</v>
+        <v>8900003</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7430401</v>
+        <v>-3.7321668</v>
       </c>
       <c r="E119" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4859163</v>
+        <v>-38.4886676</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G119" s="3">
         <v>11023</v>
@@ -45901,24 +45874,24 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>4141</v>
+        <v>4009</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7274751</v>
+        <v>-3.7373679</v>
       </c>
       <c r="E120" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4937798</v>
+        <v>-38.4974441</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G120" s="3">
         <v>11023</v>
@@ -45934,24 +45907,24 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>5047</v>
+        <v>4271</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
       </c>
       <c r="D121" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.74784</v>
+        <v>-3.7430401</v>
       </c>
       <c r="E121" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.49493</v>
+        <v>-38.4859163</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G121" s="3">
         <v>11023</v>
@@ -45967,24 +45940,24 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>8900006</v>
+        <v>4141</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
       </c>
       <c r="D122" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7495167</v>
+        <v>-3.7274751</v>
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.490536</v>
+        <v>-38.4937798</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G122" s="3">
         <v>11023</v>
@@ -46000,312 +45973,316 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>1034</v>
+        <v>5047</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
       </c>
       <c r="D123" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.83055313</v>
+        <v>-3.74784</v>
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.56049735</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G123" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>293</v>
+        <v>-38.49493</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G123" s="3">
+        <v>11023</v>
+      </c>
+      <c r="H123" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.732888</v>
+      </c>
+      <c r="I123" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5031309</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>8900019</v>
+        <v>8900006</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
       </c>
       <c r="D124" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7929617</v>
+        <v>-3.7495167</v>
       </c>
       <c r="E124" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4806392</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G124" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H124" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I124" s="24" t="s">
-        <v>293</v>
+        <v>-38.490536</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G124" s="3">
+        <v>11023</v>
+      </c>
+      <c r="H124" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$C,2,0)</f>
+        <v>-3.732888</v>
+      </c>
+      <c r="I124" t="str">
+        <f>VLOOKUP(BasePromotores[[#This Row],[CODIGO PROMOTOR]],[1]DBCASAS!$B:$D,3,0)</f>
+        <v>-38.5031309</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>3533</v>
+      <c r="A125" s="2">
+        <v>212</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C125" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D125" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.75451369</v>
+        <v>-3.8185168</v>
       </c>
       <c r="E125" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.48921518</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G125" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I125" s="24" t="s">
-        <v>293</v>
+        <v>-38.4971878</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G125" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I125" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>4327</v>
+      <c r="A126" s="2">
+        <v>1006</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C126" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D126" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7724462</v>
+        <v>-3.8194034</v>
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4988506</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G126" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H126" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I126" s="24" t="s">
-        <v>293</v>
+        <v>-38.4963739</v>
+      </c>
+      <c r="F126" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G126" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>8971167</v>
+      <c r="A127" s="2">
+        <v>8900015</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D127" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.761929</v>
+        <v>-3.8322624</v>
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4906592</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G127" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H127" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I127" s="24" t="s">
-        <v>293</v>
+        <v>-38.4923427</v>
+      </c>
+      <c r="F127" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G127" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I127" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>8971161</v>
+      <c r="A128" s="2">
+        <v>9487</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C128" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D128" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8314092000000244</v>
+        <v>-3.8139469</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.560540300000014</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G128" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>293</v>
+        <v>-38.4994049</v>
+      </c>
+      <c r="F128" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G128" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I128" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>233</v>
+      <c r="A129" s="2">
+        <v>8975473</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.768427</v>
+        <v>-3.811962</v>
       </c>
       <c r="E129" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.4936217</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G129" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I129" s="24" t="s">
-        <v>293</v>
+        <v>-38.496844</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I129" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>9342</v>
+      <c r="A130" s="2">
+        <v>276</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8165396</v>
+        <v>-3.821324</v>
       </c>
       <c r="E130" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5571378</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G130" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H130" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I130" s="24" t="s">
-        <v>293</v>
+        <v>-38.4962057</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G130" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>11733</v>
+      <c r="A131" s="2">
+        <v>8971165</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D131" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.8207176</v>
+        <v>-3.8101342</v>
       </c>
       <c r="E131" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.55885136</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G131" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H131" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I131" s="24" t="s">
-        <v>293</v>
+        <v>-38.4938184</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G131" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I131" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>8900017</v>
+      <c r="A132" s="2">
+        <v>557</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D132" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
-        <v>-3.7687918</v>
+        <v>-3.8030341</v>
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$D,4,0)</f>
-        <v>-38.5566308</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G132" s="4">
-        <v>11587</v>
-      </c>
-      <c r="H132" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="I132" s="24" t="s">
-        <v>293</v>
+        <v>-38.4883391</v>
+      </c>
+      <c r="F132" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G132" s="27">
+        <v>12087</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="I132" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -46313,10 +46290,10 @@
         <v>840</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46327,7 +46304,7 @@
         <v>-38.5486857</v>
       </c>
       <c r="F133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G133">
         <v>11053</v>
@@ -46346,10 +46323,10 @@
         <v>193</v>
       </c>
       <c r="B134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D134" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46360,7 +46337,7 @@
         <v>-38.5583364</v>
       </c>
       <c r="F134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G134">
         <v>11053</v>
@@ -46379,10 +46356,10 @@
         <v>898</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D135" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46393,7 +46370,7 @@
         <v>-38.5890115</v>
       </c>
       <c r="F135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G135">
         <v>11053</v>
@@ -46412,10 +46389,10 @@
         <v>368</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D136" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46426,7 +46403,7 @@
         <v>-38.5114051</v>
       </c>
       <c r="F136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G136">
         <v>11053</v>
@@ -46445,10 +46422,10 @@
         <v>11455</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46459,7 +46436,7 @@
         <v>-38.5402234</v>
       </c>
       <c r="F137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G137">
         <v>11053</v>
@@ -46478,10 +46455,10 @@
         <v>10978</v>
       </c>
       <c r="B138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46492,7 +46469,7 @@
         <v>-38.51500582</v>
       </c>
       <c r="F138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G138">
         <v>11053</v>
@@ -46511,10 +46488,10 @@
         <v>11912</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46525,7 +46502,7 @@
         <v>-38.53222215</v>
       </c>
       <c r="F139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G139">
         <v>11053</v>
@@ -46544,10 +46521,10 @@
         <v>10749</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46558,7 +46535,7 @@
         <v>-38.4636954</v>
       </c>
       <c r="F140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G140">
         <v>11053</v>
@@ -46577,10 +46554,10 @@
         <v>2368</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46591,7 +46568,7 @@
         <v>-38.6401005</v>
       </c>
       <c r="F141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G141">
         <v>11617</v>
@@ -46610,10 +46587,10 @@
         <v>4089</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46624,7 +46601,7 @@
         <v>-38.6538536</v>
       </c>
       <c r="F142" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G142">
         <v>11617</v>
@@ -46643,10 +46620,10 @@
         <v>4381</v>
       </c>
       <c r="B143" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46657,7 +46634,7 @@
         <v>-38.65588134</v>
       </c>
       <c r="F143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G143">
         <v>11617</v>
@@ -46676,10 +46653,10 @@
         <v>239</v>
       </c>
       <c r="B144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46690,7 +46667,7 @@
         <v>-38.65836087</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G144">
         <v>11617</v>
@@ -46709,10 +46686,10 @@
         <v>181</v>
       </c>
       <c r="B145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46723,7 +46700,7 @@
         <v>-38.65846975</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G145">
         <v>11617</v>
@@ -46742,10 +46719,10 @@
         <v>2365</v>
       </c>
       <c r="B146" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46756,7 +46733,7 @@
         <v>-38.659527</v>
       </c>
       <c r="F146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G146">
         <v>11617</v>
@@ -46775,10 +46752,10 @@
         <v>2240</v>
       </c>
       <c r="B147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46789,7 +46766,7 @@
         <v>-38.7283622</v>
       </c>
       <c r="F147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G147">
         <v>11617</v>
@@ -46808,10 +46785,10 @@
         <v>9295</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46822,7 +46799,7 @@
         <v>-38.66738313</v>
       </c>
       <c r="F148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G148">
         <v>11617</v>
@@ -46841,10 +46818,10 @@
         <v>3771</v>
       </c>
       <c r="B149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46855,7 +46832,7 @@
         <v>-38.6696458</v>
       </c>
       <c r="F149" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G149">
         <v>11617</v>
@@ -46874,10 +46851,10 @@
         <v>1450</v>
       </c>
       <c r="B150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D150" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46888,7 +46865,7 @@
         <v>-38.66970537</v>
       </c>
       <c r="F150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G150">
         <v>11617</v>
@@ -46907,10 +46884,10 @@
         <v>1230</v>
       </c>
       <c r="B151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D151" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46921,7 +46898,7 @@
         <v>-38.6552574</v>
       </c>
       <c r="F151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G151">
         <v>11617</v>
@@ -46940,10 +46917,10 @@
         <v>595</v>
       </c>
       <c r="B152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D152" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46954,7 +46931,7 @@
         <v>-38.6569162</v>
       </c>
       <c r="F152" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G152">
         <v>11617</v>
@@ -46973,10 +46950,10 @@
         <v>317</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D153" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -46987,7 +46964,7 @@
         <v>-38.6231497</v>
       </c>
       <c r="F153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G153">
         <v>11617</v>
@@ -47006,10 +46983,10 @@
         <v>9296</v>
       </c>
       <c r="B154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D154" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47020,7 +46997,7 @@
         <v>-38.70421562</v>
       </c>
       <c r="F154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G154">
         <v>11617</v>
@@ -47039,10 +47016,10 @@
         <v>11268</v>
       </c>
       <c r="B155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D155" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47053,7 +47030,7 @@
         <v>-38.6569974</v>
       </c>
       <c r="F155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G155">
         <v>11617</v>
@@ -47072,10 +47049,10 @@
         <v>11163</v>
       </c>
       <c r="B156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D156" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47086,7 +47063,7 @@
         <v>-38.67026304</v>
       </c>
       <c r="F156" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G156">
         <v>11617</v>
@@ -47105,10 +47082,10 @@
         <v>11844</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D157" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47119,7 +47096,7 @@
         <v>-38.65433696</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G157">
         <v>11617</v>
@@ -47138,10 +47115,10 @@
         <v>9595</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D158" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47152,7 +47129,7 @@
         <v>-38.6502819</v>
       </c>
       <c r="F158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G158">
         <v>11617</v>
@@ -47171,10 +47148,10 @@
         <v>884</v>
       </c>
       <c r="B159" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D159" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47185,7 +47162,7 @@
         <v>-38.495258</v>
       </c>
       <c r="F159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G159">
         <v>11753</v>
@@ -47204,10 +47181,10 @@
         <v>3776</v>
       </c>
       <c r="B160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D160" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47218,7 +47195,7 @@
         <v>-38.5283154</v>
       </c>
       <c r="F160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G160">
         <v>11753</v>
@@ -47237,10 +47214,10 @@
         <v>4028</v>
       </c>
       <c r="B161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D161" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47251,7 +47228,7 @@
         <v>-38.4907932</v>
       </c>
       <c r="F161" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G161">
         <v>11753</v>
@@ -47270,10 +47247,10 @@
         <v>5158</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D162" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47284,7 +47261,7 @@
         <v>-38.524932</v>
       </c>
       <c r="F162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G162">
         <v>11753</v>
@@ -47303,10 +47280,10 @@
         <v>3078</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D163" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47317,7 +47294,7 @@
         <v>-38.5316105</v>
       </c>
       <c r="F163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G163">
         <v>11753</v>
@@ -47336,10 +47313,10 @@
         <v>5192</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D164" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47350,7 +47327,7 @@
         <v>-38.48757653</v>
       </c>
       <c r="F164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G164">
         <v>11753</v>
@@ -47369,10 +47346,10 @@
         <v>2807</v>
       </c>
       <c r="B165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D165" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47383,7 +47360,7 @@
         <v>-38.5439698</v>
       </c>
       <c r="F165" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G165">
         <v>11753</v>
@@ -47402,10 +47379,10 @@
         <v>11219</v>
       </c>
       <c r="B166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D166" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47416,7 +47393,7 @@
         <v>-38.52976029</v>
       </c>
       <c r="F166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G166">
         <v>11753</v>
@@ -47435,10 +47412,10 @@
         <v>11803</v>
       </c>
       <c r="B167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D167" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47449,7 +47426,7 @@
         <v>-38.52142461</v>
       </c>
       <c r="F167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G167">
         <v>11753</v>
@@ -47468,10 +47445,10 @@
         <v>11669</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D168" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47482,7 +47459,7 @@
         <v>-38.46236181</v>
       </c>
       <c r="F168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G168">
         <v>11753</v>
@@ -47501,10 +47478,10 @@
         <v>11804</v>
       </c>
       <c r="B169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D169" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47515,7 +47492,7 @@
         <v>-38.53127553</v>
       </c>
       <c r="F169" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G169">
         <v>11753</v>
@@ -47534,10 +47511,10 @@
         <v>11802</v>
       </c>
       <c r="B170" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D170" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47548,7 +47525,7 @@
         <v>-38.52271133</v>
       </c>
       <c r="F170" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G170">
         <v>11753</v>
@@ -47567,10 +47544,10 @@
         <v>11743</v>
       </c>
       <c r="B171" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D171" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47581,7 +47558,7 @@
         <v>-38.47443215</v>
       </c>
       <c r="F171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G171">
         <v>11753</v>
@@ -47600,10 +47577,10 @@
         <v>709</v>
       </c>
       <c r="B172" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D172" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47614,7 +47591,7 @@
         <v>-38.58103395</v>
       </c>
       <c r="F172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -47633,10 +47610,10 @@
         <v>2726</v>
       </c>
       <c r="B173" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D173" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47647,7 +47624,7 @@
         <v>-38.6120921</v>
       </c>
       <c r="F173" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -47666,10 +47643,10 @@
         <v>9630</v>
       </c>
       <c r="B174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D174" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47680,7 +47657,7 @@
         <v>-38.58973</v>
       </c>
       <c r="F174" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -47699,10 +47676,10 @@
         <v>1967</v>
       </c>
       <c r="B175" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D175" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47713,7 +47690,7 @@
         <v>-38.5979579</v>
       </c>
       <c r="F175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -47732,10 +47709,10 @@
         <v>284</v>
       </c>
       <c r="B176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D176" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47746,7 +47723,7 @@
         <v>-38.6007377</v>
       </c>
       <c r="F176" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -47765,10 +47742,10 @@
         <v>2362</v>
       </c>
       <c r="B177" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D177" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47779,7 +47756,7 @@
         <v>-38.60253941</v>
       </c>
       <c r="F177" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -47798,10 +47775,10 @@
         <v>3643</v>
       </c>
       <c r="B178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D178" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47812,7 +47789,7 @@
         <v>-38.5966382</v>
       </c>
       <c r="F178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -47831,10 +47808,10 @@
         <v>2734</v>
       </c>
       <c r="B179" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D179" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47845,7 +47822,7 @@
         <v>-38.589921</v>
       </c>
       <c r="F179" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -47864,10 +47841,10 @@
         <v>9318</v>
       </c>
       <c r="B180" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D180" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47878,7 +47855,7 @@
         <v>-38.6107546</v>
       </c>
       <c r="F180" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -47897,10 +47874,10 @@
         <v>153</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D181" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47911,7 +47888,7 @@
         <v>-38.5966783</v>
       </c>
       <c r="F181" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -47930,10 +47907,10 @@
         <v>2292</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D182" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47944,7 +47921,7 @@
         <v>-38.5831318</v>
       </c>
       <c r="F182" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -47963,10 +47940,10 @@
         <v>631</v>
       </c>
       <c r="B183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D183" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -47977,7 +47954,7 @@
         <v>-38.592429</v>
       </c>
       <c r="F183" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -47996,10 +47973,10 @@
         <v>762</v>
       </c>
       <c r="B184" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D184" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48010,7 +47987,7 @@
         <v>-38.5972122</v>
       </c>
       <c r="F184" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -48029,10 +48006,10 @@
         <v>2355</v>
       </c>
       <c r="B185" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D185" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48043,7 +48020,7 @@
         <v>-38.5774981</v>
       </c>
       <c r="F185" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -48062,10 +48039,10 @@
         <v>2126</v>
       </c>
       <c r="B186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D186" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48076,7 +48053,7 @@
         <v>-38.62755341</v>
       </c>
       <c r="F186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -48095,10 +48072,10 @@
         <v>11037</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D187" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48109,7 +48086,7 @@
         <v>-38.60700068</v>
       </c>
       <c r="F187" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -48128,10 +48105,10 @@
         <v>3249</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D188" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48142,7 +48119,7 @@
         <v>-38.5809081</v>
       </c>
       <c r="F188" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G188">
         <v>12080</v>
@@ -48161,10 +48138,10 @@
         <v>1708</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D189" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48175,7 +48152,7 @@
         <v>-38.5950891</v>
       </c>
       <c r="F189" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G189">
         <v>12080</v>
@@ -48194,10 +48171,10 @@
         <v>9326</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D190" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48208,7 +48185,7 @@
         <v>-38.58178138</v>
       </c>
       <c r="F190" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G190">
         <v>12080</v>
@@ -48227,10 +48204,10 @@
         <v>1875</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D191" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48241,7 +48218,7 @@
         <v>-38.6108356</v>
       </c>
       <c r="F191" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G191">
         <v>12080</v>
@@ -48260,10 +48237,10 @@
         <v>1142</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D192" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48274,7 +48251,7 @@
         <v>-38.656205</v>
       </c>
       <c r="F192" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G192">
         <v>12080</v>
@@ -48293,10 +48270,10 @@
         <v>3765</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D193" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48307,7 +48284,7 @@
         <v>-38.5789869</v>
       </c>
       <c r="F193" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G193">
         <v>12080</v>
@@ -48326,10 +48303,10 @@
         <v>1998</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D194" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48340,7 +48317,7 @@
         <v>-38.6087159</v>
       </c>
       <c r="F194" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G194">
         <v>12080</v>
@@ -48359,10 +48336,10 @@
         <v>1963</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D195" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48373,7 +48350,7 @@
         <v>-38.68194164</v>
       </c>
       <c r="F195" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G195">
         <v>12080</v>
@@ -48392,10 +48369,10 @@
         <v>11220</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D196" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48406,7 +48383,7 @@
         <v>-38.5796747</v>
       </c>
       <c r="F196" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G196">
         <v>12080</v>
@@ -48425,10 +48402,10 @@
         <v>4002</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D197" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48439,7 +48416,7 @@
         <v>-38.6076423</v>
       </c>
       <c r="F197" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G197">
         <v>12080</v>
@@ -48458,10 +48435,10 @@
         <v>2385</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D198" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48472,7 +48449,7 @@
         <v>-38.6171332</v>
       </c>
       <c r="F198" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G198">
         <v>12080</v>
@@ -48491,10 +48468,10 @@
         <v>4057</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D199" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48505,7 +48482,7 @@
         <v>-38.55298266</v>
       </c>
       <c r="F199" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G199">
         <v>12080</v>
@@ -48524,10 +48501,10 @@
         <v>10752</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D200" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48538,7 +48515,7 @@
         <v>-38.5733762</v>
       </c>
       <c r="F200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G200">
         <v>12080</v>
@@ -48557,10 +48534,10 @@
         <v>9319</v>
       </c>
       <c r="B201" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C201" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D201" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48571,7 +48548,7 @@
         <v>-38.597821</v>
       </c>
       <c r="F201" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G201">
         <v>5</v>
@@ -48590,10 +48567,10 @@
         <v>931</v>
       </c>
       <c r="B202" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D202" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48604,7 +48581,7 @@
         <v>-38.6211393</v>
       </c>
       <c r="F202" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G202">
         <v>5</v>
@@ -48623,10 +48600,10 @@
         <v>719</v>
       </c>
       <c r="B203" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C203" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D203" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48637,7 +48614,7 @@
         <v>-38.6163545</v>
       </c>
       <c r="F203" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G203">
         <v>5</v>
@@ -48656,10 +48633,10 @@
         <v>718</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C204" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D204" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48670,7 +48647,7 @@
         <v>-38.62707738</v>
       </c>
       <c r="F204" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G204">
         <v>5</v>
@@ -48689,10 +48666,10 @@
         <v>715</v>
       </c>
       <c r="B205" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C205" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D205" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48703,7 +48680,7 @@
         <v>-38.6248232</v>
       </c>
       <c r="F205" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G205">
         <v>5</v>
@@ -48722,10 +48699,10 @@
         <v>2279</v>
       </c>
       <c r="B206" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C206" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D206" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48736,7 +48713,7 @@
         <v>-38.625415</v>
       </c>
       <c r="F206" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G206">
         <v>5</v>
@@ -48755,10 +48732,10 @@
         <v>803</v>
       </c>
       <c r="B207" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C207" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D207" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48769,7 +48746,7 @@
         <v>-38.6017086</v>
       </c>
       <c r="F207" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G207">
         <v>5</v>
@@ -48788,10 +48765,10 @@
         <v>677</v>
       </c>
       <c r="B208" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C208" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D208" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48802,7 +48779,7 @@
         <v>-38.5454548</v>
       </c>
       <c r="F208" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G208">
         <v>5</v>
@@ -48821,10 +48798,10 @@
         <v>251</v>
       </c>
       <c r="B209" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C209" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D209" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48835,7 +48812,7 @@
         <v>-38.5788541</v>
       </c>
       <c r="F209" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G209">
         <v>5</v>
@@ -48854,10 +48831,10 @@
         <v>611</v>
       </c>
       <c r="B210" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C210" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D210" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48868,7 +48845,7 @@
         <v>-38.5691114</v>
       </c>
       <c r="F210" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G210">
         <v>5</v>
@@ -48887,10 +48864,10 @@
         <v>658</v>
       </c>
       <c r="B211" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C211" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D211" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48901,7 +48878,7 @@
         <v>-38.5504395</v>
       </c>
       <c r="F211" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G211">
         <v>5</v>
@@ -48920,10 +48897,10 @@
         <v>620</v>
       </c>
       <c r="B212" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C212" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D212" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48934,7 +48911,7 @@
         <v>-38.5784333</v>
       </c>
       <c r="F212" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G212">
         <v>5</v>
@@ -48953,10 +48930,10 @@
         <v>11412</v>
       </c>
       <c r="B213" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C213" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D213" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -48967,7 +48944,7 @@
         <v>-38.61031199</v>
       </c>
       <c r="F213" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G213">
         <v>5</v>
@@ -48986,10 +48963,10 @@
         <v>11354</v>
       </c>
       <c r="B214" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C214" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D214" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -49000,7 +48977,7 @@
         <v>-38.5488703</v>
       </c>
       <c r="F214" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G214">
         <v>5</v>
@@ -49019,10 +48996,10 @@
         <v>9597</v>
       </c>
       <c r="B215" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D215" t="str">
         <f>VLOOKUP(BasePromotores[[#This Row],[COD]],[1]dbcoordenadas!$A:$C,3,0)</f>
@@ -49033,7 +49010,7 @@
         <v>-38.5423981</v>
       </c>
       <c r="F215" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G215">
         <v>5</v>
@@ -49060,363 +49037,364 @@
   <dimension ref="E2:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="G26" sqref="G26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="E3" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="11">
         <v>12079</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="G3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="13">
         <v>-3853297529</v>
       </c>
     </row>
     <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="E4" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="15">
         <v>11023</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="17">
         <v>-385031309</v>
       </c>
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F5" s="11">
         <v>11932</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="13">
         <v>-38579602</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="15">
         <v>11678</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="17">
         <v>-385863498</v>
       </c>
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="11">
         <v>10931</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="14">
+      <c r="G7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="13">
         <v>-385731703</v>
       </c>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="16">
+      <c r="E8" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="15">
         <v>11587</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>263</v>
+      <c r="G8" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="E9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="11">
         <v>12028</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>266</v>
+      <c r="G9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F10" s="15">
         <v>11868</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H10" s="17">
         <v>-385760246</v>
       </c>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="E11" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="11">
         <v>10930</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="14">
+      <c r="G11" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="13">
         <v>-385733811</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="16">
+      <c r="E12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="15">
         <v>11679</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="G12" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="17">
         <v>-385302017</v>
       </c>
     </row>
     <row r="13" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="11">
         <v>11956</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="G13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H13" s="13">
         <v>-386013212</v>
       </c>
     </row>
     <row r="14" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="15">
         <v>11108</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="G14" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="17">
         <v>-386082298</v>
       </c>
     </row>
     <row r="15" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E15" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="19">
         <v>12027</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H15" s="14">
+      <c r="G15" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="13">
         <v>-385898747</v>
       </c>
     </row>
     <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="15">
+        <v>11053</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="16">
-        <v>11053</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <v>-385938282</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="11">
+        <v>11617</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="12">
-        <v>11617</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>-386614319</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="15">
+        <v>11753</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="16">
-        <v>11753</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>-3851970440</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>-3861719978</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="E20" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F20" s="15">
         <v>11638</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="G20" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="17">
         <v>-385785069</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="22">
+      <c r="E21" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="20">
         <v>12076</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="H21" s="14">
+      <c r="G21" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="13">
         <v>-3859354467</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="16">
+      <c r="E22" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="15">
         <v>5</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="G22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="17">
         <v>-386618395</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="E23" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="11">
         <v>12080</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>283</v>
+      <c r="G23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="E24" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="21">
         <v>12155</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>286</v>
+      <c r="G24" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F25" s="26">
+      <c r="E25" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="23">
         <v>12108</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>289</v>
+      <c r="G25" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="F26" s="27">
+      <c r="E26" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="24">
         <v>12087</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>291</v>
+      <c r="G26" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/BasePromotores.xlsx
+++ b/BasePromotores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 0025\Desktop\Mapa promotores oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E980FF9-3F1D-4A72-A970-E5D7487B2E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBFAD0D-72FD-4C57-9F35-706D24A4670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E5CE41BE-C900-4588-B23E-B6C109BEAD91}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="639">
   <si>
     <t>COD</t>
   </si>
@@ -96,9 +96,6 @@
     <t>-3.732888</t>
   </si>
   <si>
-    <t>-3.7166878</t>
-  </si>
-  <si>
     <t>-3.832637</t>
   </si>
   <si>
@@ -1866,9 +1863,6 @@
     <t>-38.6618395</t>
   </si>
   <si>
-    <t>-38.579602</t>
-  </si>
-  <si>
     <t>-38.4949103</t>
   </si>
   <si>
@@ -1951,6 +1945,15 @@
   </si>
   <si>
     <t>EWERTON</t>
+  </si>
+  <si>
+    <t>-3.8247670734490824</t>
+  </si>
+  <si>
+    <t>-38.5427898288354</t>
+  </si>
+  <si>
+    <t>Ticiana Dantas</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2078,10 +2081,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,6 +2140,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2156,7 +2166,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2195,15 +2205,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2248,15 +2249,15 @@
     <sortCondition ref="F1:F225"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{142888CB-2C6B-4A2C-8578-D51809D16ECC}" uniqueName="1" name="COD" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F67B4EC6-63F4-492F-835F-06CD33FB8A4E}" uniqueName="2" name="CLIENTE" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E2AECDEF-2872-4A32-9C81-71C6C77793CB}" uniqueName="3" name="SUPERVISOR" queryTableFieldId="3" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{142888CB-2C6B-4A2C-8578-D51809D16ECC}" uniqueName="1" name="COD" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F67B4EC6-63F4-492F-835F-06CD33FB8A4E}" uniqueName="2" name="CLIENTE" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E2AECDEF-2872-4A32-9C81-71C6C77793CB}" uniqueName="3" name="SUPERVISOR" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{308CC6F5-F93F-4D3E-BE67-0CB2116368BA}" uniqueName="7" name="LATITUDE" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{98180387-071A-4D78-B4EE-A8DE6ECE4EB9}" uniqueName="8" name="LONGITUDE" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{4188901E-E848-445D-B32E-C98EE0DC61A3}" uniqueName="9" name="PROMOTOR" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{FA8227C1-61DE-4236-BD2D-1D54564D2BC3}" uniqueName="10" name="CODIGO PROMOTOR" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2AD0BEEF-C049-465D-8163-445C42FEDDF7}" uniqueName="11" name="LATITUDE CASA" queryTableFieldId="11" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{61ECE225-87E3-42C4-A35F-87A0637005B6}" uniqueName="12" name="LONGITUDE CASA" queryTableFieldId="12" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{4188901E-E848-445D-B32E-C98EE0DC61A3}" uniqueName="9" name="PROMOTOR" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{FA8227C1-61DE-4236-BD2D-1D54564D2BC3}" uniqueName="10" name="CODIGO PROMOTOR" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{2AD0BEEF-C049-465D-8163-445C42FEDDF7}" uniqueName="11" name="LATITUDE CASA" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{61ECE225-87E3-42C4-A35F-87A0637005B6}" uniqueName="12" name="LONGITUDE CASA" queryTableFieldId="12" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2561,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F4818E-EB2E-4876-9F44-6C09BE90B9C1}">
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,28 +2612,28 @@
         <v>3166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
         <v>157</v>
       </c>
-      <c r="E2" t="s">
-        <v>158</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G2" s="3">
         <v>11868</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2640,28 +2641,28 @@
         <v>874</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" t="s">
         <v>227</v>
       </c>
-      <c r="E3" t="s">
-        <v>228</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G3" s="3">
         <v>11868</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2669,28 +2670,28 @@
         <v>9345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" t="s">
         <v>245</v>
       </c>
-      <c r="E4" t="s">
-        <v>246</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G4" s="3">
         <v>11868</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2698,28 +2699,28 @@
         <v>9602</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
         <v>257</v>
       </c>
-      <c r="E5" t="s">
-        <v>258</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G5" s="3">
         <v>11868</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2727,28 +2728,28 @@
         <v>1043</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" t="s">
         <v>267</v>
       </c>
-      <c r="E6" t="s">
-        <v>268</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G6" s="3">
         <v>11868</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2756,28 +2757,28 @@
         <v>8900001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" t="s">
         <v>323</v>
       </c>
-      <c r="E7" t="s">
-        <v>324</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G7" s="3">
         <v>11868</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,28 +2786,28 @@
         <v>8900011</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
         <v>325</v>
       </c>
-      <c r="E8" t="s">
-        <v>326</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G8" s="3">
         <v>11868</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,28 +2815,28 @@
         <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" t="s">
         <v>433</v>
       </c>
-      <c r="E9" t="s">
-        <v>434</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G9" s="3">
         <v>11868</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,28 +2844,28 @@
         <v>197</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
         <v>437</v>
       </c>
-      <c r="E10" t="s">
-        <v>438</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G10" s="3">
         <v>11868</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,28 +2873,28 @@
         <v>219</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D11" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" t="s">
         <v>513</v>
       </c>
-      <c r="E11" t="s">
-        <v>514</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G11" s="3">
         <v>11868</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,28 +2902,28 @@
         <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
         <v>185</v>
       </c>
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G12" s="3">
         <v>11108</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2930,28 +2931,28 @@
         <v>2351</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D13" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" t="s">
         <v>255</v>
       </c>
-      <c r="E13" t="s">
-        <v>256</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G13" s="3">
         <v>11108</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,28 +2960,28 @@
         <v>337</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s">
         <v>269</v>
       </c>
-      <c r="E14" t="s">
-        <v>270</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G14" s="3">
         <v>11108</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,28 +2989,28 @@
         <v>1004</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
         <v>279</v>
       </c>
-      <c r="E15" t="s">
-        <v>280</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G15" s="3">
         <v>11108</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3017,28 +3018,28 @@
         <v>10758</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" t="s">
         <v>375</v>
       </c>
-      <c r="E16" t="s">
-        <v>376</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G16" s="3">
         <v>11108</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3046,28 +3047,28 @@
         <v>8975472</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D17" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" t="s">
         <v>431</v>
       </c>
-      <c r="E17" t="s">
-        <v>432</v>
-      </c>
       <c r="F17" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G17" s="3">
         <v>11108</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3075,19 +3076,19 @@
         <v>658</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
         <v>141</v>
       </c>
-      <c r="E18" t="s">
-        <v>142</v>
-      </c>
       <c r="F18" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G18" s="3">
         <v>12077</v>
@@ -3096,7 +3097,7 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,19 +3105,19 @@
         <v>718</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
         <v>287</v>
       </c>
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G19" s="3">
         <v>12077</v>
@@ -3125,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3133,19 +3134,19 @@
         <v>2279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" t="s">
         <v>299</v>
       </c>
-      <c r="E20" t="s">
-        <v>300</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G20" s="3">
         <v>12077</v>
@@ -3154,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3162,19 +3163,19 @@
         <v>719</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" t="s">
         <v>303</v>
       </c>
-      <c r="E21" t="s">
-        <v>304</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G21" s="3">
         <v>12077</v>
@@ -3183,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -3191,19 +3192,19 @@
         <v>715</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D22" t="s">
+        <v>306</v>
+      </c>
+      <c r="E22" t="s">
         <v>307</v>
       </c>
-      <c r="E22" t="s">
-        <v>308</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G22" s="3">
         <v>12077</v>
@@ -3212,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3220,19 +3221,19 @@
         <v>803</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" t="s">
         <v>355</v>
       </c>
-      <c r="E23" t="s">
-        <v>356</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G23" s="3">
         <v>12077</v>
@@ -3241,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,19 +3250,19 @@
         <v>251</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" t="s">
         <v>379</v>
       </c>
-      <c r="E24" t="s">
-        <v>380</v>
-      </c>
       <c r="F24" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G24" s="3">
         <v>12077</v>
@@ -3270,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3278,19 +3279,19 @@
         <v>931</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" t="s">
         <v>385</v>
       </c>
-      <c r="E25" t="s">
-        <v>386</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G25" s="3">
         <v>12077</v>
@@ -3299,7 +3300,7 @@
         <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -3307,19 +3308,19 @@
         <v>11412</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D26" t="s">
+        <v>386</v>
+      </c>
+      <c r="E26" t="s">
         <v>387</v>
       </c>
-      <c r="E26" t="s">
-        <v>388</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G26" s="3">
         <v>12077</v>
@@ -3328,7 +3329,7 @@
         <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3336,19 +3337,19 @@
         <v>611</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D27" t="s">
+        <v>530</v>
+      </c>
+      <c r="E27" t="s">
         <v>531</v>
       </c>
-      <c r="E27" t="s">
-        <v>532</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G27" s="3">
         <v>12077</v>
@@ -3357,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3365,19 +3366,19 @@
         <v>620</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D28" t="s">
+        <v>536</v>
+      </c>
+      <c r="E28" t="s">
         <v>537</v>
       </c>
-      <c r="E28" t="s">
-        <v>538</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G28" s="3">
         <v>12077</v>
@@ -3386,7 +3387,7 @@
         <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,19 +3395,19 @@
         <v>9319</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D29" t="s">
+        <v>538</v>
+      </c>
+      <c r="E29" t="s">
         <v>539</v>
       </c>
-      <c r="E29" t="s">
-        <v>540</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G29" s="3">
         <v>12077</v>
@@ -3415,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3423,19 +3424,19 @@
         <v>677</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E30" t="s">
         <v>543</v>
       </c>
-      <c r="E30" t="s">
-        <v>544</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G30" s="3">
         <v>12077</v>
@@ -3444,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3452,19 +3453,19 @@
         <v>3286</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D31" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" t="s">
         <v>575</v>
       </c>
-      <c r="E31" t="s">
-        <v>576</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G31" s="3">
         <v>12077</v>
@@ -3473,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3481,19 +3482,19 @@
         <v>9597</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D32" t="s">
+        <v>578</v>
+      </c>
+      <c r="E32" t="s">
         <v>579</v>
       </c>
-      <c r="E32" t="s">
-        <v>580</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G32" s="3">
         <v>12077</v>
@@ -3502,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="I32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3510,28 +3511,28 @@
         <v>9326</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" t="s">
         <v>137</v>
       </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G33" s="3">
         <v>12298</v>
       </c>
       <c r="H33" t="s">
+        <v>617</v>
+      </c>
+      <c r="I33" t="s">
         <v>619</v>
-      </c>
-      <c r="I33" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3539,28 +3540,28 @@
         <v>12144</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D34" t="s">
+        <v>342</v>
+      </c>
+      <c r="E34" t="s">
         <v>343</v>
       </c>
-      <c r="E34" t="s">
-        <v>344</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G34" s="3">
         <v>12298</v>
       </c>
       <c r="H34" t="s">
+        <v>617</v>
+      </c>
+      <c r="I34" t="s">
         <v>619</v>
-      </c>
-      <c r="I34" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3568,28 +3569,28 @@
         <v>3249</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E35" t="s">
         <v>345</v>
       </c>
-      <c r="E35" t="s">
-        <v>346</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G35" s="3">
         <v>12298</v>
       </c>
       <c r="H35" t="s">
+        <v>617</v>
+      </c>
+      <c r="I35" t="s">
         <v>619</v>
-      </c>
-      <c r="I35" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3597,28 +3598,28 @@
         <v>1963</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" t="s">
         <v>357</v>
       </c>
-      <c r="E36" t="s">
-        <v>358</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G36" s="3">
         <v>12298</v>
       </c>
       <c r="H36" t="s">
+        <v>617</v>
+      </c>
+      <c r="I36" t="s">
         <v>619</v>
-      </c>
-      <c r="I36" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3626,28 +3627,28 @@
         <v>11219</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" t="s">
         <v>361</v>
       </c>
-      <c r="E37" t="s">
-        <v>362</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G37" s="3">
         <v>12298</v>
       </c>
       <c r="H37" t="s">
+        <v>617</v>
+      </c>
+      <c r="I37" t="s">
         <v>619</v>
-      </c>
-      <c r="I37" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3655,28 +3656,28 @@
         <v>11220</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D38" t="s">
+        <v>362</v>
+      </c>
+      <c r="E38" t="s">
         <v>363</v>
       </c>
-      <c r="E38" t="s">
-        <v>364</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G38" s="3">
         <v>12298</v>
       </c>
       <c r="H38" t="s">
+        <v>617</v>
+      </c>
+      <c r="I38" t="s">
         <v>619</v>
-      </c>
-      <c r="I38" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3684,28 +3685,28 @@
         <v>3765</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D39" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" t="s">
         <v>365</v>
       </c>
-      <c r="E39" t="s">
-        <v>366</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G39" s="3">
         <v>12298</v>
       </c>
       <c r="H39" t="s">
+        <v>617</v>
+      </c>
+      <c r="I39" t="s">
         <v>619</v>
-      </c>
-      <c r="I39" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,28 +3714,28 @@
         <v>1708</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D40" t="s">
+        <v>390</v>
+      </c>
+      <c r="E40" t="s">
         <v>391</v>
       </c>
-      <c r="E40" t="s">
-        <v>392</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G40" s="3">
         <v>12298</v>
       </c>
       <c r="H40" t="s">
+        <v>617</v>
+      </c>
+      <c r="I40" t="s">
         <v>619</v>
-      </c>
-      <c r="I40" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3742,28 +3743,28 @@
         <v>10752</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D41" t="s">
+        <v>446</v>
+      </c>
+      <c r="E41" t="s">
         <v>447</v>
       </c>
-      <c r="E41" t="s">
-        <v>448</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G41" s="3">
         <v>12298</v>
       </c>
       <c r="H41" t="s">
+        <v>617</v>
+      </c>
+      <c r="I41" t="s">
         <v>619</v>
-      </c>
-      <c r="I41" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3771,28 +3772,28 @@
         <v>1142</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D42" t="s">
+        <v>546</v>
+      </c>
+      <c r="E42" t="s">
         <v>547</v>
       </c>
-      <c r="E42" t="s">
-        <v>548</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G42" s="3">
         <v>12298</v>
       </c>
       <c r="H42" t="s">
+        <v>617</v>
+      </c>
+      <c r="I42" t="s">
         <v>619</v>
-      </c>
-      <c r="I42" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3800,28 +3801,28 @@
         <v>1998</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D43" t="s">
+        <v>558</v>
+      </c>
+      <c r="E43" t="s">
         <v>559</v>
       </c>
-      <c r="E43" t="s">
-        <v>560</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G43" s="3">
         <v>12298</v>
       </c>
       <c r="H43" t="s">
+        <v>617</v>
+      </c>
+      <c r="I43" t="s">
         <v>619</v>
-      </c>
-      <c r="I43" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,28 +3830,28 @@
         <v>1875</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D44" t="s">
+        <v>568</v>
+      </c>
+      <c r="E44" t="s">
         <v>569</v>
       </c>
-      <c r="E44" t="s">
-        <v>570</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G44" s="3">
         <v>12298</v>
       </c>
       <c r="H44" t="s">
+        <v>617</v>
+      </c>
+      <c r="I44" t="s">
         <v>619</v>
-      </c>
-      <c r="I44" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,28 +3859,28 @@
         <v>2385</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D45" t="s">
+        <v>570</v>
+      </c>
+      <c r="E45" t="s">
         <v>571</v>
       </c>
-      <c r="E45" t="s">
-        <v>572</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G45" s="3">
         <v>12298</v>
       </c>
       <c r="H45" t="s">
+        <v>617</v>
+      </c>
+      <c r="I45" t="s">
         <v>619</v>
-      </c>
-      <c r="I45" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3887,28 +3888,28 @@
         <v>4002</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D46" t="s">
+        <v>572</v>
+      </c>
+      <c r="E46" t="s">
         <v>573</v>
       </c>
-      <c r="E46" t="s">
-        <v>574</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G46" s="3">
         <v>12298</v>
       </c>
       <c r="H46" t="s">
+        <v>617</v>
+      </c>
+      <c r="I46" t="s">
         <v>619</v>
-      </c>
-      <c r="I46" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3916,28 +3917,28 @@
         <v>2734</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
         <v>135</v>
       </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G47" s="3">
         <v>12078</v>
       </c>
       <c r="H47" t="s">
+        <v>616</v>
+      </c>
+      <c r="I47" t="s">
         <v>618</v>
-      </c>
-      <c r="I47" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3945,28 +3946,28 @@
         <v>2726</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
         <v>139</v>
       </c>
-      <c r="E48" t="s">
-        <v>140</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G48" s="3">
         <v>12078</v>
       </c>
       <c r="H48" t="s">
+        <v>616</v>
+      </c>
+      <c r="I48" t="s">
         <v>618</v>
-      </c>
-      <c r="I48" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3974,28 +3975,28 @@
         <v>9630</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D49" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
         <v>191</v>
       </c>
-      <c r="E49" t="s">
-        <v>192</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G49" s="3">
         <v>12078</v>
       </c>
       <c r="H49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I49" t="s">
         <v>618</v>
-      </c>
-      <c r="I49" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,28 +4004,28 @@
         <v>3643</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
         <v>193</v>
       </c>
-      <c r="E50" t="s">
-        <v>194</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G50" s="3">
         <v>12078</v>
       </c>
       <c r="H50" t="s">
+        <v>616</v>
+      </c>
+      <c r="I50" t="s">
         <v>618</v>
-      </c>
-      <c r="I50" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4032,28 +4033,28 @@
         <v>2292</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" t="s">
         <v>195</v>
       </c>
-      <c r="E51" t="s">
-        <v>196</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G51" s="3">
         <v>12078</v>
       </c>
       <c r="H51" t="s">
+        <v>616</v>
+      </c>
+      <c r="I51" t="s">
         <v>618</v>
-      </c>
-      <c r="I51" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4061,28 +4062,28 @@
         <v>709</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E52" t="s">
         <v>283</v>
       </c>
-      <c r="E52" t="s">
-        <v>284</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G52" s="3">
         <v>12078</v>
       </c>
       <c r="H52" t="s">
+        <v>616</v>
+      </c>
+      <c r="I52" t="s">
         <v>618</v>
-      </c>
-      <c r="I52" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4090,28 +4091,28 @@
         <v>631</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D53" t="s">
+        <v>388</v>
+      </c>
+      <c r="E53" t="s">
         <v>389</v>
       </c>
-      <c r="E53" t="s">
-        <v>390</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G53" s="3">
         <v>12078</v>
       </c>
       <c r="H53" t="s">
+        <v>616</v>
+      </c>
+      <c r="I53" t="s">
         <v>618</v>
-      </c>
-      <c r="I53" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4119,28 +4120,28 @@
         <v>2126</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D54" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" t="s">
         <v>393</v>
       </c>
-      <c r="E54" t="s">
-        <v>394</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G54" s="3">
         <v>12078</v>
       </c>
       <c r="H54" t="s">
+        <v>616</v>
+      </c>
+      <c r="I54" t="s">
         <v>618</v>
-      </c>
-      <c r="I54" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4148,28 +4149,28 @@
         <v>762</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D55" t="s">
+        <v>450</v>
+      </c>
+      <c r="E55" t="s">
         <v>451</v>
       </c>
-      <c r="E55" t="s">
-        <v>452</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G55" s="3">
         <v>12078</v>
       </c>
       <c r="H55" t="s">
+        <v>616</v>
+      </c>
+      <c r="I55" t="s">
         <v>618</v>
-      </c>
-      <c r="I55" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4177,28 +4178,28 @@
         <v>1967</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D56" t="s">
+        <v>456</v>
+      </c>
+      <c r="E56" t="s">
         <v>457</v>
       </c>
-      <c r="E56" t="s">
-        <v>458</v>
-      </c>
       <c r="F56" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G56" s="3">
         <v>12078</v>
       </c>
       <c r="H56" t="s">
+        <v>616</v>
+      </c>
+      <c r="I56" t="s">
         <v>618</v>
-      </c>
-      <c r="I56" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -4206,28 +4207,28 @@
         <v>9318</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D57" t="s">
+        <v>458</v>
+      </c>
+      <c r="E57" t="s">
         <v>459</v>
       </c>
-      <c r="E57" t="s">
-        <v>460</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G57" s="3">
         <v>12078</v>
       </c>
       <c r="H57" t="s">
+        <v>616</v>
+      </c>
+      <c r="I57" t="s">
         <v>618</v>
-      </c>
-      <c r="I57" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4235,28 +4236,28 @@
         <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D58" t="s">
+        <v>460</v>
+      </c>
+      <c r="E58" t="s">
         <v>461</v>
       </c>
-      <c r="E58" t="s">
-        <v>462</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G58" s="3">
         <v>12078</v>
       </c>
       <c r="H58" t="s">
+        <v>616</v>
+      </c>
+      <c r="I58" t="s">
         <v>618</v>
-      </c>
-      <c r="I58" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,28 +4265,28 @@
         <v>153</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D59" t="s">
+        <v>524</v>
+      </c>
+      <c r="E59" t="s">
         <v>525</v>
       </c>
-      <c r="E59" t="s">
-        <v>526</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G59" s="3">
         <v>12078</v>
       </c>
       <c r="H59" t="s">
+        <v>616</v>
+      </c>
+      <c r="I59" t="s">
         <v>618</v>
-      </c>
-      <c r="I59" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4293,28 +4294,28 @@
         <v>11037</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D60" t="s">
+        <v>548</v>
+      </c>
+      <c r="E60" t="s">
         <v>549</v>
       </c>
-      <c r="E60" t="s">
-        <v>550</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G60" s="3">
         <v>12078</v>
       </c>
       <c r="H60" t="s">
+        <v>616</v>
+      </c>
+      <c r="I60" t="s">
         <v>618</v>
-      </c>
-      <c r="I60" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -4322,28 +4323,28 @@
         <v>2355</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D61" t="s">
+        <v>562</v>
+      </c>
+      <c r="E61" t="s">
         <v>563</v>
       </c>
-      <c r="E61" t="s">
-        <v>564</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G61" s="3">
         <v>12078</v>
       </c>
       <c r="H61" t="s">
+        <v>616</v>
+      </c>
+      <c r="I61" t="s">
         <v>618</v>
-      </c>
-      <c r="I61" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4351,28 +4352,28 @@
         <v>11703</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D62" t="s">
+        <v>564</v>
+      </c>
+      <c r="E62" t="s">
         <v>565</v>
       </c>
-      <c r="E62" t="s">
-        <v>566</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G62" s="3">
         <v>12078</v>
       </c>
       <c r="H62" t="s">
+        <v>616</v>
+      </c>
+      <c r="I62" t="s">
         <v>618</v>
-      </c>
-      <c r="I62" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4380,28 +4381,28 @@
         <v>2362</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D63" t="s">
+        <v>566</v>
+      </c>
+      <c r="E63" t="s">
         <v>567</v>
       </c>
-      <c r="E63" t="s">
-        <v>568</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G63" s="3">
         <v>12078</v>
       </c>
       <c r="H63" t="s">
+        <v>616</v>
+      </c>
+      <c r="I63" t="s">
         <v>618</v>
-      </c>
-      <c r="I63" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4409,16 +4410,16 @@
         <v>12232</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D64" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" t="s">
         <v>217</v>
-      </c>
-      <c r="E64" t="s">
-        <v>218</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>13</v>
@@ -4427,10 +4428,10 @@
         <v>12080</v>
       </c>
       <c r="H64" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I64" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4438,16 +4439,16 @@
         <v>8900017</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D65" t="s">
+        <v>332</v>
+      </c>
+      <c r="E65" t="s">
         <v>333</v>
-      </c>
-      <c r="E65" t="s">
-        <v>334</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>13</v>
@@ -4456,10 +4457,10 @@
         <v>12080</v>
       </c>
       <c r="H65" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I65" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4467,16 +4468,16 @@
         <v>11733</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D66" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66" t="s">
         <v>371</v>
-      </c>
-      <c r="E66" t="s">
-        <v>372</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -4485,10 +4486,10 @@
         <v>12080</v>
       </c>
       <c r="H66" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I66" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4496,16 +4497,16 @@
         <v>4327</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D67" t="s">
+        <v>442</v>
+      </c>
+      <c r="E67" t="s">
         <v>443</v>
-      </c>
-      <c r="E67" t="s">
-        <v>444</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>13</v>
@@ -4514,10 +4515,10 @@
         <v>12080</v>
       </c>
       <c r="H67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I67" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4525,16 +4526,16 @@
         <v>8971167</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D68" t="s">
+        <v>482</v>
+      </c>
+      <c r="E68" t="s">
         <v>483</v>
-      </c>
-      <c r="E68" t="s">
-        <v>484</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
@@ -4543,10 +4544,10 @@
         <v>12080</v>
       </c>
       <c r="H68" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I68" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4554,16 +4555,16 @@
         <v>233</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D69" t="s">
+        <v>506</v>
+      </c>
+      <c r="E69" t="s">
         <v>507</v>
-      </c>
-      <c r="E69" t="s">
-        <v>508</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
@@ -4572,10 +4573,10 @@
         <v>12080</v>
       </c>
       <c r="H69" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I69" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4583,28 +4584,28 @@
         <v>4458</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
+        <v>635</v>
+      </c>
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G70" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I70" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D70" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" t="s">
-        <v>148</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4612,28 +4613,28 @@
         <v>838</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
+        <v>635</v>
+      </c>
+      <c r="D71" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G71" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I71" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D71" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" t="s">
-        <v>198</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H71" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4641,28 +4642,28 @@
         <v>11775</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
+        <v>635</v>
+      </c>
+      <c r="D72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G72" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I72" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72" t="s">
-        <v>200</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H72" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4670,28 +4671,28 @@
         <v>9341</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" t="s">
+        <v>635</v>
+      </c>
+      <c r="D73" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G73" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I73" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H73" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4699,28 +4700,28 @@
         <v>958</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" t="s">
+        <v>635</v>
+      </c>
+      <c r="D74" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" t="s">
+        <v>263</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G74" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I74" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D74" t="s">
-        <v>263</v>
-      </c>
-      <c r="E74" t="s">
-        <v>264</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H74" t="s">
-        <v>19</v>
-      </c>
-      <c r="I74" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,28 +4729,28 @@
         <v>2309</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
+        <v>635</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>273</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G75" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I75" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D75" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" t="s">
-        <v>274</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H75" t="s">
-        <v>19</v>
-      </c>
-      <c r="I75" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,28 +4758,28 @@
         <v>3784</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
+        <v>635</v>
+      </c>
+      <c r="D76" t="s">
+        <v>308</v>
+      </c>
+      <c r="E76" t="s">
+        <v>309</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G76" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I76" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D76" t="s">
-        <v>309</v>
-      </c>
-      <c r="E76" t="s">
-        <v>310</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4786,28 +4787,28 @@
         <v>8900004</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
+        <v>635</v>
+      </c>
+      <c r="D77" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77" t="s">
+        <v>331</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G77" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I77" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D77" t="s">
-        <v>331</v>
-      </c>
-      <c r="E77" t="s">
-        <v>332</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H77" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4815,28 +4816,28 @@
         <v>8900016</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
+        <v>635</v>
+      </c>
+      <c r="D78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G78" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I78" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D78" t="s">
-        <v>335</v>
-      </c>
-      <c r="E78" t="s">
-        <v>336</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4844,28 +4845,28 @@
         <v>3508</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
+        <v>635</v>
+      </c>
+      <c r="D79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E79" t="s">
+        <v>401</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G79" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I79" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D79" t="s">
-        <v>401</v>
-      </c>
-      <c r="E79" t="s">
-        <v>402</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H79" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4873,28 +4874,28 @@
         <v>4111</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" t="s">
+        <v>635</v>
+      </c>
+      <c r="D80" t="s">
+        <v>408</v>
+      </c>
+      <c r="E80" t="s">
+        <v>409</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G80" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D80" t="s">
-        <v>409</v>
-      </c>
-      <c r="E80" t="s">
-        <v>410</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H80" t="s">
-        <v>19</v>
-      </c>
-      <c r="I80" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4902,28 +4903,28 @@
         <v>3944</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
+        <v>635</v>
+      </c>
+      <c r="D81" t="s">
+        <v>412</v>
+      </c>
+      <c r="E81" t="s">
+        <v>413</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G81" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I81" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D81" t="s">
-        <v>413</v>
-      </c>
-      <c r="E81" t="s">
-        <v>414</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,28 +4932,28 @@
         <v>4197</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C82" t="s">
+        <v>635</v>
+      </c>
+      <c r="D82" t="s">
+        <v>420</v>
+      </c>
+      <c r="E82" t="s">
+        <v>421</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G82" s="2">
+        <v>12487</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>637</v>
-      </c>
-      <c r="D82" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" t="s">
-        <v>422</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3">
-        <v>11932</v>
-      </c>
-      <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,16 +4961,16 @@
         <v>212</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" t="s">
         <v>167</v>
-      </c>
-      <c r="E83" t="s">
-        <v>168</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -4978,10 +4979,10 @@
         <v>12087</v>
       </c>
       <c r="H83" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I83" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4989,16 +4990,16 @@
         <v>1006</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D84" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" t="s">
         <v>215</v>
-      </c>
-      <c r="E84" t="s">
-        <v>216</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -5007,10 +5008,10 @@
         <v>12087</v>
       </c>
       <c r="H84" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I84" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,16 +5019,16 @@
         <v>954</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D85" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" t="s">
         <v>233</v>
-      </c>
-      <c r="E85" t="s">
-        <v>234</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -5036,10 +5037,10 @@
         <v>12087</v>
       </c>
       <c r="H85" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I85" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5047,16 +5048,16 @@
         <v>8900015</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D86" t="s">
+        <v>326</v>
+      </c>
+      <c r="E86" t="s">
         <v>327</v>
-      </c>
-      <c r="E86" t="s">
-        <v>328</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -5065,10 +5066,10 @@
         <v>12087</v>
       </c>
       <c r="H86" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5076,16 +5077,16 @@
         <v>9487</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D87" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" t="s">
         <v>377</v>
-      </c>
-      <c r="E87" t="s">
-        <v>378</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>17</v>
@@ -5094,10 +5095,10 @@
         <v>12087</v>
       </c>
       <c r="H87" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I87" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5105,16 +5106,16 @@
         <v>8975473</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D88" t="s">
+        <v>428</v>
+      </c>
+      <c r="E88" t="s">
         <v>429</v>
-      </c>
-      <c r="E88" t="s">
-        <v>430</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>17</v>
@@ -5123,10 +5124,10 @@
         <v>12087</v>
       </c>
       <c r="H88" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I88" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,16 +5135,16 @@
         <v>276</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D89" t="s">
+        <v>434</v>
+      </c>
+      <c r="E89" t="s">
         <v>435</v>
-      </c>
-      <c r="E89" t="s">
-        <v>436</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>17</v>
@@ -5152,10 +5153,10 @@
         <v>12087</v>
       </c>
       <c r="H89" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5163,16 +5164,16 @@
         <v>8971165</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D90" t="s">
+        <v>478</v>
+      </c>
+      <c r="E90" t="s">
         <v>479</v>
-      </c>
-      <c r="E90" t="s">
-        <v>480</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>17</v>
@@ -5181,10 +5182,10 @@
         <v>12087</v>
       </c>
       <c r="H90" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I90" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5192,16 +5193,16 @@
         <v>557</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D91" t="s">
+        <v>500</v>
+      </c>
+      <c r="E91" t="s">
         <v>501</v>
-      </c>
-      <c r="E91" t="s">
-        <v>502</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>17</v>
@@ -5210,10 +5211,10 @@
         <v>12087</v>
       </c>
       <c r="H91" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I91" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5221,28 +5222,28 @@
         <v>9346</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
         <v>207</v>
       </c>
-      <c r="E92" t="s">
-        <v>208</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G92" s="3">
         <v>12028</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -5250,28 +5251,28 @@
         <v>1482</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C93" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" t="s">
         <v>235</v>
       </c>
-      <c r="E93" t="s">
-        <v>236</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G93" s="3">
         <v>12028</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -5279,28 +5280,28 @@
         <v>1025</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C94" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D94" t="s">
+        <v>240</v>
+      </c>
+      <c r="E94" t="s">
         <v>241</v>
       </c>
-      <c r="E94" t="s">
-        <v>242</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G94" s="3">
         <v>12028</v>
       </c>
       <c r="H94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -5308,28 +5309,28 @@
         <v>1049</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C95" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D95" t="s">
+        <v>252</v>
+      </c>
+      <c r="E95" t="s">
         <v>253</v>
       </c>
-      <c r="E95" t="s">
-        <v>254</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G95" s="3">
         <v>12028</v>
       </c>
       <c r="H95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5337,28 +5338,28 @@
         <v>11879</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
         <v>259</v>
       </c>
-      <c r="E96" t="s">
-        <v>260</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G96" s="3">
         <v>12028</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5366,28 +5367,28 @@
         <v>8900012</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E97" t="s">
         <v>321</v>
       </c>
-      <c r="E97" t="s">
-        <v>322</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G97" s="3">
         <v>12028</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5395,28 +5396,28 @@
         <v>3533</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D98" t="s">
+        <v>410</v>
+      </c>
+      <c r="E98" t="s">
         <v>411</v>
       </c>
-      <c r="E98" t="s">
-        <v>412</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G98" s="3">
         <v>12028</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5424,28 +5425,28 @@
         <v>4284</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D99" t="s">
+        <v>414</v>
+      </c>
+      <c r="E99" t="s">
         <v>415</v>
       </c>
-      <c r="E99" t="s">
-        <v>416</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G99" s="3">
         <v>12028</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5453,28 +5454,28 @@
         <v>8971163</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D100" t="s">
+        <v>492</v>
+      </c>
+      <c r="E100" t="s">
         <v>493</v>
       </c>
-      <c r="E100" t="s">
-        <v>494</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G100" s="3">
         <v>12028</v>
       </c>
       <c r="H100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5482,28 +5483,28 @@
         <v>879</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C101" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D101" t="s">
+        <v>514</v>
+      </c>
+      <c r="E101" t="s">
         <v>515</v>
       </c>
-      <c r="E101" t="s">
-        <v>516</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G101" s="3">
         <v>12028</v>
       </c>
       <c r="H101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5511,16 +5512,16 @@
         <v>196</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D102" t="s">
+        <v>170</v>
+      </c>
+      <c r="E102" t="s">
         <v>171</v>
-      </c>
-      <c r="E102" t="s">
-        <v>172</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>15</v>
@@ -5529,10 +5530,10 @@
         <v>12076</v>
       </c>
       <c r="H102" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I102" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5540,16 +5541,16 @@
         <v>182</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D103" t="s">
+        <v>176</v>
+      </c>
+      <c r="E103" t="s">
         <v>177</v>
-      </c>
-      <c r="E103" t="s">
-        <v>178</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>15</v>
@@ -5558,10 +5559,10 @@
         <v>12076</v>
       </c>
       <c r="H103" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I103" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5569,16 +5570,16 @@
         <v>10946</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" t="s">
         <v>205</v>
-      </c>
-      <c r="E104" t="s">
-        <v>206</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>15</v>
@@ -5587,10 +5588,10 @@
         <v>12076</v>
       </c>
       <c r="H104" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I104" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5598,16 +5599,16 @@
         <v>967</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D105" t="s">
+        <v>222</v>
+      </c>
+      <c r="E105" t="s">
         <v>223</v>
-      </c>
-      <c r="E105" t="s">
-        <v>224</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>15</v>
@@ -5616,10 +5617,10 @@
         <v>12076</v>
       </c>
       <c r="H105" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I105" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5627,16 +5628,16 @@
         <v>9339</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D106" t="s">
+        <v>224</v>
+      </c>
+      <c r="E106" t="s">
         <v>225</v>
-      </c>
-      <c r="E106" t="s">
-        <v>226</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>15</v>
@@ -5645,10 +5646,10 @@
         <v>12076</v>
       </c>
       <c r="H106" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I106" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5656,16 +5657,16 @@
         <v>9622</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
         <v>229</v>
-      </c>
-      <c r="E107" t="s">
-        <v>230</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>15</v>
@@ -5674,10 +5675,10 @@
         <v>12076</v>
       </c>
       <c r="H107" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I107" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5685,16 +5686,16 @@
         <v>4803</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D108" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" t="s">
         <v>239</v>
-      </c>
-      <c r="E108" t="s">
-        <v>240</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>15</v>
@@ -5703,10 +5704,10 @@
         <v>12076</v>
       </c>
       <c r="H108" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I108" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5714,16 +5715,16 @@
         <v>9631</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
         <v>265</v>
-      </c>
-      <c r="E109" t="s">
-        <v>266</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>15</v>
@@ -5732,10 +5733,10 @@
         <v>12076</v>
       </c>
       <c r="H109" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I109" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5743,16 +5744,16 @@
         <v>4221</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D110" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" t="s">
         <v>403</v>
-      </c>
-      <c r="E110" t="s">
-        <v>404</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>15</v>
@@ -5761,10 +5762,10 @@
         <v>12076</v>
       </c>
       <c r="H110" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I110" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -5772,16 +5773,16 @@
         <v>228</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D111" t="s">
+        <v>502</v>
+      </c>
+      <c r="E111" t="s">
         <v>503</v>
-      </c>
-      <c r="E111" t="s">
-        <v>504</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>15</v>
@@ -5790,10 +5791,10 @@
         <v>12076</v>
       </c>
       <c r="H111" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I111" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -5801,16 +5802,16 @@
         <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D112" t="s">
+        <v>510</v>
+      </c>
+      <c r="E112" t="s">
         <v>511</v>
-      </c>
-      <c r="E112" t="s">
-        <v>512</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>15</v>
@@ -5819,10 +5820,10 @@
         <v>12076</v>
       </c>
       <c r="H112" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I112" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -5830,16 +5831,16 @@
         <v>902</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D113" t="s">
+        <v>516</v>
+      </c>
+      <c r="E113" t="s">
         <v>517</v>
-      </c>
-      <c r="E113" t="s">
-        <v>518</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>15</v>
@@ -5848,10 +5849,10 @@
         <v>12076</v>
       </c>
       <c r="H113" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I113" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,28 +5860,28 @@
         <v>972</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D114" t="s">
+        <v>312</v>
+      </c>
+      <c r="E114" t="s">
         <v>313</v>
       </c>
-      <c r="E114" t="s">
-        <v>314</v>
-      </c>
       <c r="F114" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G114" s="3">
         <v>12341</v>
       </c>
       <c r="H114" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I114" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -5888,28 +5889,28 @@
         <v>224</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D115" t="s">
+        <v>316</v>
+      </c>
+      <c r="E115" t="s">
         <v>317</v>
       </c>
-      <c r="E115" t="s">
-        <v>318</v>
-      </c>
       <c r="F115" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G115" s="3">
         <v>12341</v>
       </c>
       <c r="H115" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I115" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -5917,28 +5918,28 @@
         <v>4522</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D116" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" t="s">
         <v>337</v>
       </c>
-      <c r="E116" t="s">
-        <v>338</v>
-      </c>
       <c r="F116" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G116" s="3">
         <v>12341</v>
       </c>
       <c r="H116" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I116" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5946,28 +5947,28 @@
         <v>942</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C117" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D117" t="s">
+        <v>338</v>
+      </c>
+      <c r="E117" t="s">
         <v>339</v>
       </c>
-      <c r="E117" t="s">
-        <v>340</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G117" s="3">
         <v>12341</v>
       </c>
       <c r="H117" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I117" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5975,28 +5976,28 @@
         <v>8900010</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C118" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D118" t="s">
+        <v>346</v>
+      </c>
+      <c r="E118" t="s">
         <v>347</v>
       </c>
-      <c r="E118" t="s">
-        <v>348</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G118" s="3">
         <v>12341</v>
       </c>
       <c r="H118" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I118" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -6004,28 +6005,28 @@
         <v>8900018</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D119" t="s">
+        <v>366</v>
+      </c>
+      <c r="E119" t="s">
         <v>367</v>
       </c>
-      <c r="E119" t="s">
-        <v>368</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G119" s="3">
         <v>12341</v>
       </c>
       <c r="H119" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I119" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -6033,28 +6034,28 @@
         <v>8900009</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D120" t="s">
+        <v>416</v>
+      </c>
+      <c r="E120" t="s">
         <v>417</v>
       </c>
-      <c r="E120" t="s">
-        <v>418</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G120" s="3">
         <v>12341</v>
       </c>
       <c r="H120" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I120" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -6062,28 +6063,28 @@
         <v>8900007</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C121" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D121" t="s">
+        <v>440</v>
+      </c>
+      <c r="E121" t="s">
         <v>441</v>
       </c>
-      <c r="E121" t="s">
-        <v>442</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G121" s="3">
         <v>12341</v>
       </c>
       <c r="H121" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I121" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -6091,28 +6092,28 @@
         <v>3815</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D122" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" t="s">
         <v>487</v>
       </c>
-      <c r="E122" t="s">
-        <v>488</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G122" s="3">
         <v>12341</v>
       </c>
       <c r="H122" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I122" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -6120,28 +6121,28 @@
         <v>3616</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D123" t="s">
+        <v>488</v>
+      </c>
+      <c r="E123" t="s">
         <v>489</v>
       </c>
-      <c r="E123" t="s">
-        <v>490</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G123" s="3">
         <v>12341</v>
       </c>
       <c r="H123" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I123" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -6149,28 +6150,28 @@
         <v>6971169</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D124" t="s">
+        <v>504</v>
+      </c>
+      <c r="E124" t="s">
         <v>505</v>
       </c>
-      <c r="E124" t="s">
-        <v>506</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G124" s="3">
         <v>12341</v>
       </c>
       <c r="H124" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I124" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -6178,28 +6179,28 @@
         <v>179</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C125" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D125" t="s">
+        <v>508</v>
+      </c>
+      <c r="E125" t="s">
         <v>509</v>
       </c>
-      <c r="E125" t="s">
-        <v>510</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G125" s="3">
         <v>12341</v>
       </c>
       <c r="H125" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I125" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -6207,28 +6208,28 @@
         <v>4394</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D126" t="s">
+        <v>518</v>
+      </c>
+      <c r="E126" t="s">
         <v>519</v>
       </c>
-      <c r="E126" t="s">
-        <v>520</v>
-      </c>
       <c r="F126" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G126" s="3">
         <v>12341</v>
       </c>
       <c r="H126" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I126" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -6236,28 +6237,28 @@
         <v>11851</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D127" t="s">
+        <v>154</v>
+      </c>
+      <c r="E127" t="s">
         <v>155</v>
       </c>
-      <c r="E127" t="s">
-        <v>156</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G127" s="3">
         <v>12229</v>
       </c>
       <c r="H127" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I127" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -6265,28 +6266,28 @@
         <v>11899</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D128" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" t="s">
         <v>165</v>
       </c>
-      <c r="E128" t="s">
-        <v>166</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G128" s="3">
         <v>12229</v>
       </c>
       <c r="H128" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I128" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -6294,28 +6295,28 @@
         <v>3486</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D129" t="s">
+        <v>168</v>
+      </c>
+      <c r="E129" t="s">
         <v>169</v>
       </c>
-      <c r="E129" t="s">
-        <v>170</v>
-      </c>
       <c r="F129" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G129" s="3">
         <v>12229</v>
       </c>
       <c r="H129" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I129" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -6323,28 +6324,28 @@
         <v>10977</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D130" t="s">
+        <v>180</v>
+      </c>
+      <c r="E130" t="s">
         <v>181</v>
       </c>
-      <c r="E130" t="s">
-        <v>182</v>
-      </c>
       <c r="F130" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G130" s="3">
         <v>12229</v>
       </c>
       <c r="H130" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I130" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -6352,28 +6353,28 @@
         <v>10947</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D131" t="s">
+        <v>248</v>
+      </c>
+      <c r="E131" t="s">
         <v>249</v>
       </c>
-      <c r="E131" t="s">
-        <v>250</v>
-      </c>
       <c r="F131" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G131" s="3">
         <v>12229</v>
       </c>
       <c r="H131" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I131" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -6381,28 +6382,28 @@
         <v>8900019</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D132" t="s">
+        <v>328</v>
+      </c>
+      <c r="E132" t="s">
         <v>329</v>
       </c>
-      <c r="E132" t="s">
-        <v>330</v>
-      </c>
       <c r="F132" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G132" s="3">
         <v>12229</v>
       </c>
       <c r="H132" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I132" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -6410,28 +6411,28 @@
         <v>218</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D133" t="s">
+        <v>348</v>
+      </c>
+      <c r="E133" t="s">
         <v>349</v>
       </c>
-      <c r="E133" t="s">
-        <v>350</v>
-      </c>
       <c r="F133" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G133" s="3">
         <v>12229</v>
       </c>
       <c r="H133" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I133" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -6439,28 +6440,28 @@
         <v>268</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D134" t="s">
+        <v>444</v>
+      </c>
+      <c r="E134" t="s">
         <v>445</v>
       </c>
-      <c r="E134" t="s">
-        <v>446</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G134" s="3">
         <v>12229</v>
       </c>
       <c r="H134" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I134" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -6468,28 +6469,28 @@
         <v>8971164</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C135" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D135" t="s">
+        <v>490</v>
+      </c>
+      <c r="E135" t="s">
         <v>491</v>
       </c>
-      <c r="E135" t="s">
-        <v>492</v>
-      </c>
       <c r="F135" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G135" s="3">
         <v>12229</v>
       </c>
       <c r="H135" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I135" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -6497,28 +6498,28 @@
         <v>8971161</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D136" t="s">
+        <v>494</v>
+      </c>
+      <c r="E136" t="s">
         <v>495</v>
       </c>
-      <c r="E136" t="s">
-        <v>496</v>
-      </c>
       <c r="F136" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G136" s="3">
         <v>12229</v>
       </c>
       <c r="H136" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I136" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -6526,28 +6527,28 @@
         <v>11896</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D137" t="s">
+        <v>172</v>
+      </c>
+      <c r="E137" t="s">
         <v>173</v>
       </c>
-      <c r="E137" t="s">
-        <v>174</v>
-      </c>
       <c r="F137" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G137" s="3">
         <v>12053</v>
       </c>
       <c r="H137" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I137" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -6555,28 +6556,28 @@
         <v>11946</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D138" t="s">
+        <v>174</v>
+      </c>
+      <c r="E138" t="s">
         <v>175</v>
       </c>
-      <c r="E138" t="s">
-        <v>176</v>
-      </c>
       <c r="F138" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G138" s="3">
         <v>12053</v>
       </c>
       <c r="H138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I138" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6584,28 +6585,28 @@
         <v>11895</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D139" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" t="s">
         <v>179</v>
       </c>
-      <c r="E139" t="s">
-        <v>180</v>
-      </c>
       <c r="F139" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G139" s="3">
         <v>12053</v>
       </c>
       <c r="H139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I139" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6613,28 +6614,28 @@
         <v>11898</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D140" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140" t="s">
         <v>189</v>
       </c>
-      <c r="E140" t="s">
-        <v>190</v>
-      </c>
       <c r="F140" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G140" s="3">
         <v>12053</v>
       </c>
       <c r="H140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I140" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -6642,28 +6643,28 @@
         <v>9347</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C141" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D141" t="s">
+        <v>210</v>
+      </c>
+      <c r="E141" t="s">
         <v>211</v>
       </c>
-      <c r="E141" t="s">
-        <v>212</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G141" s="3">
         <v>12053</v>
       </c>
       <c r="H141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I141" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -6671,28 +6672,28 @@
         <v>8900008</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C142" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E142" t="s">
         <v>319</v>
       </c>
-      <c r="E142" t="s">
-        <v>320</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G142" s="3">
         <v>12053</v>
       </c>
       <c r="H142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I142" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -6700,28 +6701,28 @@
         <v>10722</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C143" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D143" t="s">
+        <v>438</v>
+      </c>
+      <c r="E143" t="s">
         <v>439</v>
       </c>
-      <c r="E143" t="s">
-        <v>440</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G143" s="3">
         <v>12053</v>
       </c>
       <c r="H143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I143" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,28 +6730,28 @@
         <v>11595</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C144" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D144" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" t="s">
         <v>159</v>
       </c>
-      <c r="E144" t="s">
-        <v>160</v>
-      </c>
       <c r="F144" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G144" s="3">
         <v>11679</v>
       </c>
       <c r="H144" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I144" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -6758,28 +6759,28 @@
         <v>663</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C145" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D145" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" t="s">
         <v>163</v>
       </c>
-      <c r="E145" t="s">
-        <v>164</v>
-      </c>
       <c r="F145" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G145" s="3">
         <v>11679</v>
       </c>
       <c r="H145" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I145" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -6787,28 +6788,28 @@
         <v>862</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C146" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D146" t="s">
+        <v>182</v>
+      </c>
+      <c r="E146" t="s">
         <v>183</v>
       </c>
-      <c r="E146" t="s">
-        <v>184</v>
-      </c>
       <c r="F146" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G146" s="3">
         <v>11679</v>
       </c>
       <c r="H146" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I146" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -6816,28 +6817,28 @@
         <v>976</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C147" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D147" t="s">
+        <v>218</v>
+      </c>
+      <c r="E147" t="s">
         <v>219</v>
       </c>
-      <c r="E147" t="s">
-        <v>220</v>
-      </c>
       <c r="F147" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G147" s="3">
         <v>11679</v>
       </c>
       <c r="H147" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I147" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -6845,28 +6846,28 @@
         <v>11809</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C148" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D148" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148" t="s">
         <v>231</v>
       </c>
-      <c r="E148" t="s">
-        <v>232</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G148" s="3">
         <v>11679</v>
       </c>
       <c r="H148" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I148" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -6874,28 +6875,28 @@
         <v>548</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D149" t="s">
+        <v>246</v>
+      </c>
+      <c r="E149" t="s">
         <v>247</v>
       </c>
-      <c r="E149" t="s">
-        <v>248</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G149" s="3">
         <v>11679</v>
       </c>
       <c r="H149" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I149" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -6903,28 +6904,28 @@
         <v>10756</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C150" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D150" t="s">
+        <v>368</v>
+      </c>
+      <c r="E150" t="s">
         <v>369</v>
       </c>
-      <c r="E150" t="s">
-        <v>370</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G150" s="3">
         <v>11679</v>
       </c>
       <c r="H150" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I150" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6932,28 +6933,28 @@
         <v>8971162</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C151" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D151" t="s">
+        <v>480</v>
+      </c>
+      <c r="E151" t="s">
         <v>481</v>
       </c>
-      <c r="E151" t="s">
-        <v>482</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G151" s="3">
         <v>11679</v>
       </c>
       <c r="H151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I151" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -6961,28 +6962,28 @@
         <v>8971160</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C152" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D152" t="s">
+        <v>484</v>
+      </c>
+      <c r="E152" t="s">
         <v>485</v>
       </c>
-      <c r="E152" t="s">
-        <v>486</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G152" s="3">
         <v>11679</v>
       </c>
       <c r="H152" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I152" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -6990,28 +6991,28 @@
         <v>4028</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C153" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D153" t="s">
+        <v>358</v>
+      </c>
+      <c r="E153" t="s">
         <v>359</v>
       </c>
-      <c r="E153" t="s">
-        <v>360</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G153" s="3">
         <v>12364</v>
       </c>
       <c r="H153" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I153" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -7019,28 +7020,28 @@
         <v>11669</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C154" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D154" t="s">
+        <v>380</v>
+      </c>
+      <c r="E154" t="s">
         <v>381</v>
       </c>
-      <c r="E154" t="s">
-        <v>382</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G154" s="3">
         <v>12364</v>
       </c>
       <c r="H154" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I154" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -7048,28 +7049,28 @@
         <v>3776</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C155" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D155" t="s">
+        <v>394</v>
+      </c>
+      <c r="E155" t="s">
         <v>395</v>
       </c>
-      <c r="E155" t="s">
-        <v>396</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G155" s="3">
         <v>12364</v>
       </c>
       <c r="H155" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I155" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -7077,28 +7078,28 @@
         <v>4057</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C156" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D156" t="s">
+        <v>396</v>
+      </c>
+      <c r="E156" t="s">
         <v>397</v>
       </c>
-      <c r="E156" t="s">
-        <v>398</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G156" s="3">
         <v>12364</v>
       </c>
       <c r="H156" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I156" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -7106,28 +7107,28 @@
         <v>5192</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C157" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D157" t="s">
+        <v>448</v>
+      </c>
+      <c r="E157" t="s">
         <v>449</v>
       </c>
-      <c r="E157" t="s">
-        <v>450</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G157" s="3">
         <v>12364</v>
       </c>
       <c r="H157" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I157" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -7135,28 +7136,28 @@
         <v>11802</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C158" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D158" t="s">
+        <v>462</v>
+      </c>
+      <c r="E158" t="s">
         <v>463</v>
       </c>
-      <c r="E158" t="s">
-        <v>464</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G158" s="3">
         <v>12364</v>
       </c>
       <c r="H158" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I158" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -7164,28 +7165,28 @@
         <v>11803</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D159" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" t="s">
         <v>465</v>
       </c>
-      <c r="E159" t="s">
-        <v>466</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G159" s="3">
         <v>12364</v>
       </c>
       <c r="H159" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I159" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -7193,28 +7194,28 @@
         <v>11804</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C160" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D160" t="s">
+        <v>466</v>
+      </c>
+      <c r="E160" t="s">
         <v>467</v>
       </c>
-      <c r="E160" t="s">
-        <v>468</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G160" s="3">
         <v>12364</v>
       </c>
       <c r="H160" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I160" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -7222,28 +7223,28 @@
         <v>884</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C161" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D161" t="s">
+        <v>526</v>
+      </c>
+      <c r="E161" t="s">
         <v>527</v>
       </c>
-      <c r="E161" t="s">
-        <v>528</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G161" s="3">
         <v>12364</v>
       </c>
       <c r="H161" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I161" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -7251,28 +7252,28 @@
         <v>2807</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C162" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D162" t="s">
+        <v>532</v>
+      </c>
+      <c r="E162" t="s">
         <v>533</v>
       </c>
-      <c r="E162" t="s">
-        <v>534</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G162" s="3">
         <v>12364</v>
       </c>
       <c r="H162" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I162" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -7280,28 +7281,28 @@
         <v>11743</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C163" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D163" t="s">
+        <v>540</v>
+      </c>
+      <c r="E163" t="s">
         <v>541</v>
       </c>
-      <c r="E163" t="s">
-        <v>542</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G163" s="3">
         <v>12364</v>
       </c>
       <c r="H163" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I163" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -7309,28 +7310,28 @@
         <v>3078</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C164" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D164" t="s">
+        <v>550</v>
+      </c>
+      <c r="E164" t="s">
         <v>551</v>
       </c>
-      <c r="E164" t="s">
-        <v>552</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G164" s="3">
         <v>12364</v>
       </c>
       <c r="H164" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I164" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -7338,28 +7339,28 @@
         <v>5158</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C165" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D165" t="s">
+        <v>552</v>
+      </c>
+      <c r="E165" t="s">
         <v>553</v>
       </c>
-      <c r="E165" t="s">
-        <v>554</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G165" s="3">
         <v>12364</v>
       </c>
       <c r="H165" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I165" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -7367,19 +7368,19 @@
         <v>11844</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D166" t="s">
+        <v>280</v>
+      </c>
+      <c r="E166" t="s">
         <v>281</v>
       </c>
-      <c r="E166" t="s">
-        <v>282</v>
-      </c>
       <c r="F166" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G166" s="3">
         <v>11617</v>
@@ -7388,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="I166" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -7396,19 +7397,19 @@
         <v>11163</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C167" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D167" t="s">
+        <v>284</v>
+      </c>
+      <c r="E167" t="s">
         <v>285</v>
       </c>
-      <c r="E167" t="s">
-        <v>286</v>
-      </c>
       <c r="F167" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G167" s="3">
         <v>11617</v>
@@ -7417,7 +7418,7 @@
         <v>11</v>
       </c>
       <c r="I167" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -7425,19 +7426,19 @@
         <v>4089</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D168" t="s">
+        <v>288</v>
+      </c>
+      <c r="E168" t="s">
         <v>289</v>
       </c>
-      <c r="E168" t="s">
-        <v>290</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G168" s="3">
         <v>11617</v>
@@ -7446,7 +7447,7 @@
         <v>11</v>
       </c>
       <c r="I168" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -7454,19 +7455,19 @@
         <v>4381</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D169" t="s">
+        <v>292</v>
+      </c>
+      <c r="E169" t="s">
         <v>293</v>
       </c>
-      <c r="E169" t="s">
-        <v>294</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G169" s="3">
         <v>11617</v>
@@ -7475,7 +7476,7 @@
         <v>11</v>
       </c>
       <c r="I169" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -7483,19 +7484,19 @@
         <v>9595</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D170" t="s">
+        <v>296</v>
+      </c>
+      <c r="E170" t="s">
         <v>297</v>
       </c>
-      <c r="E170" t="s">
-        <v>298</v>
-      </c>
       <c r="F170" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G170" s="3">
         <v>11617</v>
@@ -7504,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="I170" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -7512,19 +7513,19 @@
         <v>317</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D171" t="s">
+        <v>304</v>
+      </c>
+      <c r="E171" t="s">
         <v>305</v>
       </c>
-      <c r="E171" t="s">
-        <v>306</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G171" s="3">
         <v>11617</v>
@@ -7533,7 +7534,7 @@
         <v>11</v>
       </c>
       <c r="I171" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -7541,19 +7542,19 @@
         <v>595</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C172" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D172" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172" t="s">
         <v>383</v>
       </c>
-      <c r="E172" t="s">
-        <v>384</v>
-      </c>
       <c r="F172" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G172" s="3">
         <v>11617</v>
@@ -7562,7 +7563,7 @@
         <v>11</v>
       </c>
       <c r="I172" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -7570,19 +7571,19 @@
         <v>9295</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C173" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D173" t="s">
+        <v>422</v>
+      </c>
+      <c r="E173" t="s">
         <v>423</v>
       </c>
-      <c r="E173" t="s">
-        <v>424</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G173" s="3">
         <v>11617</v>
@@ -7591,7 +7592,7 @@
         <v>11</v>
       </c>
       <c r="I173" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -7599,19 +7600,19 @@
         <v>11268</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C174" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D174" t="s">
+        <v>424</v>
+      </c>
+      <c r="E174" t="s">
         <v>425</v>
       </c>
-      <c r="E174" t="s">
-        <v>426</v>
-      </c>
       <c r="F174" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G174" s="3">
         <v>11617</v>
@@ -7620,7 +7621,7 @@
         <v>11</v>
       </c>
       <c r="I174" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -7628,19 +7629,19 @@
         <v>181</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C175" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D175" t="s">
+        <v>468</v>
+      </c>
+      <c r="E175" t="s">
         <v>469</v>
       </c>
-      <c r="E175" t="s">
-        <v>470</v>
-      </c>
       <c r="F175" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G175" s="3">
         <v>11617</v>
@@ -7649,7 +7650,7 @@
         <v>11</v>
       </c>
       <c r="I175" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -7657,19 +7658,19 @@
         <v>239</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D176" t="s">
+        <v>470</v>
+      </c>
+      <c r="E176" t="s">
         <v>471</v>
       </c>
-      <c r="E176" t="s">
-        <v>472</v>
-      </c>
       <c r="F176" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G176" s="3">
         <v>11617</v>
@@ -7678,7 +7679,7 @@
         <v>11</v>
       </c>
       <c r="I176" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -7686,19 +7687,19 @@
         <v>9296</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C177" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D177" t="s">
+        <v>472</v>
+      </c>
+      <c r="E177" t="s">
         <v>473</v>
       </c>
-      <c r="E177" t="s">
-        <v>474</v>
-      </c>
       <c r="F177" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G177" s="3">
         <v>11617</v>
@@ -7707,7 +7708,7 @@
         <v>11</v>
       </c>
       <c r="I177" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -7715,19 +7716,19 @@
         <v>2240</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C178" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D178" t="s">
+        <v>474</v>
+      </c>
+      <c r="E178" t="s">
         <v>475</v>
       </c>
-      <c r="E178" t="s">
-        <v>476</v>
-      </c>
       <c r="F178" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G178" s="3">
         <v>11617</v>
@@ -7736,7 +7737,7 @@
         <v>11</v>
       </c>
       <c r="I178" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -7744,19 +7745,19 @@
         <v>3771</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C179" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D179" t="s">
+        <v>522</v>
+      </c>
+      <c r="E179" t="s">
         <v>523</v>
       </c>
-      <c r="E179" t="s">
-        <v>524</v>
-      </c>
       <c r="F179" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G179" s="3">
         <v>11617</v>
@@ -7765,7 +7766,7 @@
         <v>11</v>
       </c>
       <c r="I179" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -7773,19 +7774,19 @@
         <v>1450</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C180" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D180" t="s">
+        <v>554</v>
+      </c>
+      <c r="E180" t="s">
         <v>555</v>
       </c>
-      <c r="E180" t="s">
-        <v>556</v>
-      </c>
       <c r="F180" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G180" s="3">
         <v>11617</v>
@@ -7794,7 +7795,7 @@
         <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -7805,16 +7806,16 @@
         <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D181" t="s">
+        <v>556</v>
+      </c>
+      <c r="E181" t="s">
         <v>557</v>
       </c>
-      <c r="E181" t="s">
-        <v>558</v>
-      </c>
       <c r="F181" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G181" s="3">
         <v>11617</v>
@@ -7823,7 +7824,7 @@
         <v>11</v>
       </c>
       <c r="I181" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -7831,19 +7832,19 @@
         <v>2365</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C182" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D182" t="s">
+        <v>560</v>
+      </c>
+      <c r="E182" t="s">
         <v>561</v>
       </c>
-      <c r="E182" t="s">
-        <v>562</v>
-      </c>
       <c r="F182" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G182" s="3">
         <v>11617</v>
@@ -7852,7 +7853,7 @@
         <v>11</v>
       </c>
       <c r="I182" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -7860,19 +7861,19 @@
         <v>1230</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C183" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D183" t="s">
+        <v>576</v>
+      </c>
+      <c r="E183" t="s">
         <v>577</v>
       </c>
-      <c r="E183" t="s">
-        <v>578</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G183" s="3">
         <v>11617</v>
@@ -7881,7 +7882,7 @@
         <v>11</v>
       </c>
       <c r="I183" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -7889,16 +7890,16 @@
         <v>9340</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C184" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D184" t="s">
+        <v>200</v>
+      </c>
+      <c r="E184" t="s">
         <v>201</v>
-      </c>
-      <c r="E184" t="s">
-        <v>202</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>16</v>
@@ -7910,7 +7911,7 @@
         <v>18</v>
       </c>
       <c r="I184" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -7918,16 +7919,16 @@
         <v>4393</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C185" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D185" t="s">
+        <v>260</v>
+      </c>
+      <c r="E185" t="s">
         <v>261</v>
-      </c>
-      <c r="E185" t="s">
-        <v>262</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>16</v>
@@ -7939,7 +7940,7 @@
         <v>18</v>
       </c>
       <c r="I185" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -7947,16 +7948,16 @@
         <v>4029</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C186" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D186" t="s">
+        <v>270</v>
+      </c>
+      <c r="E186" t="s">
         <v>271</v>
-      </c>
-      <c r="E186" t="s">
-        <v>272</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>16</v>
@@ -7968,7 +7969,7 @@
         <v>18</v>
       </c>
       <c r="I186" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -7976,16 +7977,16 @@
         <v>1058</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D187" t="s">
+        <v>276</v>
+      </c>
+      <c r="E187" t="s">
         <v>277</v>
-      </c>
-      <c r="E187" t="s">
-        <v>278</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>16</v>
@@ -7997,7 +7998,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -8005,16 +8006,16 @@
         <v>8900006</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C188" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D188" t="s">
+        <v>314</v>
+      </c>
+      <c r="E188" t="s">
         <v>315</v>
-      </c>
-      <c r="E188" t="s">
-        <v>316</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>16</v>
@@ -8026,7 +8027,7 @@
         <v>18</v>
       </c>
       <c r="I188" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -8034,16 +8035,16 @@
         <v>8900003</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C189" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D189" t="s">
+        <v>340</v>
+      </c>
+      <c r="E189" t="s">
         <v>341</v>
-      </c>
-      <c r="E189" t="s">
-        <v>342</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>16</v>
@@ -8055,7 +8056,7 @@
         <v>18</v>
       </c>
       <c r="I189" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -8063,16 +8064,16 @@
         <v>4009</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C190" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D190" t="s">
+        <v>404</v>
+      </c>
+      <c r="E190" t="s">
         <v>405</v>
-      </c>
-      <c r="E190" t="s">
-        <v>406</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>16</v>
@@ -8084,7 +8085,7 @@
         <v>18</v>
       </c>
       <c r="I190" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -8092,16 +8093,16 @@
         <v>4271</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C191" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D191" t="s">
+        <v>406</v>
+      </c>
+      <c r="E191" t="s">
         <v>407</v>
-      </c>
-      <c r="E191" t="s">
-        <v>408</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>16</v>
@@ -8113,7 +8114,7 @@
         <v>18</v>
       </c>
       <c r="I191" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,16 +8122,16 @@
         <v>4141</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C192" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D192" t="s">
+        <v>418</v>
+      </c>
+      <c r="E192" t="s">
         <v>419</v>
-      </c>
-      <c r="E192" t="s">
-        <v>420</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>16</v>
@@ -8142,7 +8143,7 @@
         <v>18</v>
       </c>
       <c r="I192" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -8150,16 +8151,16 @@
         <v>5047</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C193" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D193" t="s">
+        <v>426</v>
+      </c>
+      <c r="E193" t="s">
         <v>427</v>
-      </c>
-      <c r="E193" t="s">
-        <v>428</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>16</v>
@@ -8171,7 +8172,7 @@
         <v>18</v>
       </c>
       <c r="I193" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -8179,28 +8180,28 @@
         <v>1034</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C194" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D194" t="s">
+        <v>236</v>
+      </c>
+      <c r="E194" t="s">
         <v>237</v>
       </c>
-      <c r="E194" t="s">
-        <v>238</v>
-      </c>
       <c r="F194" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G194" s="3">
         <v>10931</v>
       </c>
       <c r="H194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I194" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -8208,28 +8209,28 @@
         <v>1011</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C195" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D195" t="s">
+        <v>242</v>
+      </c>
+      <c r="E195" t="s">
         <v>243</v>
       </c>
-      <c r="E195" t="s">
-        <v>244</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G195" s="3">
         <v>10931</v>
       </c>
       <c r="H195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I195" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -8237,28 +8238,28 @@
         <v>10948</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C196" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D196" t="s">
+        <v>250</v>
+      </c>
+      <c r="E196" t="s">
         <v>251</v>
       </c>
-      <c r="E196" t="s">
-        <v>252</v>
-      </c>
       <c r="F196" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G196" s="3">
         <v>10931</v>
       </c>
       <c r="H196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I196" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -8266,28 +8267,28 @@
         <v>9342</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C197" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D197" t="s">
+        <v>350</v>
+      </c>
+      <c r="E197" t="s">
         <v>351</v>
       </c>
-      <c r="E197" t="s">
-        <v>352</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G197" s="3">
         <v>10931</v>
       </c>
       <c r="H197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I197" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -8295,28 +8296,28 @@
         <v>9635</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C198" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D198" t="s">
+        <v>372</v>
+      </c>
+      <c r="E198" t="s">
         <v>373</v>
       </c>
-      <c r="E198" t="s">
-        <v>374</v>
-      </c>
       <c r="F198" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G198" s="3">
         <v>10931</v>
       </c>
       <c r="H198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I198" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -8324,19 +8325,19 @@
         <v>2990</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C199" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D199" t="s">
+        <v>132</v>
+      </c>
+      <c r="E199" t="s">
         <v>133</v>
       </c>
-      <c r="E199" t="s">
-        <v>134</v>
-      </c>
       <c r="F199" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G199" s="3">
         <v>11053</v>
@@ -8345,7 +8346,7 @@
         <v>9</v>
       </c>
       <c r="I199" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -8353,19 +8354,19 @@
         <v>840</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C200" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D200" t="s">
+        <v>142</v>
+      </c>
+      <c r="E200" t="s">
         <v>143</v>
       </c>
-      <c r="E200" t="s">
-        <v>144</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G200" s="3">
         <v>11053</v>
@@ -8374,7 +8375,7 @@
         <v>9</v>
       </c>
       <c r="I200" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -8382,19 +8383,19 @@
         <v>151</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C201" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D201" t="s">
+        <v>290</v>
+      </c>
+      <c r="E201" t="s">
         <v>291</v>
       </c>
-      <c r="E201" t="s">
-        <v>292</v>
-      </c>
       <c r="F201" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G201" s="3">
         <v>11053</v>
@@ -8403,7 +8404,7 @@
         <v>9</v>
       </c>
       <c r="I201" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -8411,19 +8412,19 @@
         <v>348</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C202" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D202" t="s">
+        <v>294</v>
+      </c>
+      <c r="E202" t="s">
         <v>295</v>
       </c>
-      <c r="E202" t="s">
-        <v>296</v>
-      </c>
       <c r="F202" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G202" s="3">
         <v>11053</v>
@@ -8432,7 +8433,7 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -8440,19 +8441,19 @@
         <v>193</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C203" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D203" t="s">
+        <v>300</v>
+      </c>
+      <c r="E203" t="s">
         <v>301</v>
       </c>
-      <c r="E203" t="s">
-        <v>302</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G203" s="3">
         <v>11053</v>
@@ -8461,7 +8462,7 @@
         <v>9</v>
       </c>
       <c r="I203" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -8469,19 +8470,19 @@
         <v>3968</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C204" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D204" t="s">
+        <v>352</v>
+      </c>
+      <c r="E204" t="s">
         <v>353</v>
       </c>
-      <c r="E204" t="s">
-        <v>354</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G204" s="3">
         <v>11053</v>
@@ -8490,7 +8491,7 @@
         <v>9</v>
       </c>
       <c r="I204" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -8498,19 +8499,19 @@
         <v>4786</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C205" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D205" t="s">
+        <v>398</v>
+      </c>
+      <c r="E205" t="s">
         <v>399</v>
       </c>
-      <c r="E205" t="s">
-        <v>400</v>
-      </c>
       <c r="F205" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G205" s="3">
         <v>11053</v>
@@ -8519,7 +8520,7 @@
         <v>9</v>
       </c>
       <c r="I205" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -8527,19 +8528,19 @@
         <v>898</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C206" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D206" t="s">
+        <v>452</v>
+      </c>
+      <c r="E206" t="s">
         <v>453</v>
       </c>
-      <c r="E206" t="s">
-        <v>454</v>
-      </c>
       <c r="F206" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G206" s="3">
         <v>11053</v>
@@ -8548,7 +8549,7 @@
         <v>9</v>
       </c>
       <c r="I206" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -8556,19 +8557,19 @@
         <v>3584</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C207" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D207" t="s">
+        <v>454</v>
+      </c>
+      <c r="E207" t="s">
         <v>455</v>
       </c>
-      <c r="E207" t="s">
-        <v>456</v>
-      </c>
       <c r="F207" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G207" s="3">
         <v>11053</v>
@@ -8577,7 +8578,7 @@
         <v>9</v>
       </c>
       <c r="I207" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -8585,19 +8586,19 @@
         <v>830</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C208" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D208" t="s">
+        <v>476</v>
+      </c>
+      <c r="E208" t="s">
         <v>477</v>
       </c>
-      <c r="E208" t="s">
-        <v>478</v>
-      </c>
       <c r="F208" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G208" s="3">
         <v>11053</v>
@@ -8606,7 +8607,7 @@
         <v>9</v>
       </c>
       <c r="I208" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -8614,19 +8615,19 @@
         <v>11455</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C209" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D209" t="s">
+        <v>496</v>
+      </c>
+      <c r="E209" t="s">
         <v>497</v>
       </c>
-      <c r="E209" t="s">
-        <v>498</v>
-      </c>
       <c r="F209" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G209" s="3">
         <v>11053</v>
@@ -8635,7 +8636,7 @@
         <v>9</v>
       </c>
       <c r="I209" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -8643,19 +8644,19 @@
         <v>11912</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C210" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D210" t="s">
+        <v>498</v>
+      </c>
+      <c r="E210" t="s">
         <v>499</v>
       </c>
-      <c r="E210" t="s">
-        <v>500</v>
-      </c>
       <c r="F210" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G210" s="3">
         <v>11053</v>
@@ -8664,7 +8665,7 @@
         <v>9</v>
       </c>
       <c r="I210" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -8672,19 +8673,19 @@
         <v>10749</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C211" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D211" t="s">
+        <v>520</v>
+      </c>
+      <c r="E211" t="s">
         <v>521</v>
       </c>
-      <c r="E211" t="s">
-        <v>522</v>
-      </c>
       <c r="F211" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G211" s="3">
         <v>11053</v>
@@ -8693,7 +8694,7 @@
         <v>9</v>
       </c>
       <c r="I211" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -8701,19 +8702,19 @@
         <v>10978</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C212" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D212" t="s">
+        <v>528</v>
+      </c>
+      <c r="E212" t="s">
         <v>529</v>
       </c>
-      <c r="E212" t="s">
-        <v>530</v>
-      </c>
       <c r="F212" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G212" s="3">
         <v>11053</v>
@@ -8722,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="I212" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -8730,19 +8731,19 @@
         <v>368</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C213" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D213" t="s">
+        <v>534</v>
+      </c>
+      <c r="E213" t="s">
         <v>535</v>
       </c>
-      <c r="E213" t="s">
-        <v>536</v>
-      </c>
       <c r="F213" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G213" s="3">
         <v>11053</v>
@@ -8751,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="I213" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -8759,19 +8760,19 @@
         <v>811</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C214" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D214" t="s">
+        <v>544</v>
+      </c>
+      <c r="E214" t="s">
         <v>545</v>
       </c>
-      <c r="E214" t="s">
-        <v>546</v>
-      </c>
       <c r="F214" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G214" s="3">
         <v>11053</v>
@@ -8780,7 +8781,7 @@
         <v>9</v>
       </c>
       <c r="I214" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -8788,28 +8789,28 @@
         <v>11622</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D215" t="s">
+        <v>144</v>
+      </c>
+      <c r="E215" t="s">
         <v>145</v>
       </c>
-      <c r="E215" t="s">
-        <v>146</v>
-      </c>
       <c r="F215" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G215" s="3">
         <v>12340</v>
       </c>
       <c r="H215" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I215" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -8817,28 +8818,28 @@
         <v>9586</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C216" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D216" t="s">
+        <v>148</v>
+      </c>
+      <c r="E216" t="s">
         <v>149</v>
       </c>
-      <c r="E216" t="s">
-        <v>150</v>
-      </c>
       <c r="F216" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G216" s="3">
         <v>12340</v>
       </c>
       <c r="H216" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I216" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8846,28 +8847,28 @@
         <v>4293</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C217" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D217" t="s">
+        <v>150</v>
+      </c>
+      <c r="E217" t="s">
         <v>151</v>
       </c>
-      <c r="E217" t="s">
-        <v>152</v>
-      </c>
       <c r="F217" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G217" s="3">
         <v>12340</v>
       </c>
       <c r="H217" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I217" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8875,28 +8876,28 @@
         <v>465</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D218" t="s">
+        <v>152</v>
+      </c>
+      <c r="E218" t="s">
         <v>153</v>
       </c>
-      <c r="E218" t="s">
-        <v>154</v>
-      </c>
       <c r="F218" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G218" s="3">
         <v>12340</v>
       </c>
       <c r="H218" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I218" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8904,28 +8905,28 @@
         <v>4202</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C219" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D219" t="s">
+        <v>160</v>
+      </c>
+      <c r="E219" t="s">
         <v>161</v>
       </c>
-      <c r="E219" t="s">
-        <v>162</v>
-      </c>
       <c r="F219" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G219" s="3">
         <v>12340</v>
       </c>
       <c r="H219" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I219" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8933,28 +8934,28 @@
         <v>989</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C220" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D220" t="s">
+        <v>186</v>
+      </c>
+      <c r="E220" t="s">
         <v>187</v>
       </c>
-      <c r="E220" t="s">
-        <v>188</v>
-      </c>
       <c r="F220" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G220" s="3">
         <v>12340</v>
       </c>
       <c r="H220" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I220" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8962,28 +8963,28 @@
         <v>950</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C221" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D221" t="s">
+        <v>202</v>
+      </c>
+      <c r="E221" t="s">
         <v>203</v>
       </c>
-      <c r="E221" t="s">
-        <v>204</v>
-      </c>
       <c r="F221" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G221" s="3">
         <v>12340</v>
       </c>
       <c r="H221" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I221" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8991,28 +8992,28 @@
         <v>8900000</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D222" t="s">
+        <v>208</v>
+      </c>
+      <c r="E222" t="s">
         <v>209</v>
       </c>
-      <c r="E222" t="s">
-        <v>210</v>
-      </c>
       <c r="F222" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G222" s="3">
         <v>12340</v>
       </c>
       <c r="H222" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I222" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -9020,28 +9021,28 @@
         <v>11825</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D223" t="s">
+        <v>220</v>
+      </c>
+      <c r="E223" t="s">
         <v>221</v>
       </c>
-      <c r="E223" t="s">
-        <v>222</v>
-      </c>
       <c r="F223" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G223" s="3">
         <v>12340</v>
       </c>
       <c r="H223" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I223" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -9049,28 +9050,28 @@
         <v>8971166</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C224" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D224" t="s">
+        <v>274</v>
+      </c>
+      <c r="E224" t="s">
         <v>275</v>
       </c>
-      <c r="E224" t="s">
-        <v>276</v>
-      </c>
       <c r="F224" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G224" s="3">
         <v>12340</v>
       </c>
       <c r="H224" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I224" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -9078,28 +9079,28 @@
         <v>186</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C225" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D225" t="s">
+        <v>310</v>
+      </c>
+      <c r="E225" t="s">
         <v>311</v>
       </c>
-      <c r="E225" t="s">
-        <v>312</v>
-      </c>
       <c r="F225" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G225" s="3">
         <v>12340</v>
       </c>
       <c r="H225" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I225" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -9130,7 +9131,7 @@
   <dimension ref="E2:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9158,204 +9159,204 @@
     </row>
     <row r="3" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E3" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F3" s="3">
         <v>11868</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>606</v>
+      <c r="G3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="Q3">
         <v>11868</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E4" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F4" s="3">
         <v>11108</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>607</v>
+      <c r="G4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>606</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q4">
         <v>11108</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E5" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F5" s="3">
         <v>12077</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>608</v>
+      <c r="H5" s="10" t="s">
+        <v>607</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q5">
         <v>5</v>
       </c>
       <c r="R5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E6" s="9" t="s">
-        <v>14</v>
+        <v>638</v>
       </c>
       <c r="F6" s="3">
-        <v>11932</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>609</v>
+        <v>12487</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>637</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q6">
         <v>11932</v>
       </c>
       <c r="R6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E7" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F7" s="3">
         <v>12028</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>617</v>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="L7" t="s">
+        <v>615</v>
       </c>
       <c r="Q7">
         <v>12028</v>
       </c>
       <c r="R7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="10" t="s">
-        <v>593</v>
+      <c r="E8" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="F8" s="3">
         <v>12053</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>617</v>
+      <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L8" t="s">
+        <v>615</v>
       </c>
       <c r="Q8">
         <v>12053</v>
       </c>
       <c r="R8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F9" s="3">
         <v>11679</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>612</v>
+      <c r="G9" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>610</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>617</v>
+      <c r="L9" t="s">
+        <v>615</v>
       </c>
       <c r="Q9">
         <v>11679</v>
       </c>
       <c r="R9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F10" s="3">
         <v>11617</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>613</v>
+      <c r="H10" s="10" t="s">
+        <v>611</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>617</v>
+      <c r="L10" t="s">
+        <v>615</v>
       </c>
       <c r="Q10">
         <v>11617</v>
       </c>
       <c r="R10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
@@ -9365,121 +9366,121 @@
       <c r="F11" s="3">
         <v>11023</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="H11" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>617</v>
+      <c r="L11" t="s">
+        <v>615</v>
       </c>
       <c r="Q11">
         <v>11023</v>
       </c>
       <c r="R11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F12" s="3">
         <v>10931</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="L12" t="s">
         <v>615</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="L12" t="s">
-        <v>617</v>
       </c>
       <c r="Q12">
         <v>10931</v>
       </c>
       <c r="R12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="10" t="s">
-        <v>583</v>
+      <c r="E13" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="F13" s="3">
         <v>11053</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>616</v>
+      <c r="H13" s="10" t="s">
+        <v>614</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q13">
         <v>11053</v>
       </c>
       <c r="R13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="10" t="s">
-        <v>585</v>
+      <c r="E14" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="F14" s="3">
         <v>12078</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>620</v>
-      </c>
       <c r="K14" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="Q14">
         <v>11753</v>
       </c>
       <c r="R14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="10" t="s">
-        <v>588</v>
+      <c r="E15" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="F15" s="3">
         <v>12298</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>617</v>
+      <c r="K15" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="L15" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
@@ -9489,37 +9490,37 @@
       <c r="F16" s="3">
         <v>12080</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>617</v>
+      <c r="G16" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="L16" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="3">
         <v>12087</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>625</v>
+      <c r="G17" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>623</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
@@ -9529,129 +9530,129 @@
       <c r="F18" s="3">
         <v>12076</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>617</v>
+      <c r="G18" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="L18" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F19" s="3">
         <v>12341</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>629</v>
+      <c r="G19" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>627</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>617</v>
+        <v>583</v>
+      </c>
+      <c r="L19" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="10" t="s">
-        <v>590</v>
+      <c r="E20" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="F20" s="3">
         <v>12229</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>631</v>
+      <c r="G20" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>629</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="12" t="s">
-        <v>617</v>
+      <c r="L20" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E21" s="10" t="s">
-        <v>586</v>
+      <c r="E21" s="1" t="s">
+        <v>585</v>
       </c>
       <c r="F21" s="3">
         <v>12364</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>633</v>
+      <c r="G21" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>631</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>617</v>
+        <v>594</v>
+      </c>
+      <c r="L21" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E22" s="10" t="s">
-        <v>589</v>
+      <c r="E22" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="F22" s="3">
         <v>12340</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>617</v>
+      <c r="G22" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="L22" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="K23" s="10" t="s">
-        <v>589</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="K23" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
